--- a/BackTest/2019-10-26 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-26 BackTest ENJ.xlsx
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -5396,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>70.40000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="K143" t="n">
         <v>70.59999999999999</v>
@@ -5439,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>70</v>
+        <v>70.3</v>
       </c>
       <c r="K144" t="n">
         <v>70.59999999999999</v>
@@ -5525,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>70.2</v>
+        <v>70</v>
       </c>
       <c r="K146" t="n">
         <v>70.59999999999999</v>
@@ -5562,14 +5562,12 @@
         <v>70.1400000000001</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>70.2</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
         <v>70.59999999999999</v>
       </c>
@@ -5605,14 +5603,12 @@
         <v>70.06000000000009</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>69.90000000000001</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
         <v>70.59999999999999</v>
       </c>
@@ -5648,14 +5644,12 @@
         <v>70.18000000000009</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>70.59999999999999</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
         <v>70.59999999999999</v>
       </c>

--- a/BackTest/2019-10-26 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-26 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>73</v>
       </c>
       <c r="F2" t="n">
-        <v>9237</v>
+        <v>50000.0017</v>
       </c>
       <c r="G2" t="n">
-        <v>73.04000000000001</v>
+        <v>72.37000000000003</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>73</v>
       </c>
       <c r="F3" t="n">
-        <v>11850</v>
+        <v>9237</v>
       </c>
       <c r="G3" t="n">
-        <v>73.02000000000001</v>
+        <v>72.40333333333336</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>73</v>
       </c>
       <c r="F4" t="n">
-        <v>5001.8608</v>
+        <v>11850</v>
       </c>
       <c r="G4" t="n">
-        <v>73</v>
+        <v>72.4366666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>72.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="C5" t="n">
-        <v>72.3</v>
+        <v>73</v>
       </c>
       <c r="D5" t="n">
-        <v>72.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="E5" t="n">
-        <v>72.3</v>
+        <v>73</v>
       </c>
       <c r="F5" t="n">
-        <v>7520</v>
+        <v>5001.8608</v>
       </c>
       <c r="G5" t="n">
-        <v>72.86</v>
+        <v>72.47166666666671</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>72</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>72</v>
+        <v>72.3</v>
       </c>
       <c r="D6" t="n">
-        <v>72</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>72</v>
+        <v>72.3</v>
       </c>
       <c r="F6" t="n">
-        <v>7473.5707</v>
+        <v>7520</v>
       </c>
       <c r="G6" t="n">
-        <v>72.66</v>
+        <v>72.49500000000005</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>71.90000000000001</v>
+        <v>72</v>
       </c>
       <c r="C7" t="n">
-        <v>71.90000000000001</v>
+        <v>72</v>
       </c>
       <c r="D7" t="n">
-        <v>71.90000000000001</v>
+        <v>72</v>
       </c>
       <c r="E7" t="n">
-        <v>71.90000000000001</v>
+        <v>72</v>
       </c>
       <c r="F7" t="n">
-        <v>30.9695</v>
+        <v>7473.5707</v>
       </c>
       <c r="G7" t="n">
-        <v>72.44000000000001</v>
+        <v>72.51333333333338</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>72.59999999999999</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>72.59999999999999</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>72.59999999999999</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>72.59999999999999</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>7070</v>
+        <v>30.9695</v>
       </c>
       <c r="G8" t="n">
-        <v>72.36000000000001</v>
+        <v>72.5266666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>72.7</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>73.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>73.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>72.7</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>40706.2121</v>
+        <v>7070</v>
       </c>
       <c r="G9" t="n">
-        <v>72.38000000000002</v>
+        <v>72.55000000000004</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="C10" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c r="C10" t="n">
-        <v>73.3</v>
-      </c>
       <c r="D10" t="n">
-        <v>73.59999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>72.5</v>
+        <v>72.7</v>
       </c>
       <c r="F10" t="n">
-        <v>80911.5793</v>
+        <v>40706.2121</v>
       </c>
       <c r="G10" t="n">
-        <v>72.58000000000001</v>
+        <v>72.58666666666673</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>73.7</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>74.3</v>
+        <v>73.3</v>
       </c>
       <c r="D11" t="n">
-        <v>74.3</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>73.7</v>
+        <v>72.5</v>
       </c>
       <c r="F11" t="n">
-        <v>29484.6251</v>
+        <v>80911.5793</v>
       </c>
       <c r="G11" t="n">
-        <v>73.04000000000002</v>
+        <v>72.62666666666674</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>74.3</v>
+        <v>73.7</v>
       </c>
       <c r="C12" t="n">
         <v>74.3</v>
@@ -792,13 +792,13 @@
         <v>74.3</v>
       </c>
       <c r="E12" t="n">
-        <v>74.3</v>
+        <v>73.7</v>
       </c>
       <c r="F12" t="n">
-        <v>14626.0996</v>
+        <v>29484.6251</v>
       </c>
       <c r="G12" t="n">
-        <v>73.52000000000002</v>
+        <v>72.68166666666674</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>74.40000000000001</v>
+        <v>74.3</v>
       </c>
       <c r="C13" t="n">
-        <v>75</v>
+        <v>74.3</v>
       </c>
       <c r="D13" t="n">
-        <v>75</v>
+        <v>74.3</v>
       </c>
       <c r="E13" t="n">
-        <v>74.40000000000001</v>
+        <v>74.3</v>
       </c>
       <c r="F13" t="n">
-        <v>177937.3334</v>
+        <v>14626.0996</v>
       </c>
       <c r="G13" t="n">
-        <v>74.00000000000003</v>
+        <v>72.73333333333341</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>74.59999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>74.40000000000001</v>
+        <v>75</v>
       </c>
       <c r="D14" t="n">
-        <v>74.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
         <v>74.40000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>2000</v>
+        <v>177937.3334</v>
       </c>
       <c r="G14" t="n">
-        <v>74.26000000000002</v>
+        <v>72.79500000000007</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,28 +888,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>74.40000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C15" t="n">
         <v>74.40000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>74.40000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E15" t="n">
         <v>74.40000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>486.1259</v>
+        <v>2000</v>
       </c>
       <c r="G15" t="n">
-        <v>74.48</v>
+        <v>72.84500000000007</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>74.2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>74.2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>74.2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>74.2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>135.3632</v>
+        <v>486.1259</v>
       </c>
       <c r="G16" t="n">
-        <v>74.46000000000001</v>
+        <v>72.89666666666673</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,28 +958,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>73.5</v>
+        <v>74.2</v>
       </c>
       <c r="C17" t="n">
-        <v>73.5</v>
+        <v>74.2</v>
       </c>
       <c r="D17" t="n">
-        <v>73.5</v>
+        <v>74.2</v>
       </c>
       <c r="E17" t="n">
-        <v>73.5</v>
+        <v>74.2</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>135.3632</v>
       </c>
       <c r="G17" t="n">
-        <v>74.3</v>
+        <v>72.93166666666671</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>72.8</v>
+        <v>73.5</v>
       </c>
       <c r="C18" t="n">
-        <v>72.8</v>
+        <v>73.5</v>
       </c>
       <c r="D18" t="n">
-        <v>72.8</v>
+        <v>73.5</v>
       </c>
       <c r="E18" t="n">
-        <v>72.8</v>
+        <v>73.5</v>
       </c>
       <c r="F18" t="n">
-        <v>707.5601</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>73.86</v>
+        <v>72.95666666666672</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>73.8</v>
+        <v>72.8</v>
       </c>
       <c r="C19" t="n">
-        <v>74.2</v>
+        <v>72.8</v>
       </c>
       <c r="D19" t="n">
-        <v>74.2</v>
+        <v>72.8</v>
       </c>
       <c r="E19" t="n">
-        <v>73.8</v>
+        <v>72.8</v>
       </c>
       <c r="F19" t="n">
-        <v>2000</v>
+        <v>707.5601</v>
       </c>
       <c r="G19" t="n">
-        <v>73.82000000000001</v>
+        <v>72.96000000000005</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>74.40000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="C20" t="n">
-        <v>74.40000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="D20" t="n">
-        <v>74.40000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="E20" t="n">
-        <v>74.40000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="F20" t="n">
-        <v>31.15591397849462</v>
+        <v>2000</v>
       </c>
       <c r="G20" t="n">
-        <v>73.82000000000001</v>
+        <v>72.98833333333339</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>74.40000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>74.5</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>74.5</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E21" t="n">
         <v>74.40000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>26918.7804</v>
+        <v>31.15591397849462</v>
       </c>
       <c r="G21" t="n">
-        <v>73.88000000000001</v>
+        <v>73.01833333333337</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="C22" t="n">
         <v>74.5</v>
       </c>
-      <c r="C22" t="n">
-        <v>75</v>
-      </c>
       <c r="D22" t="n">
-        <v>75</v>
+        <v>74.5</v>
       </c>
       <c r="E22" t="n">
-        <v>74.5</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>49728.0751860215</v>
+        <v>26918.7804</v>
       </c>
       <c r="G22" t="n">
-        <v>74.18000000000001</v>
+        <v>73.05000000000003</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>75</v>
+        <v>74.5</v>
       </c>
       <c r="C23" t="n">
         <v>75</v>
@@ -1180,10 +1180,10 @@
         <v>74.5</v>
       </c>
       <c r="F23" t="n">
-        <v>23794.4069</v>
+        <v>49728.0751860215</v>
       </c>
       <c r="G23" t="n">
-        <v>74.62</v>
+        <v>73.09000000000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>74.8</v>
+        <v>75</v>
       </c>
       <c r="C24" t="n">
-        <v>74.7</v>
+        <v>75</v>
       </c>
       <c r="D24" t="n">
-        <v>74.8</v>
+        <v>75</v>
       </c>
       <c r="E24" t="n">
-        <v>74.7</v>
+        <v>74.5</v>
       </c>
       <c r="F24" t="n">
-        <v>29524.7999</v>
+        <v>23794.4069</v>
       </c>
       <c r="G24" t="n">
-        <v>74.72</v>
+        <v>73.12833333333336</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>73.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="C25" t="n">
-        <v>73.40000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="D25" t="n">
-        <v>73.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="E25" t="n">
-        <v>73.40000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="F25" t="n">
-        <v>132.2266</v>
+        <v>29524.7999</v>
       </c>
       <c r="G25" t="n">
-        <v>74.52000000000001</v>
+        <v>73.16333333333336</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>73.3</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>72.8</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>73.3</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>72.8</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>9770.501099999999</v>
+        <v>132.2266</v>
       </c>
       <c r="G26" t="n">
-        <v>74.18000000000001</v>
+        <v>73.17500000000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>72.09999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="C27" t="n">
-        <v>72</v>
+        <v>72.8</v>
       </c>
       <c r="D27" t="n">
-        <v>72.09999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="E27" t="n">
-        <v>72</v>
+        <v>72.8</v>
       </c>
       <c r="F27" t="n">
-        <v>20000</v>
+        <v>9770.501099999999</v>
       </c>
       <c r="G27" t="n">
-        <v>73.58000000000001</v>
+        <v>73.17666666666669</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>72.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>73.3</v>
+        <v>72</v>
       </c>
       <c r="D28" t="n">
-        <v>73.3</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>72.90000000000001</v>
+        <v>72</v>
       </c>
       <c r="F28" t="n">
-        <v>6290</v>
+        <v>20000</v>
       </c>
       <c r="G28" t="n">
-        <v>73.24000000000001</v>
+        <v>73.16166666666669</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>72.40000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>72.3</v>
+        <v>73.3</v>
       </c>
       <c r="D29" t="n">
-        <v>73.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="E29" t="n">
-        <v>72.3</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>45883.9189</v>
+        <v>6290</v>
       </c>
       <c r="G29" t="n">
-        <v>72.76000000000002</v>
+        <v>73.17000000000003</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1419,16 +1419,16 @@
         <v>72.3</v>
       </c>
       <c r="D30" t="n">
-        <v>72.40000000000001</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="E30" t="n">
         <v>72.3</v>
       </c>
       <c r="F30" t="n">
-        <v>18327</v>
+        <v>45883.9189</v>
       </c>
       <c r="G30" t="n">
-        <v>72.54000000000001</v>
+        <v>73.16166666666669</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="C31" t="n">
         <v>72.3</v>
       </c>
-      <c r="C31" t="n">
-        <v>72.09999999999999</v>
-      </c>
       <c r="D31" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="E31" t="n">
         <v>72.3</v>
       </c>
-      <c r="E31" t="n">
-        <v>72.09999999999999</v>
-      </c>
       <c r="F31" t="n">
-        <v>90007.9945</v>
+        <v>18327</v>
       </c>
       <c r="G31" t="n">
-        <v>72.40000000000001</v>
+        <v>73.16166666666669</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>72.5</v>
+        <v>72.3</v>
       </c>
       <c r="C32" t="n">
-        <v>72.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>72.90000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="E32" t="n">
         <v>72.09999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>10831.4137</v>
+        <v>90007.9945</v>
       </c>
       <c r="G32" t="n">
-        <v>72.58000000000001</v>
+        <v>73.1516666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>73.5</v>
+        <v>72.5</v>
       </c>
       <c r="C33" t="n">
-        <v>72.7</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>73.5</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>72.7</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>41327.3333</v>
+        <v>10831.4137</v>
       </c>
       <c r="G33" t="n">
-        <v>72.46000000000001</v>
+        <v>73.15333333333336</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>72.3</v>
+        <v>73.5</v>
       </c>
       <c r="C34" t="n">
-        <v>72.3</v>
+        <v>72.7</v>
       </c>
       <c r="D34" t="n">
-        <v>72.3</v>
+        <v>73.5</v>
       </c>
       <c r="E34" t="n">
-        <v>72.3</v>
+        <v>72.7</v>
       </c>
       <c r="F34" t="n">
-        <v>2355.9999</v>
+        <v>41327.3333</v>
       </c>
       <c r="G34" t="n">
-        <v>72.46000000000001</v>
+        <v>73.15000000000003</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>72.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="C35" t="n">
-        <v>72.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="D35" t="n">
-        <v>72.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="E35" t="n">
-        <v>72.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="F35" t="n">
-        <v>2613</v>
+        <v>2355.9999</v>
       </c>
       <c r="G35" t="n">
-        <v>72.42000000000002</v>
+        <v>73.14000000000004</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>72.09999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>11441.4305</v>
+        <v>2613</v>
       </c>
       <c r="G36" t="n">
-        <v>72.42</v>
+        <v>73.12666666666672</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>72.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>72.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>72.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>72.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>11830.5241</v>
+        <v>11441.4305</v>
       </c>
       <c r="G37" t="n">
-        <v>72.34</v>
+        <v>73.12333333333339</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>72.59999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="C38" t="n">
-        <v>72.59999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="D38" t="n">
-        <v>72.59999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="E38" t="n">
-        <v>72.59999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="F38" t="n">
-        <v>260.002</v>
+        <v>11830.5241</v>
       </c>
       <c r="G38" t="n">
-        <v>72.32000000000002</v>
+        <v>73.13000000000005</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>72.8</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>73.2</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>73.2</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>72.8</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>11267</v>
+        <v>260.002</v>
       </c>
       <c r="G39" t="n">
-        <v>72.50000000000001</v>
+        <v>73.13500000000005</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>72.59999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="C40" t="n">
-        <v>72.3</v>
+        <v>73.2</v>
       </c>
       <c r="D40" t="n">
-        <v>72.59999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="E40" t="n">
-        <v>72.3</v>
+        <v>72.8</v>
       </c>
       <c r="F40" t="n">
-        <v>7960</v>
+        <v>11267</v>
       </c>
       <c r="G40" t="n">
-        <v>72.54000000000001</v>
+        <v>73.14166666666671</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="C41" t="n">
         <v>72.3</v>
       </c>
-      <c r="C41" t="n">
-        <v>72</v>
-      </c>
       <c r="D41" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="E41" t="n">
         <v>72.3</v>
       </c>
-      <c r="E41" t="n">
-        <v>72</v>
-      </c>
       <c r="F41" t="n">
-        <v>18094</v>
+        <v>7960</v>
       </c>
       <c r="G41" t="n">
-        <v>72.52000000000001</v>
+        <v>73.13000000000005</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="C42" t="n">
-        <v>72.59999999999999</v>
+        <v>72</v>
       </c>
       <c r="D42" t="n">
-        <v>72.59999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="E42" t="n">
-        <v>72.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="F42" t="n">
-        <v>20490</v>
+        <v>18094</v>
       </c>
       <c r="G42" t="n">
-        <v>72.54000000000001</v>
+        <v>73.11500000000005</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>72.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D43" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="E43" t="n">
         <v>72.40000000000001</v>
       </c>
-      <c r="E43" t="n">
-        <v>72.09999999999999</v>
-      </c>
       <c r="F43" t="n">
-        <v>15180</v>
+        <v>20490</v>
       </c>
       <c r="G43" t="n">
-        <v>72.44000000000001</v>
+        <v>73.10833333333339</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>72.2</v>
+        <v>72.3</v>
       </c>
       <c r="C44" t="n">
-        <v>71.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>72.2</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>71.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>24276.8719</v>
+        <v>15180</v>
       </c>
       <c r="G44" t="n">
-        <v>72.16000000000001</v>
+        <v>73.0933333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>72.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="C45" t="n">
-        <v>72.3</v>
+        <v>71.8</v>
       </c>
       <c r="D45" t="n">
-        <v>72.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="E45" t="n">
-        <v>71.7</v>
+        <v>71.8</v>
       </c>
       <c r="F45" t="n">
-        <v>18636.9429</v>
+        <v>24276.8719</v>
       </c>
       <c r="G45" t="n">
-        <v>72.16000000000001</v>
+        <v>73.07333333333341</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="C46" t="n">
         <v>72.3</v>
       </c>
-      <c r="C46" t="n">
-        <v>72.5</v>
-      </c>
       <c r="D46" t="n">
-        <v>72.5</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>72.3</v>
+        <v>71.7</v>
       </c>
       <c r="F46" t="n">
-        <v>1669.679</v>
+        <v>18636.9429</v>
       </c>
       <c r="G46" t="n">
-        <v>72.26000000000002</v>
+        <v>73.06166666666674</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>72.7</v>
+        <v>72.3</v>
       </c>
       <c r="C47" t="n">
-        <v>73</v>
+        <v>72.5</v>
       </c>
       <c r="D47" t="n">
-        <v>73</v>
+        <v>72.5</v>
       </c>
       <c r="E47" t="n">
-        <v>72.7</v>
+        <v>72.3</v>
       </c>
       <c r="F47" t="n">
-        <v>50</v>
+        <v>1669.679</v>
       </c>
       <c r="G47" t="n">
-        <v>72.34</v>
+        <v>73.05333333333341</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>73.8</v>
+        <v>72.7</v>
       </c>
       <c r="C48" t="n">
-        <v>73.8</v>
+        <v>73</v>
       </c>
       <c r="D48" t="n">
-        <v>73.8</v>
+        <v>73</v>
       </c>
       <c r="E48" t="n">
-        <v>73.8</v>
+        <v>72.7</v>
       </c>
       <c r="F48" t="n">
-        <v>18149.4473</v>
+        <v>50</v>
       </c>
       <c r="G48" t="n">
-        <v>72.68000000000002</v>
+        <v>73.05333333333341</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>74.7</v>
+        <v>73.8</v>
       </c>
       <c r="C49" t="n">
-        <v>74.7</v>
+        <v>73.8</v>
       </c>
       <c r="D49" t="n">
-        <v>74.7</v>
+        <v>73.8</v>
       </c>
       <c r="E49" t="n">
-        <v>74.7</v>
+        <v>73.8</v>
       </c>
       <c r="F49" t="n">
-        <v>5480.8593</v>
+        <v>18149.4473</v>
       </c>
       <c r="G49" t="n">
-        <v>73.26000000000002</v>
+        <v>73.06666666666675</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>73.7</v>
+        <v>74.7</v>
       </c>
       <c r="C50" t="n">
-        <v>72.09999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="D50" t="n">
-        <v>73.7</v>
+        <v>74.7</v>
       </c>
       <c r="E50" t="n">
-        <v>72.09999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="F50" t="n">
-        <v>23918.434</v>
+        <v>5480.8593</v>
       </c>
       <c r="G50" t="n">
-        <v>73.22000000000001</v>
+        <v>73.09666666666675</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>72.09999999999999</v>
+        <v>73.7</v>
       </c>
       <c r="C51" t="n">
         <v>72.09999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>72.09999999999999</v>
+        <v>73.7</v>
       </c>
       <c r="E51" t="n">
         <v>72.09999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>500</v>
+        <v>23918.434</v>
       </c>
       <c r="G51" t="n">
-        <v>73.14000000000001</v>
+        <v>73.08000000000008</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>72</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>71.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>72</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>71.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>3143.1314</v>
+        <v>500</v>
       </c>
       <c r="G52" t="n">
-        <v>72.92</v>
+        <v>73.07000000000009</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>71.7</v>
+        <v>72</v>
       </c>
       <c r="C53" t="n">
-        <v>71.7</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>71.7</v>
+        <v>72</v>
       </c>
       <c r="E53" t="n">
-        <v>71.7</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>11403</v>
+        <v>3143.1314</v>
       </c>
       <c r="G53" t="n">
-        <v>72.5</v>
+        <v>73.05000000000008</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>72.40000000000001</v>
+        <v>71.7</v>
       </c>
       <c r="C54" t="n">
-        <v>74.3</v>
+        <v>71.7</v>
       </c>
       <c r="D54" t="n">
-        <v>74.3</v>
+        <v>71.7</v>
       </c>
       <c r="E54" t="n">
-        <v>72.40000000000001</v>
+        <v>71.7</v>
       </c>
       <c r="F54" t="n">
-        <v>10922.7431</v>
+        <v>11403</v>
       </c>
       <c r="G54" t="n">
-        <v>72.42</v>
+        <v>73.03500000000007</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>71.8</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>74.40000000000001</v>
+        <v>74.3</v>
       </c>
       <c r="D55" t="n">
-        <v>74.40000000000001</v>
+        <v>74.3</v>
       </c>
       <c r="E55" t="n">
-        <v>71.8</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>2165</v>
+        <v>10922.7431</v>
       </c>
       <c r="G55" t="n">
-        <v>72.88</v>
+        <v>73.0633333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>73.3</v>
+        <v>71.8</v>
       </c>
       <c r="C56" t="n">
-        <v>73.3</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>73.3</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>73.3</v>
+        <v>71.8</v>
       </c>
       <c r="F56" t="n">
-        <v>39.0892</v>
+        <v>2165</v>
       </c>
       <c r="G56" t="n">
-        <v>73.12</v>
+        <v>73.0883333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>73.3</v>
       </c>
       <c r="F57" t="n">
-        <v>102.4727</v>
+        <v>39.0892</v>
       </c>
       <c r="G57" t="n">
-        <v>73.40000000000001</v>
+        <v>73.0933333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>72.5</v>
+        <v>73.3</v>
       </c>
       <c r="C58" t="n">
-        <v>72</v>
+        <v>73.3</v>
       </c>
       <c r="D58" t="n">
-        <v>72.5</v>
+        <v>73.3</v>
       </c>
       <c r="E58" t="n">
-        <v>72</v>
+        <v>73.3</v>
       </c>
       <c r="F58" t="n">
-        <v>2500</v>
+        <v>102.4727</v>
       </c>
       <c r="G58" t="n">
-        <v>73.46000000000001</v>
+        <v>73.0983333333334</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>72.7</v>
+        <v>72.5</v>
       </c>
       <c r="C59" t="n">
-        <v>72.7</v>
+        <v>72</v>
       </c>
       <c r="D59" t="n">
-        <v>72.7</v>
+        <v>72.5</v>
       </c>
       <c r="E59" t="n">
-        <v>72.7</v>
+        <v>72</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>2500</v>
       </c>
       <c r="G59" t="n">
-        <v>73.14</v>
+        <v>73.08000000000007</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>72.90000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="C60" t="n">
-        <v>72.90000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="D60" t="n">
-        <v>72.90000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="E60" t="n">
-        <v>72.90000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="F60" t="n">
-        <v>141.1818</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>72.84</v>
+        <v>73.07333333333339</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>72.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>72.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>72.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>72.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>655.5185</v>
+        <v>141.1818</v>
       </c>
       <c r="G61" t="n">
-        <v>72.74000000000001</v>
+        <v>73.07166666666672</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>73.09999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="C62" t="n">
-        <v>72.09999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="D62" t="n">
-        <v>73.09999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="E62" t="n">
-        <v>72.09999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="F62" t="n">
-        <v>1510</v>
+        <v>655.5185</v>
       </c>
       <c r="G62" t="n">
-        <v>72.50000000000001</v>
+        <v>73.06833333333338</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>72.09999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C63" t="n">
         <v>72.09999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>72.09999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E63" t="n">
         <v>72.09999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>742.8952</v>
+        <v>1510</v>
       </c>
       <c r="G63" t="n">
-        <v>72.52000000000001</v>
+        <v>73.05333333333338</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>72.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>72.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>72.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>72.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>10</v>
+        <v>742.8952</v>
       </c>
       <c r="G64" t="n">
-        <v>72.56</v>
+        <v>73.0383333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>73.09999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>73.09999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>73.09999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>73.09999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F65" t="n">
         <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>72.59999999999999</v>
+        <v>73.03666666666672</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>72.8</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>73</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>73</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>72.09999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>11751.3595</v>
+        <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>72.64</v>
+        <v>73.05000000000005</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>72.40000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="C67" t="n">
-        <v>72.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="D67" t="n">
-        <v>72.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="E67" t="n">
-        <v>72.40000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>4394.273</v>
+        <v>11751.3595</v>
       </c>
       <c r="G67" t="n">
-        <v>72.7</v>
+        <v>73.06666666666673</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>73.40000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C68" t="n">
         <v>72.40000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>73.40000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E68" t="n">
         <v>72.40000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>7789.2234</v>
+        <v>4394.273</v>
       </c>
       <c r="G68" t="n">
-        <v>72.75999999999999</v>
+        <v>73.07500000000006</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>73.3</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>73.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>73.3</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>73.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>7789.2234</v>
       </c>
       <c r="G69" t="n">
-        <v>72.83999999999999</v>
+        <v>73.07166666666672</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>72.2</v>
+        <v>73.3</v>
       </c>
       <c r="C70" t="n">
-        <v>72.2</v>
+        <v>73.3</v>
       </c>
       <c r="D70" t="n">
-        <v>72.2</v>
+        <v>73.3</v>
       </c>
       <c r="E70" t="n">
-        <v>72.2</v>
+        <v>73.3</v>
       </c>
       <c r="F70" t="n">
-        <v>14833.3264</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>72.66</v>
+        <v>73.07500000000005</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2851,19 +2851,19 @@
         <v>72.2</v>
       </c>
       <c r="C71" t="n">
-        <v>72</v>
+        <v>72.2</v>
       </c>
       <c r="D71" t="n">
         <v>72.2</v>
       </c>
       <c r="E71" t="n">
-        <v>72</v>
+        <v>72.2</v>
       </c>
       <c r="F71" t="n">
-        <v>4477.1195</v>
+        <v>14833.3264</v>
       </c>
       <c r="G71" t="n">
-        <v>72.45999999999999</v>
+        <v>73.0566666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>72</v>
+        <v>72.2</v>
       </c>
       <c r="C72" t="n">
         <v>72</v>
       </c>
       <c r="D72" t="n">
-        <v>72</v>
+        <v>72.2</v>
       </c>
       <c r="E72" t="n">
         <v>72</v>
       </c>
       <c r="F72" t="n">
-        <v>3315</v>
+        <v>4477.1195</v>
       </c>
       <c r="G72" t="n">
-        <v>72.38</v>
+        <v>73.01833333333337</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>72.59999999999999</v>
+        <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>72.59999999999999</v>
+        <v>72</v>
       </c>
       <c r="D73" t="n">
-        <v>72.59999999999999</v>
+        <v>72</v>
       </c>
       <c r="E73" t="n">
-        <v>72.59999999999999</v>
+        <v>72</v>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>3315</v>
       </c>
       <c r="G73" t="n">
-        <v>72.42</v>
+        <v>72.98000000000003</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>72.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>72.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>72.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>72.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>3301.9418</v>
+        <v>10</v>
       </c>
       <c r="G74" t="n">
-        <v>72.26000000000001</v>
+        <v>72.94000000000004</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>72</v>
+        <v>72.5</v>
       </c>
       <c r="C75" t="n">
-        <v>71.3</v>
+        <v>72.5</v>
       </c>
       <c r="D75" t="n">
-        <v>72</v>
+        <v>72.5</v>
       </c>
       <c r="E75" t="n">
-        <v>71.3</v>
+        <v>72.5</v>
       </c>
       <c r="F75" t="n">
-        <v>500</v>
+        <v>3301.9418</v>
       </c>
       <c r="G75" t="n">
-        <v>72.08000000000001</v>
+        <v>72.90833333333337</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>72.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="C76" t="n">
-        <v>72.40000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="D76" t="n">
-        <v>72.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="E76" t="n">
-        <v>72.40000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="G76" t="n">
-        <v>72.16000000000001</v>
+        <v>72.85666666666673</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>71.40000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>71.40000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>71.40000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>71.40000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F77" t="n">
         <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>72.04000000000001</v>
+        <v>72.82666666666672</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>72</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>72.09999999999999</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>72.09999999999999</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>72</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>1309.330910402219</v>
+        <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>71.94000000000001</v>
+        <v>72.79166666666671</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>71.2</v>
+        <v>72</v>
       </c>
       <c r="C79" t="n">
-        <v>70.59999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>71.2</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>70.59999999999999</v>
+        <v>72</v>
       </c>
       <c r="F79" t="n">
-        <v>42500</v>
+        <v>1309.330910402219</v>
       </c>
       <c r="G79" t="n">
-        <v>71.56000000000002</v>
+        <v>72.78000000000004</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>72.2</v>
+        <v>71.2</v>
       </c>
       <c r="C80" t="n">
-        <v>72.2</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>72.2</v>
+        <v>71.2</v>
       </c>
       <c r="E80" t="n">
-        <v>72.2</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>984.4838999999999</v>
+        <v>42500</v>
       </c>
       <c r="G80" t="n">
-        <v>71.74000000000001</v>
+        <v>72.72000000000006</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3201,19 +3201,19 @@
         <v>72.2</v>
       </c>
       <c r="C81" t="n">
-        <v>72.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="D81" t="n">
-        <v>72.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="E81" t="n">
         <v>72.2</v>
       </c>
       <c r="F81" t="n">
-        <v>13459.452</v>
+        <v>984.4838999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>71.74000000000001</v>
+        <v>72.68333333333339</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>72.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="C82" t="n">
-        <v>72.59999999999999</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>72.59999999999999</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>72.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="F82" t="n">
-        <v>9286.3619</v>
+        <v>13459.452</v>
       </c>
       <c r="G82" t="n">
-        <v>71.98000000000002</v>
+        <v>72.64833333333338</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>72.2</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>72.2</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>72.2</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>72.2</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>9588.108899999999</v>
+        <v>9286.3619</v>
       </c>
       <c r="G83" t="n">
-        <v>72.00000000000003</v>
+        <v>72.60833333333339</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>72.2</v>
       </c>
       <c r="F84" t="n">
-        <v>18142.0136</v>
+        <v>9588.108899999999</v>
       </c>
       <c r="G84" t="n">
-        <v>72.32000000000002</v>
+        <v>72.56166666666672</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>72.7</v>
+        <v>72.2</v>
       </c>
       <c r="C85" t="n">
-        <v>71.7</v>
+        <v>72.2</v>
       </c>
       <c r="D85" t="n">
-        <v>72.7</v>
+        <v>72.2</v>
       </c>
       <c r="E85" t="n">
-        <v>71.7</v>
+        <v>72.2</v>
       </c>
       <c r="F85" t="n">
-        <v>10530.8615</v>
+        <v>18142.0136</v>
       </c>
       <c r="G85" t="n">
-        <v>72.22000000000003</v>
+        <v>72.52000000000005</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>73</v>
+        <v>72.7</v>
       </c>
       <c r="C86" t="n">
-        <v>73.2</v>
+        <v>71.7</v>
       </c>
       <c r="D86" t="n">
-        <v>73.2</v>
+        <v>72.7</v>
       </c>
       <c r="E86" t="n">
-        <v>73</v>
+        <v>71.7</v>
       </c>
       <c r="F86" t="n">
-        <v>3379.3164</v>
+        <v>10530.8615</v>
       </c>
       <c r="G86" t="n">
-        <v>72.38000000000002</v>
+        <v>72.49166666666673</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>73.5</v>
+        <v>73</v>
       </c>
       <c r="C87" t="n">
-        <v>73.5</v>
+        <v>73.2</v>
       </c>
       <c r="D87" t="n">
-        <v>73.5</v>
+        <v>73.2</v>
       </c>
       <c r="E87" t="n">
-        <v>73.5</v>
+        <v>73</v>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>3379.3164</v>
       </c>
       <c r="G87" t="n">
-        <v>72.56000000000002</v>
+        <v>72.49833333333339</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,10 +3455,10 @@
         <v>73.5</v>
       </c>
       <c r="F88" t="n">
-        <v>1390.4493</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>72.82000000000002</v>
+        <v>72.52333333333338</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>73.8</v>
+        <v>73.5</v>
       </c>
       <c r="C89" t="n">
-        <v>73.8</v>
+        <v>73.5</v>
       </c>
       <c r="D89" t="n">
-        <v>73.8</v>
+        <v>73.5</v>
       </c>
       <c r="E89" t="n">
-        <v>73.8</v>
+        <v>73.5</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>1390.4493</v>
       </c>
       <c r="G89" t="n">
-        <v>73.14000000000001</v>
+        <v>72.52666666666671</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>73.8</v>
       </c>
       <c r="F90" t="n">
-        <v>4406.453</v>
+        <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>73.56000000000003</v>
+        <v>72.55166666666672</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>73.7</v>
+        <v>73.8</v>
       </c>
       <c r="C91" t="n">
-        <v>73.90000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="D91" t="n">
-        <v>73.90000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="E91" t="n">
-        <v>73.7</v>
+        <v>73.8</v>
       </c>
       <c r="F91" t="n">
-        <v>399.025</v>
+        <v>4406.453</v>
       </c>
       <c r="G91" t="n">
-        <v>73.70000000000003</v>
+        <v>72.57666666666672</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3586,19 +3586,19 @@
         <v>73.7</v>
       </c>
       <c r="C92" t="n">
-        <v>73.7</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>73.7</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E92" t="n">
         <v>73.7</v>
       </c>
       <c r="F92" t="n">
-        <v>9646</v>
+        <v>399.025</v>
       </c>
       <c r="G92" t="n">
-        <v>73.74000000000004</v>
+        <v>72.60666666666671</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>73.90000000000001</v>
+        <v>73.7</v>
       </c>
       <c r="C93" t="n">
-        <v>74.09999999999999</v>
+        <v>73.7</v>
       </c>
       <c r="D93" t="n">
-        <v>74.09999999999999</v>
+        <v>73.7</v>
       </c>
       <c r="E93" t="n">
-        <v>73.90000000000001</v>
+        <v>73.7</v>
       </c>
       <c r="F93" t="n">
-        <v>7535</v>
+        <v>9646</v>
       </c>
       <c r="G93" t="n">
-        <v>73.86000000000004</v>
+        <v>72.62000000000005</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>74.09999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="C94" t="n">
         <v>74.09999999999999</v>
@@ -3662,13 +3662,13 @@
         <v>74.09999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>74</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>5047.6702</v>
+        <v>7535</v>
       </c>
       <c r="G94" t="n">
-        <v>73.92000000000004</v>
+        <v>72.64333333333339</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3691,19 +3691,19 @@
         <v>74.09999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>74.40000000000001</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>74.40000000000001</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="E95" t="n">
         <v>74</v>
       </c>
       <c r="F95" t="n">
-        <v>6274.4386</v>
+        <v>5047.6702</v>
       </c>
       <c r="G95" t="n">
-        <v>74.04000000000005</v>
+        <v>72.67333333333339</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>74.40000000000001</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="C96" t="n">
         <v>74.40000000000001</v>
@@ -3732,13 +3732,13 @@
         <v>74.40000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>74.40000000000001</v>
+        <v>74</v>
       </c>
       <c r="F96" t="n">
-        <v>98.33329999999999</v>
+        <v>6274.4386</v>
       </c>
       <c r="G96" t="n">
-        <v>74.14000000000006</v>
+        <v>72.71166666666672</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>74</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>74</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>74</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>74</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>505</v>
+        <v>98.33329999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>74.20000000000006</v>
+        <v>72.75000000000003</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>73.8</v>
+        <v>74</v>
       </c>
       <c r="C98" t="n">
-        <v>73.2</v>
+        <v>74</v>
       </c>
       <c r="D98" t="n">
-        <v>73.8</v>
+        <v>74</v>
       </c>
       <c r="E98" t="n">
-        <v>73.2</v>
+        <v>74</v>
       </c>
       <c r="F98" t="n">
-        <v>1909.5584</v>
+        <v>505</v>
       </c>
       <c r="G98" t="n">
-        <v>74.02000000000005</v>
+        <v>72.77500000000003</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>73.09999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="C99" t="n">
-        <v>73.09999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="D99" t="n">
-        <v>73.09999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="E99" t="n">
-        <v>73.09999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="F99" t="n">
-        <v>880</v>
+        <v>1909.5584</v>
       </c>
       <c r="G99" t="n">
-        <v>73.82000000000005</v>
+        <v>72.78500000000003</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>73.09999999999999</v>
       </c>
       <c r="F100" t="n">
-        <v>5000</v>
+        <v>880</v>
       </c>
       <c r="G100" t="n">
-        <v>73.56000000000006</v>
+        <v>72.78333333333336</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>73.8</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>73.8</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>73.8</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>73.8</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G101" t="n">
-        <v>73.44000000000005</v>
+        <v>72.7966666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>73.2</v>
+        <v>73.8</v>
       </c>
       <c r="C102" t="n">
-        <v>73.2</v>
+        <v>73.8</v>
       </c>
       <c r="D102" t="n">
-        <v>73.2</v>
+        <v>73.8</v>
       </c>
       <c r="E102" t="n">
-        <v>73.2</v>
+        <v>73.8</v>
       </c>
       <c r="F102" t="n">
-        <v>2008</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>73.28000000000006</v>
+        <v>72.8266666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>73.3</v>
+        <v>73.2</v>
       </c>
       <c r="C103" t="n">
-        <v>73.3</v>
+        <v>73.2</v>
       </c>
       <c r="D103" t="n">
-        <v>73.3</v>
+        <v>73.2</v>
       </c>
       <c r="E103" t="n">
-        <v>73.3</v>
+        <v>73.2</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>2008</v>
       </c>
       <c r="G103" t="n">
-        <v>73.30000000000005</v>
+        <v>72.83666666666669</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>72.8</v>
+        <v>73.3</v>
       </c>
       <c r="C104" t="n">
-        <v>72</v>
+        <v>73.3</v>
       </c>
       <c r="D104" t="n">
-        <v>72.8</v>
+        <v>73.3</v>
       </c>
       <c r="E104" t="n">
-        <v>72</v>
+        <v>73.3</v>
       </c>
       <c r="F104" t="n">
-        <v>87521.7257</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>73.08000000000007</v>
+        <v>72.8566666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4041,19 +4041,19 @@
         <v>72.8</v>
       </c>
       <c r="C105" t="n">
-        <v>72.8</v>
+        <v>72</v>
       </c>
       <c r="D105" t="n">
         <v>72.8</v>
       </c>
       <c r="E105" t="n">
-        <v>72.8</v>
+        <v>72</v>
       </c>
       <c r="F105" t="n">
-        <v>9979.6983</v>
+        <v>87521.7257</v>
       </c>
       <c r="G105" t="n">
-        <v>73.02000000000007</v>
+        <v>72.86000000000003</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>73</v>
+        <v>72.8</v>
       </c>
       <c r="C106" t="n">
-        <v>73</v>
+        <v>72.8</v>
       </c>
       <c r="D106" t="n">
-        <v>73</v>
+        <v>72.8</v>
       </c>
       <c r="E106" t="n">
-        <v>72.90000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="F106" t="n">
-        <v>11500</v>
+        <v>9979.6983</v>
       </c>
       <c r="G106" t="n">
-        <v>72.86000000000007</v>
+        <v>72.86833333333335</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,10 +4108,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>72.90000000000001</v>
+        <v>73</v>
       </c>
       <c r="C107" t="n">
-        <v>72.90000000000001</v>
+        <v>73</v>
       </c>
       <c r="D107" t="n">
         <v>73</v>
@@ -4120,10 +4120,10 @@
         <v>72.90000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>3823.8844</v>
+        <v>11500</v>
       </c>
       <c r="G107" t="n">
-        <v>72.80000000000008</v>
+        <v>72.87666666666669</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>73.3</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>73.40000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>73.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="E108" t="n">
-        <v>73.3</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>12010</v>
+        <v>3823.8844</v>
       </c>
       <c r="G108" t="n">
-        <v>72.82000000000008</v>
+        <v>72.87500000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>73.5</v>
+        <v>73.3</v>
       </c>
       <c r="C109" t="n">
-        <v>73.5</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>73.5</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>73.5</v>
+        <v>73.3</v>
       </c>
       <c r="F109" t="n">
-        <v>1361.074829931973</v>
+        <v>12010</v>
       </c>
       <c r="G109" t="n">
-        <v>73.12000000000009</v>
+        <v>72.86833333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>73.3</v>
+        <v>73.5</v>
       </c>
       <c r="C110" t="n">
-        <v>73.3</v>
+        <v>73.5</v>
       </c>
       <c r="D110" t="n">
-        <v>73.3</v>
+        <v>73.5</v>
       </c>
       <c r="E110" t="n">
-        <v>73.3</v>
+        <v>73.5</v>
       </c>
       <c r="F110" t="n">
-        <v>517</v>
+        <v>1361.074829931973</v>
       </c>
       <c r="G110" t="n">
-        <v>73.22000000000008</v>
+        <v>72.84833333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>72.90000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="C111" t="n">
-        <v>72.90000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="D111" t="n">
-        <v>72.90000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="E111" t="n">
-        <v>72.90000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="F111" t="n">
-        <v>7207.6947</v>
+        <v>517</v>
       </c>
       <c r="G111" t="n">
-        <v>73.20000000000009</v>
+        <v>72.86833333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>73.2</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>73.2</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>73.2</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>73.2</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>16.7213</v>
+        <v>7207.6947</v>
       </c>
       <c r="G112" t="n">
-        <v>73.26000000000008</v>
+        <v>72.88166666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4330,10 @@
         <v>73.2</v>
       </c>
       <c r="F113" t="n">
-        <v>2280</v>
+        <v>16.7213</v>
       </c>
       <c r="G113" t="n">
-        <v>73.22000000000007</v>
+        <v>72.90333333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>73.09999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="C114" t="n">
-        <v>73.09999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="D114" t="n">
-        <v>73.09999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="E114" t="n">
-        <v>73.09999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="F114" t="n">
-        <v>14970</v>
+        <v>2280</v>
       </c>
       <c r="G114" t="n">
-        <v>73.14000000000007</v>
+        <v>72.92833333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,10 +4400,10 @@
         <v>73.09999999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>12787</v>
+        <v>14970</v>
       </c>
       <c r="G115" t="n">
-        <v>73.10000000000008</v>
+        <v>72.90833333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>73.09999999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>1367.989056087551</v>
+        <v>12787</v>
       </c>
       <c r="G116" t="n">
-        <v>73.14000000000007</v>
+        <v>72.88666666666668</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>72.8</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>72.7</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>72.8</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>72.7</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>3043.9064</v>
+        <v>1367.989056087551</v>
       </c>
       <c r="G117" t="n">
-        <v>73.04000000000008</v>
+        <v>72.88333333333335</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="C118" t="n">
         <v>72.7</v>
       </c>
-      <c r="C118" t="n">
-        <v>72.59999999999999</v>
-      </c>
       <c r="D118" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="E118" t="n">
         <v>72.7</v>
       </c>
-      <c r="E118" t="n">
-        <v>72.59999999999999</v>
-      </c>
       <c r="F118" t="n">
-        <v>2386.3394</v>
+        <v>3043.9064</v>
       </c>
       <c r="G118" t="n">
-        <v>72.92000000000009</v>
+        <v>72.87333333333335</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="C119" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="C119" t="n">
-        <v>72.5</v>
-      </c>
       <c r="D119" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="E119" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="E119" t="n">
-        <v>72.5</v>
-      </c>
       <c r="F119" t="n">
-        <v>750</v>
+        <v>2386.3394</v>
       </c>
       <c r="G119" t="n">
-        <v>72.8000000000001</v>
+        <v>72.88333333333335</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="C120" t="n">
         <v>72.5</v>
       </c>
-      <c r="C120" t="n">
-        <v>72.09999999999999</v>
-      </c>
       <c r="D120" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="E120" t="n">
         <v>72.5</v>
       </c>
-      <c r="E120" t="n">
-        <v>72.09999999999999</v>
-      </c>
       <c r="F120" t="n">
-        <v>8231.6952</v>
+        <v>750</v>
       </c>
       <c r="G120" t="n">
-        <v>72.60000000000009</v>
+        <v>72.88000000000002</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4601,19 +4601,19 @@
         <v>72.5</v>
       </c>
       <c r="C121" t="n">
-        <v>72.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D121" t="n">
         <v>72.5</v>
       </c>
       <c r="E121" t="n">
-        <v>72.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>14741.6588</v>
+        <v>8231.6952</v>
       </c>
       <c r="G121" t="n">
-        <v>72.48000000000009</v>
+        <v>72.8666666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4645,10 +4645,10 @@
         <v>72.5</v>
       </c>
       <c r="F122" t="n">
-        <v>258.5723</v>
+        <v>14741.6588</v>
       </c>
       <c r="G122" t="n">
-        <v>72.44000000000008</v>
+        <v>72.86166666666669</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>72.40000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="C123" t="n">
-        <v>72.40000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="D123" t="n">
-        <v>72.40000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="E123" t="n">
-        <v>72.40000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="F123" t="n">
-        <v>4562.3</v>
+        <v>258.5723</v>
       </c>
       <c r="G123" t="n">
-        <v>72.40000000000009</v>
+        <v>72.86833333333335</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>71.8</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>71.8</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>71.8</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>71.8</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>500</v>
+        <v>4562.3</v>
       </c>
       <c r="G124" t="n">
-        <v>72.26000000000009</v>
+        <v>72.87333333333335</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>72.09999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="C125" t="n">
-        <v>72.2</v>
+        <v>71.8</v>
       </c>
       <c r="D125" t="n">
-        <v>72.2</v>
+        <v>71.8</v>
       </c>
       <c r="E125" t="n">
-        <v>72.09999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="F125" t="n">
-        <v>11246.0797</v>
+        <v>500</v>
       </c>
       <c r="G125" t="n">
-        <v>72.28000000000009</v>
+        <v>72.85500000000002</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,7 +4773,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>72.2</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C126" t="n">
         <v>72.2</v>
@@ -4782,13 +4782,13 @@
         <v>72.2</v>
       </c>
       <c r="E126" t="n">
-        <v>72.2</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>6433.3665</v>
+        <v>11246.0797</v>
       </c>
       <c r="G126" t="n">
-        <v>72.22000000000008</v>
+        <v>72.84</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4820,10 +4820,10 @@
         <v>72.2</v>
       </c>
       <c r="F127" t="n">
-        <v>6816.8205</v>
+        <v>6433.3665</v>
       </c>
       <c r="G127" t="n">
-        <v>72.16000000000008</v>
+        <v>72.82666666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>71.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="C128" t="n">
-        <v>71.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="D128" t="n">
-        <v>71.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="E128" t="n">
-        <v>71.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="F128" t="n">
-        <v>952.936</v>
+        <v>6816.8205</v>
       </c>
       <c r="G128" t="n">
-        <v>71.96000000000008</v>
+        <v>72.82333333333334</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>72</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>72.2</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>72.2</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>72</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>60660.9701</v>
+        <v>952.936</v>
       </c>
       <c r="G129" t="n">
-        <v>72.04000000000008</v>
+        <v>72.80666666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>71.8</v>
+        <v>72</v>
       </c>
       <c r="C130" t="n">
-        <v>71.8</v>
+        <v>72.2</v>
       </c>
       <c r="D130" t="n">
-        <v>71.8</v>
+        <v>72.2</v>
       </c>
       <c r="E130" t="n">
-        <v>71.8</v>
+        <v>72</v>
       </c>
       <c r="F130" t="n">
-        <v>7410</v>
+        <v>60660.9701</v>
       </c>
       <c r="G130" t="n">
-        <v>71.96000000000008</v>
+        <v>72.78833333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>71.40000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="C131" t="n">
-        <v>71.40000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="D131" t="n">
-        <v>71.40000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="E131" t="n">
-        <v>71.40000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="F131" t="n">
-        <v>2760.7981</v>
+        <v>7410</v>
       </c>
       <c r="G131" t="n">
-        <v>71.80000000000008</v>
+        <v>72.78166666666668</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>71.3</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>71.3</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>71.3</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>71.3</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F132" t="n">
-        <v>1147.8122</v>
+        <v>2760.7981</v>
       </c>
       <c r="G132" t="n">
-        <v>71.62000000000009</v>
+        <v>72.77166666666668</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>71.40000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="C133" t="n">
-        <v>71.5</v>
+        <v>71.3</v>
       </c>
       <c r="D133" t="n">
-        <v>71.5</v>
+        <v>71.3</v>
       </c>
       <c r="E133" t="n">
-        <v>71.40000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="F133" t="n">
-        <v>6140</v>
+        <v>1147.8122</v>
       </c>
       <c r="G133" t="n">
-        <v>71.64000000000007</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>71.3</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>71.3</v>
+        <v>71.5</v>
       </c>
       <c r="D134" t="n">
-        <v>71.3</v>
+        <v>71.5</v>
       </c>
       <c r="E134" t="n">
-        <v>71.3</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F134" t="n">
-        <v>618.4521999999999</v>
+        <v>6140</v>
       </c>
       <c r="G134" t="n">
-        <v>71.46000000000008</v>
+        <v>72.74166666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>71.09999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="C135" t="n">
-        <v>71.09999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="D135" t="n">
-        <v>71.09999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="E135" t="n">
-        <v>71.09999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="F135" t="n">
-        <v>137.0938</v>
+        <v>618.4521999999999</v>
       </c>
       <c r="G135" t="n">
-        <v>71.32000000000008</v>
+        <v>72.72166666666666</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>71</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>71</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>71</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>71</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="F136" t="n">
-        <v>6527.7183</v>
+        <v>137.0938</v>
       </c>
       <c r="G136" t="n">
-        <v>71.24000000000008</v>
+        <v>72.71833333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5170,10 +5170,10 @@
         <v>71</v>
       </c>
       <c r="F137" t="n">
-        <v>35.4929</v>
+        <v>6527.7183</v>
       </c>
       <c r="G137" t="n">
-        <v>71.18000000000008</v>
+        <v>72.69500000000001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>70.59999999999999</v>
+        <v>71</v>
       </c>
       <c r="C138" t="n">
-        <v>70.59999999999999</v>
+        <v>71</v>
       </c>
       <c r="D138" t="n">
-        <v>70.59999999999999</v>
+        <v>71</v>
       </c>
       <c r="E138" t="n">
-        <v>70.59999999999999</v>
+        <v>71</v>
       </c>
       <c r="F138" t="n">
-        <v>1202.9999</v>
+        <v>35.4929</v>
       </c>
       <c r="G138" t="n">
-        <v>71.00000000000007</v>
+        <v>72.68833333333335</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5231,19 +5231,19 @@
         <v>70.59999999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>70.5</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="D139" t="n">
         <v>70.59999999999999</v>
       </c>
       <c r="E139" t="n">
-        <v>70.5</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="F139" t="n">
-        <v>3658.8501</v>
+        <v>1202.9999</v>
       </c>
       <c r="G139" t="n">
-        <v>70.84000000000006</v>
+        <v>72.66333333333336</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>70.40000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>70.40000000000001</v>
+        <v>70.5</v>
       </c>
       <c r="D140" t="n">
-        <v>70.40000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>70.40000000000001</v>
+        <v>70.5</v>
       </c>
       <c r="F140" t="n">
-        <v>20.2374</v>
+        <v>3658.8501</v>
       </c>
       <c r="G140" t="n">
-        <v>70.70000000000007</v>
+        <v>72.66166666666668</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,31 +5298,35 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>70.59999999999999</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>70.59999999999999</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>70.59999999999999</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>70.59999999999999</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="F141" t="n">
-        <v>2000.0008</v>
+        <v>20.2374</v>
       </c>
       <c r="G141" t="n">
-        <v>70.62000000000008</v>
+        <v>72.63166666666667</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="K141" t="n">
+        <v>70.5</v>
+      </c>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
@@ -5345,10 +5349,10 @@
         <v>70.59999999999999</v>
       </c>
       <c r="F142" t="n">
-        <v>11.3314</v>
+        <v>2000.0008</v>
       </c>
       <c r="G142" t="n">
-        <v>70.54000000000008</v>
+        <v>72.60166666666669</v>
       </c>
       <c r="H142" t="n">
         <v>1</v>
@@ -5357,12 +5361,16 @@
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>70.59999999999999</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="K142" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L142" t="inlineStr"/>
+        <v>70.5</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5372,22 +5380,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>70.40000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>70.3</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>70.40000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="E143" t="n">
-        <v>70.3</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="F143" t="n">
-        <v>7974.2719</v>
+        <v>11.3314</v>
       </c>
       <c r="G143" t="n">
-        <v>70.48000000000009</v>
+        <v>72.56833333333336</v>
       </c>
       <c r="H143" t="n">
         <v>1</v>
@@ -5399,56 +5407,56 @@
         <v>70.59999999999999</v>
       </c>
       <c r="K143" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="C144" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="D144" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="E144" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="F144" t="n">
+        <v>7974.2719</v>
+      </c>
+      <c r="G144" t="n">
+        <v>72.53666666666669</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="L143" t="inlineStr">
+      <c r="K144" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="L144" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>70</v>
-      </c>
-      <c r="C144" t="n">
-        <v>70</v>
-      </c>
-      <c r="D144" t="n">
-        <v>70</v>
-      </c>
-      <c r="E144" t="n">
-        <v>70</v>
-      </c>
-      <c r="F144" t="n">
-        <v>16482.0291</v>
-      </c>
-      <c r="G144" t="n">
-        <v>70.38000000000008</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="K144" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5470,10 +5478,10 @@
         <v>70</v>
       </c>
       <c r="F145" t="n">
-        <v>14833.8262</v>
+        <v>16482.0291</v>
       </c>
       <c r="G145" t="n">
-        <v>70.3000000000001</v>
+        <v>72.50000000000003</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
@@ -5482,10 +5490,10 @@
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>70</v>
+        <v>70.3</v>
       </c>
       <c r="K145" t="n">
-        <v>70.59999999999999</v>
+        <v>70.5</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5501,22 +5509,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>70.2</v>
+        <v>70</v>
       </c>
       <c r="C146" t="n">
-        <v>70.2</v>
+        <v>70</v>
       </c>
       <c r="D146" t="n">
-        <v>70.2</v>
+        <v>70</v>
       </c>
       <c r="E146" t="n">
-        <v>70.2</v>
+        <v>70</v>
       </c>
       <c r="F146" t="n">
-        <v>11.1111</v>
+        <v>14833.8262</v>
       </c>
       <c r="G146" t="n">
-        <v>70.2200000000001</v>
+        <v>72.47166666666671</v>
       </c>
       <c r="H146" t="n">
         <v>1</v>
@@ -5528,7 +5536,7 @@
         <v>70</v>
       </c>
       <c r="K146" t="n">
-        <v>70.59999999999999</v>
+        <v>70.5</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5556,20 +5564,22 @@
         <v>70.2</v>
       </c>
       <c r="F147" t="n">
-        <v>1462.621</v>
+        <v>11.1111</v>
       </c>
       <c r="G147" t="n">
-        <v>70.1400000000001</v>
+        <v>72.4216666666667</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>70</v>
+      </c>
       <c r="K147" t="n">
-        <v>70.59999999999999</v>
+        <v>70.5</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -5585,32 +5595,34 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>69.90000000000001</v>
+        <v>70.2</v>
       </c>
       <c r="C148" t="n">
-        <v>69.90000000000001</v>
+        <v>70.2</v>
       </c>
       <c r="D148" t="n">
-        <v>69.90000000000001</v>
+        <v>70.2</v>
       </c>
       <c r="E148" t="n">
-        <v>69.90000000000001</v>
+        <v>70.2</v>
       </c>
       <c r="F148" t="n">
-        <v>41.2336</v>
+        <v>1462.621</v>
       </c>
       <c r="G148" t="n">
-        <v>70.06000000000009</v>
+        <v>72.3666666666667</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>70.2</v>
+      </c>
       <c r="K148" t="n">
-        <v>70.59999999999999</v>
+        <v>70.5</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -5626,22 +5638,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>70.59999999999999</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="C149" t="n">
-        <v>70.59999999999999</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="D149" t="n">
-        <v>70.59999999999999</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="E149" t="n">
-        <v>70.59999999999999</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F149" t="n">
-        <v>4877.5068</v>
+        <v>41.2336</v>
       </c>
       <c r="G149" t="n">
-        <v>70.18000000000009</v>
+        <v>72.30666666666669</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5651,7 +5663,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>70.59999999999999</v>
+        <v>70.5</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -5662,6 +5674,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="C150" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="D150" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="E150" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="F150" t="n">
+        <v>4877.5068</v>
+      </c>
+      <c r="G150" t="n">
+        <v>72.25333333333336</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-26 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-26 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:N160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>50000.0017</v>
       </c>
       <c r="G2" t="n">
+        <v>72.93999999999998</v>
+      </c>
+      <c r="H2" t="n">
         <v>72.37000000000003</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>9237</v>
       </c>
       <c r="G3" t="n">
+        <v>72.93999999999998</v>
+      </c>
+      <c r="H3" t="n">
         <v>72.40333333333336</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>11850</v>
       </c>
       <c r="G4" t="n">
+        <v>72.93999999999998</v>
+      </c>
+      <c r="H4" t="n">
         <v>72.4366666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>5001.8608</v>
       </c>
       <c r="G5" t="n">
+        <v>72.94666666666664</v>
+      </c>
+      <c r="H5" t="n">
         <v>72.47166666666671</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>7520</v>
       </c>
       <c r="G6" t="n">
+        <v>72.8933333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>72.49500000000005</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>7473.5707</v>
       </c>
       <c r="G7" t="n">
+        <v>72.84666666666664</v>
+      </c>
+      <c r="H7" t="n">
         <v>72.51333333333338</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>30.9695</v>
       </c>
       <c r="G8" t="n">
+        <v>72.76666666666665</v>
+      </c>
+      <c r="H8" t="n">
         <v>72.5266666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>7070</v>
       </c>
       <c r="G9" t="n">
+        <v>72.76666666666665</v>
+      </c>
+      <c r="H9" t="n">
         <v>72.55000000000004</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>40706.2121</v>
       </c>
       <c r="G10" t="n">
+        <v>72.79999999999998</v>
+      </c>
+      <c r="H10" t="n">
         <v>72.58666666666673</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>80911.5793</v>
       </c>
       <c r="G11" t="n">
+        <v>72.82666666666664</v>
+      </c>
+      <c r="H11" t="n">
         <v>72.62666666666674</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>29484.6251</v>
       </c>
       <c r="G12" t="n">
+        <v>72.91333333333331</v>
+      </c>
+      <c r="H12" t="n">
         <v>72.68166666666674</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>14626.0996</v>
       </c>
       <c r="G13" t="n">
+        <v>72.99999999999997</v>
+      </c>
+      <c r="H13" t="n">
         <v>72.73333333333341</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>177937.3334</v>
       </c>
       <c r="G14" t="n">
+        <v>73.12666666666664</v>
+      </c>
+      <c r="H14" t="n">
         <v>72.79500000000007</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>2000</v>
       </c>
       <c r="G15" t="n">
+        <v>73.21333333333332</v>
+      </c>
+      <c r="H15" t="n">
         <v>72.84500000000007</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>486.1259</v>
       </c>
       <c r="G16" t="n">
+        <v>73.30666666666666</v>
+      </c>
+      <c r="H16" t="n">
         <v>72.89666666666673</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>135.3632</v>
       </c>
       <c r="G17" t="n">
+        <v>73.38666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>72.93166666666671</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
+        <v>73.42</v>
+      </c>
+      <c r="H18" t="n">
         <v>72.95666666666672</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>707.5601</v>
       </c>
       <c r="G19" t="n">
+        <v>73.40666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>72.96000000000005</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>2000</v>
       </c>
       <c r="G20" t="n">
+        <v>73.48666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>72.98833333333339</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>31.15591397849462</v>
       </c>
       <c r="G21" t="n">
+        <v>73.62666666666668</v>
+      </c>
+      <c r="H21" t="n">
         <v>73.01833333333337</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>26918.7804</v>
       </c>
       <c r="G22" t="n">
+        <v>73.79333333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>73.05000000000003</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>49728.0751860215</v>
       </c>
       <c r="G23" t="n">
+        <v>74</v>
+      </c>
+      <c r="H23" t="n">
         <v>73.09000000000002</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>23794.4069</v>
       </c>
       <c r="G24" t="n">
+        <v>74.16000000000001</v>
+      </c>
+      <c r="H24" t="n">
         <v>73.12833333333336</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>29524.7999</v>
       </c>
       <c r="G25" t="n">
+        <v>74.26666666666668</v>
+      </c>
+      <c r="H25" t="n">
         <v>73.16333333333336</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>132.2266</v>
       </c>
       <c r="G26" t="n">
+        <v>74.27333333333335</v>
+      </c>
+      <c r="H26" t="n">
         <v>73.17500000000001</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>9770.501099999999</v>
       </c>
       <c r="G27" t="n">
+        <v>74.17333333333336</v>
+      </c>
+      <c r="H27" t="n">
         <v>73.17666666666669</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>20000</v>
       </c>
       <c r="G28" t="n">
+        <v>74.02000000000002</v>
+      </c>
+      <c r="H28" t="n">
         <v>73.16166666666669</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>6290</v>
       </c>
       <c r="G29" t="n">
+        <v>73.90666666666669</v>
+      </c>
+      <c r="H29" t="n">
         <v>73.17000000000003</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>45883.9189</v>
       </c>
       <c r="G30" t="n">
+        <v>73.76666666666668</v>
+      </c>
+      <c r="H30" t="n">
         <v>73.16166666666669</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>18327</v>
       </c>
       <c r="G31" t="n">
+        <v>73.62666666666668</v>
+      </c>
+      <c r="H31" t="n">
         <v>73.16166666666669</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>90007.9945</v>
       </c>
       <c r="G32" t="n">
+        <v>73.48666666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>73.1516666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>10831.4137</v>
       </c>
       <c r="G33" t="n">
+        <v>73.44666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>73.15333333333336</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>41327.3333</v>
       </c>
       <c r="G34" t="n">
+        <v>73.44000000000001</v>
+      </c>
+      <c r="H34" t="n">
         <v>73.15000000000003</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>2355.9999</v>
       </c>
       <c r="G35" t="n">
+        <v>73.31333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>73.14000000000004</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>2613</v>
       </c>
       <c r="G36" t="n">
+        <v>73.16</v>
+      </c>
+      <c r="H36" t="n">
         <v>73.12666666666672</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>11441.4305</v>
       </c>
       <c r="G37" t="n">
+        <v>72.99999999999999</v>
+      </c>
+      <c r="H37" t="n">
         <v>73.12333333333339</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>11830.5241</v>
       </c>
       <c r="G38" t="n">
+        <v>72.83333333333331</v>
+      </c>
+      <c r="H38" t="n">
         <v>73.13000000000005</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>260.002</v>
       </c>
       <c r="G39" t="n">
+        <v>72.67333333333332</v>
+      </c>
+      <c r="H39" t="n">
         <v>73.13500000000005</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>11267</v>
       </c>
       <c r="G40" t="n">
+        <v>72.57333333333331</v>
+      </c>
+      <c r="H40" t="n">
         <v>73.14166666666671</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>7960</v>
       </c>
       <c r="G41" t="n">
+        <v>72.49999999999997</v>
+      </c>
+      <c r="H41" t="n">
         <v>73.13000000000005</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>18094</v>
       </c>
       <c r="G42" t="n">
+        <v>72.44666666666664</v>
+      </c>
+      <c r="H42" t="n">
         <v>73.11500000000005</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>20490</v>
       </c>
       <c r="G43" t="n">
+        <v>72.48666666666664</v>
+      </c>
+      <c r="H43" t="n">
         <v>73.10833333333339</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>15180</v>
       </c>
       <c r="G44" t="n">
+        <v>72.40666666666662</v>
+      </c>
+      <c r="H44" t="n">
         <v>73.0933333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>24276.8719</v>
       </c>
       <c r="G45" t="n">
+        <v>72.37333333333329</v>
+      </c>
+      <c r="H45" t="n">
         <v>73.07333333333341</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>18636.9429</v>
       </c>
       <c r="G46" t="n">
+        <v>72.37333333333329</v>
+      </c>
+      <c r="H46" t="n">
         <v>73.06166666666674</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>1669.679</v>
       </c>
       <c r="G47" t="n">
+        <v>72.39999999999996</v>
+      </c>
+      <c r="H47" t="n">
         <v>73.05333333333341</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>50</v>
       </c>
       <c r="G48" t="n">
+        <v>72.40666666666662</v>
+      </c>
+      <c r="H48" t="n">
         <v>73.05333333333341</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>18149.4473</v>
       </c>
       <c r="G49" t="n">
+        <v>72.47999999999996</v>
+      </c>
+      <c r="H49" t="n">
         <v>73.06666666666675</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>5480.8593</v>
       </c>
       <c r="G50" t="n">
+        <v>72.63999999999996</v>
+      </c>
+      <c r="H50" t="n">
         <v>73.09666666666675</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>23918.434</v>
       </c>
       <c r="G51" t="n">
+        <v>72.63999999999996</v>
+      </c>
+      <c r="H51" t="n">
         <v>73.08000000000008</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>500</v>
       </c>
       <c r="G52" t="n">
+        <v>72.63999999999996</v>
+      </c>
+      <c r="H52" t="n">
         <v>73.07000000000009</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>3143.1314</v>
       </c>
       <c r="G53" t="n">
+        <v>72.59999999999997</v>
+      </c>
+      <c r="H53" t="n">
         <v>73.05000000000008</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>11403</v>
       </c>
       <c r="G54" t="n">
+        <v>72.53999999999998</v>
+      </c>
+      <c r="H54" t="n">
         <v>73.03500000000007</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>10922.7431</v>
       </c>
       <c r="G55" t="n">
+        <v>72.6133333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>73.0633333333334</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>2165</v>
       </c>
       <c r="G56" t="n">
+        <v>72.75333333333332</v>
+      </c>
+      <c r="H56" t="n">
         <v>73.0883333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>39.0892</v>
       </c>
       <c r="G57" t="n">
+        <v>72.83999999999997</v>
+      </c>
+      <c r="H57" t="n">
         <v>73.0933333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>102.4727</v>
       </c>
       <c r="G58" t="n">
+        <v>72.88666666666664</v>
+      </c>
+      <c r="H58" t="n">
         <v>73.0983333333334</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>2500</v>
       </c>
       <c r="G59" t="n">
+        <v>72.87999999999998</v>
+      </c>
+      <c r="H59" t="n">
         <v>73.08000000000007</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>10</v>
       </c>
       <c r="G60" t="n">
+        <v>72.94</v>
+      </c>
+      <c r="H60" t="n">
         <v>73.07333333333339</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>141.1818</v>
       </c>
       <c r="G61" t="n">
+        <v>72.98</v>
+      </c>
+      <c r="H61" t="n">
         <v>73.07166666666672</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>655.5185</v>
       </c>
       <c r="G62" t="n">
+        <v>73</v>
+      </c>
+      <c r="H62" t="n">
         <v>73.06833333333338</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>1510</v>
       </c>
       <c r="G63" t="n">
+        <v>72.94</v>
+      </c>
+      <c r="H63" t="n">
         <v>73.05333333333338</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>742.8952</v>
       </c>
       <c r="G64" t="n">
+        <v>72.82666666666665</v>
+      </c>
+      <c r="H64" t="n">
         <v>73.0383333333334</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>10</v>
       </c>
       <c r="G65" t="n">
+        <v>72.70666666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>73.03666666666672</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>10</v>
       </c>
       <c r="G66" t="n">
+        <v>72.77333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>73.05000000000005</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>11751.3595</v>
       </c>
       <c r="G67" t="n">
+        <v>72.83333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>73.06666666666673</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>4394.273</v>
       </c>
       <c r="G68" t="n">
+        <v>72.86666666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>73.07500000000006</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>7789.2234</v>
       </c>
       <c r="G69" t="n">
+        <v>72.91333333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>73.07166666666672</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>10</v>
       </c>
       <c r="G70" t="n">
+        <v>72.84666666666666</v>
+      </c>
+      <c r="H70" t="n">
         <v>73.07500000000005</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>14833.3264</v>
       </c>
       <c r="G71" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="H71" t="n">
         <v>73.0566666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>4477.1195</v>
       </c>
       <c r="G72" t="n">
+        <v>72.61333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>73.01833333333337</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>3315</v>
       </c>
       <c r="G73" t="n">
+        <v>72.52666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>72.98000000000003</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>10</v>
       </c>
       <c r="G74" t="n">
+        <v>72.56666666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>72.94000000000004</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>3301.9418</v>
       </c>
       <c r="G75" t="n">
+        <v>72.55333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>72.90833333333337</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>500</v>
       </c>
       <c r="G76" t="n">
+        <v>72.44666666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>72.85666666666673</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>10</v>
       </c>
       <c r="G77" t="n">
+        <v>72.42</v>
+      </c>
+      <c r="H77" t="n">
         <v>72.82666666666672</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>10</v>
       </c>
       <c r="G78" t="n">
+        <v>72.37333333333335</v>
+      </c>
+      <c r="H78" t="n">
         <v>72.79166666666671</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>1309.330910402219</v>
       </c>
       <c r="G79" t="n">
+        <v>72.37333333333335</v>
+      </c>
+      <c r="H79" t="n">
         <v>72.78000000000004</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>42500</v>
       </c>
       <c r="G80" t="n">
+        <v>72.22</v>
+      </c>
+      <c r="H80" t="n">
         <v>72.72000000000006</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>984.4838999999999</v>
       </c>
       <c r="G81" t="n">
+        <v>72.16000000000001</v>
+      </c>
+      <c r="H81" t="n">
         <v>72.68333333333339</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>13459.452</v>
       </c>
       <c r="G82" t="n">
+        <v>72.12000000000002</v>
+      </c>
+      <c r="H82" t="n">
         <v>72.64833333333338</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>9286.3619</v>
       </c>
       <c r="G83" t="n">
+        <v>72.13333333333334</v>
+      </c>
+      <c r="H83" t="n">
         <v>72.60833333333339</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>9588.108899999999</v>
       </c>
       <c r="G84" t="n">
+        <v>72.11999999999999</v>
+      </c>
+      <c r="H84" t="n">
         <v>72.56166666666672</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>18142.0136</v>
       </c>
       <c r="G85" t="n">
+        <v>72.04666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>72.52000000000005</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>10530.8615</v>
       </c>
       <c r="G86" t="n">
+        <v>72.01333333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>72.49166666666673</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>3379.3164</v>
       </c>
       <c r="G87" t="n">
+        <v>72.09333333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>72.49833333333339</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>10</v>
       </c>
       <c r="G88" t="n">
+        <v>72.19333333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>72.52333333333338</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>1390.4493</v>
       </c>
       <c r="G89" t="n">
+        <v>72.25333333333334</v>
+      </c>
+      <c r="H89" t="n">
         <v>72.52666666666671</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>10</v>
       </c>
       <c r="G90" t="n">
+        <v>72.34</v>
+      </c>
+      <c r="H90" t="n">
         <v>72.55166666666672</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>4406.453</v>
       </c>
       <c r="G91" t="n">
+        <v>72.50666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>72.57666666666672</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>399.025</v>
       </c>
       <c r="G92" t="n">
+        <v>72.60666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>72.60666666666671</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>9646</v>
       </c>
       <c r="G93" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="H93" t="n">
         <v>72.62000000000005</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>7535</v>
       </c>
       <c r="G94" t="n">
+        <v>72.89333333333335</v>
+      </c>
+      <c r="H94" t="n">
         <v>72.64333333333339</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>5047.6702</v>
       </c>
       <c r="G95" t="n">
+        <v>73.12666666666668</v>
+      </c>
+      <c r="H95" t="n">
         <v>72.67333333333339</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>6274.4386</v>
       </c>
       <c r="G96" t="n">
+        <v>73.27333333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>72.71166666666672</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>98.33329999999999</v>
       </c>
       <c r="G97" t="n">
+        <v>73.40666666666668</v>
+      </c>
+      <c r="H97" t="n">
         <v>72.75000000000003</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>505</v>
       </c>
       <c r="G98" t="n">
+        <v>73.50000000000001</v>
+      </c>
+      <c r="H98" t="n">
         <v>72.77500000000003</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>1909.5584</v>
       </c>
       <c r="G99" t="n">
+        <v>73.56666666666668</v>
+      </c>
+      <c r="H99" t="n">
         <v>72.78500000000003</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>880</v>
       </c>
       <c r="G100" t="n">
+        <v>73.62666666666668</v>
+      </c>
+      <c r="H100" t="n">
         <v>72.78333333333336</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>5000</v>
       </c>
       <c r="G101" t="n">
+        <v>73.72</v>
+      </c>
+      <c r="H101" t="n">
         <v>72.7966666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>10</v>
       </c>
       <c r="G102" t="n">
+        <v>73.75999999999999</v>
+      </c>
+      <c r="H102" t="n">
         <v>72.8266666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>2008</v>
       </c>
       <c r="G103" t="n">
+        <v>73.73999999999999</v>
+      </c>
+      <c r="H103" t="n">
         <v>72.83666666666669</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>10</v>
       </c>
       <c r="G104" t="n">
+        <v>73.72666666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>72.8566666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>87521.7257</v>
       </c>
       <c r="G105" t="n">
+        <v>73.60666666666665</v>
+      </c>
+      <c r="H105" t="n">
         <v>72.86000000000003</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>9979.6983</v>
       </c>
       <c r="G106" t="n">
+        <v>73.53999999999999</v>
+      </c>
+      <c r="H106" t="n">
         <v>72.86833333333335</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>11500</v>
       </c>
       <c r="G107" t="n">
+        <v>73.47999999999999</v>
+      </c>
+      <c r="H107" t="n">
         <v>72.87666666666669</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>3823.8844</v>
       </c>
       <c r="G108" t="n">
+        <v>73.42666666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>72.87500000000001</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>12010</v>
       </c>
       <c r="G109" t="n">
+        <v>73.38000000000001</v>
+      </c>
+      <c r="H109" t="n">
         <v>72.86833333333334</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>1361.074829931973</v>
       </c>
       <c r="G110" t="n">
+        <v>73.34</v>
+      </c>
+      <c r="H110" t="n">
         <v>72.84833333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>517</v>
       </c>
       <c r="G111" t="n">
+        <v>73.26666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>72.86833333333334</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>7207.6947</v>
       </c>
       <c r="G112" t="n">
+        <v>73.16666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>72.88166666666666</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>16.7213</v>
       </c>
       <c r="G113" t="n">
+        <v>73.11333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>72.90333333333334</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>2280</v>
       </c>
       <c r="G114" t="n">
+        <v>73.11333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>72.92833333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>14970</v>
       </c>
       <c r="G115" t="n">
+        <v>73.11333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>72.90833333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>12787</v>
       </c>
       <c r="G116" t="n">
+        <v>73.11333333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>72.88666666666668</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>1367.989056087551</v>
       </c>
       <c r="G117" t="n">
+        <v>73.06666666666666</v>
+      </c>
+      <c r="H117" t="n">
         <v>72.88333333333335</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>3043.9064</v>
       </c>
       <c r="G118" t="n">
+        <v>73.03333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>72.87333333333335</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>2386.3394</v>
       </c>
       <c r="G119" t="n">
+        <v>72.98666666666666</v>
+      </c>
+      <c r="H119" t="n">
         <v>72.88333333333335</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>750</v>
       </c>
       <c r="G120" t="n">
+        <v>73.02</v>
+      </c>
+      <c r="H120" t="n">
         <v>72.88000000000002</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>8231.6952</v>
       </c>
       <c r="G121" t="n">
+        <v>72.97333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>72.8666666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>14741.6588</v>
       </c>
       <c r="G122" t="n">
+        <v>72.94</v>
+      </c>
+      <c r="H122" t="n">
         <v>72.86166666666669</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>258.5723</v>
       </c>
       <c r="G123" t="n">
+        <v>72.91333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>72.86833333333335</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>4562.3</v>
       </c>
       <c r="G124" t="n">
+        <v>72.84666666666665</v>
+      </c>
+      <c r="H124" t="n">
         <v>72.87333333333335</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>500</v>
       </c>
       <c r="G125" t="n">
+        <v>72.73333333333332</v>
+      </c>
+      <c r="H125" t="n">
         <v>72.85500000000002</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>11246.0797</v>
       </c>
       <c r="G126" t="n">
+        <v>72.66</v>
+      </c>
+      <c r="H126" t="n">
         <v>72.84</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>6433.3665</v>
       </c>
       <c r="G127" t="n">
+        <v>72.61333333333332</v>
+      </c>
+      <c r="H127" t="n">
         <v>72.82666666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>6816.8205</v>
       </c>
       <c r="G128" t="n">
+        <v>72.54666666666665</v>
+      </c>
+      <c r="H128" t="n">
         <v>72.82333333333334</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>952.936</v>
       </c>
       <c r="G129" t="n">
+        <v>72.42666666666666</v>
+      </c>
+      <c r="H129" t="n">
         <v>72.80666666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>60660.9701</v>
       </c>
       <c r="G130" t="n">
+        <v>72.36666666666666</v>
+      </c>
+      <c r="H130" t="n">
         <v>72.78833333333334</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>7410</v>
       </c>
       <c r="G131" t="n">
+        <v>72.28</v>
+      </c>
+      <c r="H131" t="n">
         <v>72.78166666666668</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>2760.7981</v>
       </c>
       <c r="G132" t="n">
+        <v>72.16666666666669</v>
+      </c>
+      <c r="H132" t="n">
         <v>72.77166666666668</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>1147.8122</v>
       </c>
       <c r="G133" t="n">
+        <v>72.07333333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>72.76000000000001</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>6140</v>
       </c>
       <c r="G134" t="n">
+        <v>72.00000000000001</v>
+      </c>
+      <c r="H134" t="n">
         <v>72.74166666666666</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>618.4521999999999</v>
       </c>
       <c r="G135" t="n">
+        <v>71.92000000000002</v>
+      </c>
+      <c r="H135" t="n">
         <v>72.72166666666666</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>137.0938</v>
       </c>
       <c r="G136" t="n">
+        <v>71.85333333333334</v>
+      </c>
+      <c r="H136" t="n">
         <v>72.71833333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>6527.7183</v>
       </c>
       <c r="G137" t="n">
+        <v>71.75333333333334</v>
+      </c>
+      <c r="H137" t="n">
         <v>72.69500000000001</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>35.4929</v>
       </c>
       <c r="G138" t="n">
+        <v>71.65333333333335</v>
+      </c>
+      <c r="H138" t="n">
         <v>72.68833333333335</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>1202.9999</v>
       </c>
       <c r="G139" t="n">
+        <v>71.53333333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>72.66333333333336</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>3658.8501</v>
       </c>
       <c r="G140" t="n">
+        <v>71.44666666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>72.66166666666668</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,22 +5735,21 @@
         <v>20.2374</v>
       </c>
       <c r="G141" t="n">
+        <v>71.32666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>72.63166666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="K141" t="n">
-        <v>70.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5352,366 +5773,761 @@
         <v>2000.0008</v>
       </c>
       <c r="G142" t="n">
+        <v>71.22</v>
+      </c>
+      <c r="H142" t="n">
         <v>72.60166666666669</v>
       </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="C143" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="D143" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="E143" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="F143" t="n">
+        <v>11.3314</v>
+      </c>
+      <c r="G143" t="n">
+        <v>71.11333333333332</v>
+      </c>
+      <c r="H143" t="n">
+        <v>72.56833333333336</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="K142" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="C144" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="D144" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="E144" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="F144" t="n">
+        <v>7974.2719</v>
+      </c>
+      <c r="G144" t="n">
+        <v>71.03999999999998</v>
+      </c>
+      <c r="H144" t="n">
+        <v>72.53666666666669</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>70</v>
+      </c>
+      <c r="C145" t="n">
+        <v>70</v>
+      </c>
+      <c r="D145" t="n">
+        <v>70</v>
+      </c>
+      <c r="E145" t="n">
+        <v>70</v>
+      </c>
+      <c r="F145" t="n">
+        <v>16482.0291</v>
+      </c>
+      <c r="G145" t="n">
+        <v>70.8933333333333</v>
+      </c>
+      <c r="H145" t="n">
+        <v>72.50000000000003</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>70</v>
+      </c>
+      <c r="C146" t="n">
+        <v>70</v>
+      </c>
+      <c r="D146" t="n">
+        <v>70</v>
+      </c>
+      <c r="E146" t="n">
+        <v>70</v>
+      </c>
+      <c r="F146" t="n">
+        <v>14833.8262</v>
+      </c>
+      <c r="G146" t="n">
+        <v>70.77333333333331</v>
+      </c>
+      <c r="H146" t="n">
+        <v>72.47166666666671</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="C147" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="E147" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>11.1111</v>
+      </c>
+      <c r="G147" t="n">
+        <v>70.69333333333331</v>
+      </c>
+      <c r="H147" t="n">
+        <v>72.4216666666667</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="C148" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1462.621</v>
+      </c>
+      <c r="G148" t="n">
+        <v>70.61999999999998</v>
+      </c>
+      <c r="H148" t="n">
+        <v>72.3666666666667</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="C149" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="D149" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="E149" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="F149" t="n">
+        <v>41.2336</v>
+      </c>
+      <c r="G149" t="n">
+        <v>70.51333333333332</v>
+      </c>
+      <c r="H149" t="n">
+        <v>72.30666666666669</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="C150" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="D150" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="E150" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="F150" t="n">
+        <v>4877.5068</v>
+      </c>
+      <c r="G150" t="n">
+        <v>70.46666666666665</v>
+      </c>
+      <c r="H150" t="n">
+        <v>72.25333333333336</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="C151" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="D151" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="E151" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="F151" t="n">
+        <v>7511.4865</v>
+      </c>
+      <c r="G151" t="n">
+        <v>70.44666666666666</v>
+      </c>
+      <c r="H151" t="n">
+        <v>72.20333333333336</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="C152" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="D152" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="E152" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="F152" t="n">
+        <v>138.7025</v>
+      </c>
+      <c r="G152" t="n">
+        <v>70.40666666666667</v>
+      </c>
+      <c r="H152" t="n">
+        <v>72.14500000000002</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="C153" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="D153" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="E153" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1109.3549</v>
+      </c>
+      <c r="G153" t="n">
+        <v>70.35333333333332</v>
+      </c>
+      <c r="H153" t="n">
+        <v>72.08666666666669</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="L153" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="C154" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="D154" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="E154" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="F154" t="n">
+        <v>8130</v>
+      </c>
+      <c r="G154" t="n">
+        <v>70.33333333333333</v>
+      </c>
+      <c r="H154" t="n">
+        <v>72.02333333333335</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="L154" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="M154" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="C143" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="D143" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="E143" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="F143" t="n">
-        <v>11.3314</v>
-      </c>
-      <c r="G143" t="n">
-        <v>72.56833333333336</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="K143" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="C155" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="C144" t="n">
+      <c r="D155" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="E155" t="n">
         <v>70.3</v>
       </c>
-      <c r="D144" t="n">
+      <c r="F155" t="n">
+        <v>5717</v>
+      </c>
+      <c r="G155" t="n">
+        <v>70.32666666666667</v>
+      </c>
+      <c r="H155" t="n">
+        <v>71.96166666666667</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="L155" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="E144" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="F144" t="n">
-        <v>7974.2719</v>
-      </c>
-      <c r="G144" t="n">
-        <v>72.53666666666669</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="K144" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="M155" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>70</v>
-      </c>
-      <c r="C145" t="n">
-        <v>70</v>
-      </c>
-      <c r="D145" t="n">
-        <v>70</v>
-      </c>
-      <c r="E145" t="n">
-        <v>70</v>
-      </c>
-      <c r="F145" t="n">
-        <v>16482.0291</v>
-      </c>
-      <c r="G145" t="n">
-        <v>72.50000000000003</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="K145" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="C156" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="D156" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="E156" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="F156" t="n">
+        <v>9358.6968</v>
+      </c>
+      <c r="G156" t="n">
+        <v>70.38000000000001</v>
+      </c>
+      <c r="H156" t="n">
+        <v>71.90833333333335</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="L156" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="M156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>70</v>
-      </c>
-      <c r="C146" t="n">
-        <v>70</v>
-      </c>
-      <c r="D146" t="n">
-        <v>70</v>
-      </c>
-      <c r="E146" t="n">
-        <v>70</v>
-      </c>
-      <c r="F146" t="n">
-        <v>14833.8262</v>
-      </c>
-      <c r="G146" t="n">
-        <v>72.47166666666671</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>70</v>
-      </c>
-      <c r="K146" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="L146" t="inlineStr">
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="C157" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="D157" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="E157" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="F157" t="n">
+        <v>7243.893</v>
+      </c>
+      <c r="G157" t="n">
+        <v>70.38000000000001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>71.84500000000003</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="L157" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="M157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="C147" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="D147" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="E147" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="F147" t="n">
-        <v>11.1111</v>
-      </c>
-      <c r="G147" t="n">
-        <v>72.4216666666667</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>70</v>
-      </c>
-      <c r="K147" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="L147" t="inlineStr">
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="C158" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="D158" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="E158" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>249.4788</v>
+      </c>
+      <c r="G158" t="n">
+        <v>70.42666666666668</v>
+      </c>
+      <c r="H158" t="n">
+        <v>71.80000000000003</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="L158" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="M158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="C148" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="D148" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="E148" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="F148" t="n">
-        <v>1462.621</v>
-      </c>
-      <c r="G148" t="n">
-        <v>72.3666666666667</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="K148" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="L148" t="inlineStr">
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="C159" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="D159" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="E159" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="F159" t="n">
+        <v>9439.3842</v>
+      </c>
+      <c r="G159" t="n">
+        <v>70.51333333333334</v>
+      </c>
+      <c r="H159" t="n">
+        <v>71.77333333333337</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="M159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="C149" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="D149" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="E149" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="F149" t="n">
-        <v>41.2336</v>
-      </c>
-      <c r="G149" t="n">
-        <v>72.30666666666669</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="C160" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="D160" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="E160" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="F160" t="n">
+        <v>500</v>
+      </c>
+      <c r="G160" t="n">
+        <v>70.61333333333333</v>
+      </c>
+      <c r="H160" t="n">
+        <v>71.7466666666667</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="M160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="C150" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="D150" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="E150" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="F150" t="n">
-        <v>4877.5068</v>
-      </c>
-      <c r="G150" t="n">
-        <v>72.25333333333336</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-26 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N160"/>
+  <dimension ref="A1:M189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>73</v>
+        <v>72.5</v>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>72.8</v>
       </c>
       <c r="D2" t="n">
-        <v>73</v>
+        <v>72.8</v>
       </c>
       <c r="E2" t="n">
-        <v>73</v>
+        <v>72.5</v>
       </c>
       <c r="F2" t="n">
-        <v>50000.0017</v>
+        <v>13243.3648</v>
       </c>
       <c r="G2" t="n">
-        <v>72.93999999999998</v>
+        <v>16931.90700000002</v>
       </c>
       <c r="H2" t="n">
-        <v>72.37000000000003</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>9237</v>
+        <v>71513.8743</v>
       </c>
       <c r="G3" t="n">
-        <v>72.93999999999998</v>
+        <v>88445.78130000002</v>
       </c>
       <c r="H3" t="n">
-        <v>72.40333333333336</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>11850</v>
+        <v>27285.9999</v>
       </c>
       <c r="G4" t="n">
-        <v>72.93999999999998</v>
+        <v>88445.78130000002</v>
       </c>
       <c r="H4" t="n">
-        <v>72.4366666666667</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>5001.8608</v>
+        <v>8519.8377</v>
       </c>
       <c r="G5" t="n">
-        <v>72.94666666666664</v>
+        <v>88445.78130000002</v>
       </c>
       <c r="H5" t="n">
-        <v>72.47166666666671</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -602,24 +585,21 @@
         <v>72.3</v>
       </c>
       <c r="F6" t="n">
-        <v>7520</v>
+        <v>7341.6639</v>
       </c>
       <c r="G6" t="n">
-        <v>72.8933333333333</v>
+        <v>81104.11740000002</v>
       </c>
       <c r="H6" t="n">
-        <v>72.49500000000005</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>72</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>72</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>72</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>7473.5707</v>
+        <v>16137.225</v>
       </c>
       <c r="G7" t="n">
-        <v>72.84666666666664</v>
+        <v>64966.89240000002</v>
       </c>
       <c r="H7" t="n">
-        <v>72.51333333333338</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>71.90000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="C8" t="n">
-        <v>71.90000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="D8" t="n">
-        <v>71.90000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="E8" t="n">
-        <v>71.90000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="F8" t="n">
-        <v>30.9695</v>
+        <v>278.8889</v>
       </c>
       <c r="G8" t="n">
-        <v>72.76666666666665</v>
+        <v>65245.78130000002</v>
       </c>
       <c r="H8" t="n">
-        <v>72.5266666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>72.59999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="C9" t="n">
-        <v>72.59999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="D9" t="n">
-        <v>72.59999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="E9" t="n">
-        <v>72.59999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="F9" t="n">
-        <v>7070</v>
+        <v>11186.1231</v>
       </c>
       <c r="G9" t="n">
-        <v>72.76666666666665</v>
+        <v>76431.90440000001</v>
       </c>
       <c r="H9" t="n">
-        <v>72.55000000000004</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>72.7</v>
+        <v>73</v>
       </c>
       <c r="C10" t="n">
-        <v>73.09999999999999</v>
+        <v>73</v>
       </c>
       <c r="D10" t="n">
-        <v>73.09999999999999</v>
+        <v>73</v>
       </c>
       <c r="E10" t="n">
-        <v>72.7</v>
+        <v>73</v>
       </c>
       <c r="F10" t="n">
-        <v>40706.2121</v>
+        <v>19552.9383</v>
       </c>
       <c r="G10" t="n">
-        <v>72.79999999999998</v>
+        <v>95984.84270000001</v>
       </c>
       <c r="H10" t="n">
-        <v>72.58666666666673</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>73.09999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>73.3</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>73.59999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>72.5</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>80911.5793</v>
+        <v>550</v>
       </c>
       <c r="G11" t="n">
-        <v>72.82666666666664</v>
+        <v>95434.84270000001</v>
       </c>
       <c r="H11" t="n">
-        <v>72.62666666666674</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>73.7</v>
+        <v>73</v>
       </c>
       <c r="C12" t="n">
-        <v>74.3</v>
+        <v>73</v>
       </c>
       <c r="D12" t="n">
-        <v>74.3</v>
+        <v>73</v>
       </c>
       <c r="E12" t="n">
-        <v>73.7</v>
+        <v>73</v>
       </c>
       <c r="F12" t="n">
-        <v>29484.6251</v>
+        <v>6940</v>
       </c>
       <c r="G12" t="n">
-        <v>72.91333333333331</v>
+        <v>102374.8427</v>
       </c>
       <c r="H12" t="n">
-        <v>72.68166666666674</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>74.3</v>
+        <v>73</v>
       </c>
       <c r="C13" t="n">
-        <v>74.3</v>
+        <v>73</v>
       </c>
       <c r="D13" t="n">
-        <v>74.3</v>
+        <v>73</v>
       </c>
       <c r="E13" t="n">
-        <v>74.3</v>
+        <v>73</v>
       </c>
       <c r="F13" t="n">
-        <v>14626.0996</v>
+        <v>25338</v>
       </c>
       <c r="G13" t="n">
-        <v>72.99999999999997</v>
+        <v>102374.8427</v>
       </c>
       <c r="H13" t="n">
-        <v>72.73333333333341</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>74.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="C14" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D14" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" t="n">
-        <v>74.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="F14" t="n">
-        <v>177937.3334</v>
+        <v>36907.431</v>
       </c>
       <c r="G14" t="n">
-        <v>73.12666666666664</v>
+        <v>102374.8427</v>
       </c>
       <c r="H14" t="n">
-        <v>72.79500000000007</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>74.59999999999999</v>
+        <v>73</v>
       </c>
       <c r="C15" t="n">
-        <v>74.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="D15" t="n">
-        <v>74.59999999999999</v>
+        <v>73</v>
       </c>
       <c r="E15" t="n">
-        <v>74.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="F15" t="n">
-        <v>2000</v>
+        <v>36.5342</v>
       </c>
       <c r="G15" t="n">
-        <v>73.21333333333332</v>
+        <v>102374.8427</v>
       </c>
       <c r="H15" t="n">
-        <v>72.84500000000007</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>74.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="C16" t="n">
-        <v>74.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="D16" t="n">
-        <v>74.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="E16" t="n">
-        <v>74.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="F16" t="n">
-        <v>486.1259</v>
+        <v>2635</v>
       </c>
       <c r="G16" t="n">
-        <v>73.30666666666666</v>
+        <v>102374.8427</v>
       </c>
       <c r="H16" t="n">
-        <v>72.89666666666673</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>74.2</v>
+        <v>73</v>
       </c>
       <c r="C17" t="n">
-        <v>74.2</v>
+        <v>73</v>
       </c>
       <c r="D17" t="n">
-        <v>74.2</v>
+        <v>73</v>
       </c>
       <c r="E17" t="n">
-        <v>74.2</v>
+        <v>73</v>
       </c>
       <c r="F17" t="n">
-        <v>135.3632</v>
+        <v>32937.9851</v>
       </c>
       <c r="G17" t="n">
-        <v>73.38666666666667</v>
+        <v>102374.8427</v>
       </c>
       <c r="H17" t="n">
-        <v>72.93166666666671</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>73.5</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>73.5</v>
+        <v>73</v>
       </c>
       <c r="D18" t="n">
-        <v>73.5</v>
+        <v>73</v>
       </c>
       <c r="E18" t="n">
-        <v>73.5</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>14140.4097</v>
       </c>
       <c r="G18" t="n">
-        <v>73.42</v>
+        <v>102374.8427</v>
       </c>
       <c r="H18" t="n">
-        <v>72.95666666666672</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>72.8</v>
+        <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>72.8</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>72.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>707.5601</v>
+        <v>1013.7174</v>
       </c>
       <c r="G19" t="n">
-        <v>73.40666666666667</v>
+        <v>101361.1253</v>
       </c>
       <c r="H19" t="n">
-        <v>72.96000000000005</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>73.8</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>74.2</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>74.2</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>73.8</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>2000</v>
+        <v>5828.9404</v>
       </c>
       <c r="G20" t="n">
-        <v>73.48666666666666</v>
+        <v>107190.0657</v>
       </c>
       <c r="H20" t="n">
-        <v>72.98833333333339</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>74.40000000000001</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>74.40000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="D21" t="n">
-        <v>74.40000000000001</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>74.40000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="F21" t="n">
-        <v>31.15591397849462</v>
+        <v>10407.8461</v>
       </c>
       <c r="G21" t="n">
-        <v>73.62666666666668</v>
+        <v>96782.21960000003</v>
       </c>
       <c r="H21" t="n">
-        <v>73.01833333333337</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>74.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="C22" t="n">
-        <v>74.5</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>74.5</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>74.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="F22" t="n">
-        <v>26918.7804</v>
+        <v>2000</v>
       </c>
       <c r="G22" t="n">
-        <v>73.79333333333334</v>
+        <v>98782.21960000003</v>
       </c>
       <c r="H22" t="n">
-        <v>73.05000000000003</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>75</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>75</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>49728.0751860215</v>
+        <v>19.95</v>
       </c>
       <c r="G23" t="n">
-        <v>74</v>
+        <v>98762.26960000003</v>
       </c>
       <c r="H23" t="n">
-        <v>73.09000000000002</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>75</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>75</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>75</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>74.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>23794.4069</v>
+        <v>46356.1193</v>
       </c>
       <c r="G24" t="n">
-        <v>74.16000000000001</v>
+        <v>98762.26960000003</v>
       </c>
       <c r="H24" t="n">
-        <v>73.12833333333336</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>74.8</v>
+        <v>72.7</v>
       </c>
       <c r="C25" t="n">
-        <v>74.7</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>74.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>74.7</v>
+        <v>72.7</v>
       </c>
       <c r="F25" t="n">
-        <v>29524.7999</v>
+        <v>9383.5888</v>
       </c>
       <c r="G25" t="n">
-        <v>74.26666666666668</v>
+        <v>108145.8584</v>
       </c>
       <c r="H25" t="n">
-        <v>73.16333333333336</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>73.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="C26" t="n">
-        <v>73.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="D26" t="n">
-        <v>73.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="E26" t="n">
-        <v>73.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="F26" t="n">
-        <v>132.2266</v>
+        <v>45406.6112</v>
       </c>
       <c r="G26" t="n">
-        <v>74.27333333333335</v>
+        <v>153552.4696</v>
       </c>
       <c r="H26" t="n">
-        <v>73.17500000000001</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>73.3</v>
+        <v>73</v>
       </c>
       <c r="C27" t="n">
-        <v>72.8</v>
+        <v>73</v>
       </c>
       <c r="D27" t="n">
-        <v>73.3</v>
+        <v>73</v>
       </c>
       <c r="E27" t="n">
-        <v>72.8</v>
+        <v>73</v>
       </c>
       <c r="F27" t="n">
-        <v>9770.501099999999</v>
+        <v>1520</v>
       </c>
       <c r="G27" t="n">
-        <v>74.17333333333336</v>
+        <v>153552.4696</v>
       </c>
       <c r="H27" t="n">
-        <v>73.17666666666669</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>72.09999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>72</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>72.09999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>72</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>20000</v>
+        <v>12180</v>
       </c>
       <c r="G28" t="n">
-        <v>74.02000000000002</v>
+        <v>165732.4696</v>
       </c>
       <c r="H28" t="n">
-        <v>73.16166666666669</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>72.90000000000001</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>73.3</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>73.3</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>72.90000000000001</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>6290</v>
+        <v>11733.4199</v>
       </c>
       <c r="G29" t="n">
-        <v>73.90666666666669</v>
+        <v>165732.4696</v>
       </c>
       <c r="H29" t="n">
-        <v>73.17000000000003</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>72.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="C30" t="n">
-        <v>72.3</v>
+        <v>73</v>
       </c>
       <c r="D30" t="n">
-        <v>73.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="E30" t="n">
-        <v>72.3</v>
+        <v>73</v>
       </c>
       <c r="F30" t="n">
-        <v>45883.9189</v>
+        <v>10569.8687</v>
       </c>
       <c r="G30" t="n">
-        <v>73.76666666666668</v>
+        <v>155162.6009</v>
       </c>
       <c r="H30" t="n">
-        <v>73.16166666666669</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>72.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="C31" t="n">
-        <v>72.3</v>
+        <v>73</v>
       </c>
       <c r="D31" t="n">
-        <v>72.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="E31" t="n">
-        <v>72.3</v>
+        <v>73</v>
       </c>
       <c r="F31" t="n">
-        <v>18327</v>
+        <v>50000.0017</v>
       </c>
       <c r="G31" t="n">
-        <v>73.62666666666668</v>
+        <v>155162.6009</v>
       </c>
       <c r="H31" t="n">
-        <v>73.16166666666669</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>72.3</v>
+        <v>73</v>
       </c>
       <c r="C32" t="n">
-        <v>72.09999999999999</v>
+        <v>73</v>
       </c>
       <c r="D32" t="n">
-        <v>72.3</v>
+        <v>73</v>
       </c>
       <c r="E32" t="n">
-        <v>72.09999999999999</v>
+        <v>73</v>
       </c>
       <c r="F32" t="n">
-        <v>90007.9945</v>
+        <v>9237</v>
       </c>
       <c r="G32" t="n">
-        <v>73.48666666666666</v>
+        <v>155162.6009</v>
       </c>
       <c r="H32" t="n">
-        <v>73.1516666666667</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>72.5</v>
+        <v>73</v>
       </c>
       <c r="C33" t="n">
-        <v>72.90000000000001</v>
+        <v>73</v>
       </c>
       <c r="D33" t="n">
-        <v>72.90000000000001</v>
+        <v>73</v>
       </c>
       <c r="E33" t="n">
-        <v>72.09999999999999</v>
+        <v>73</v>
       </c>
       <c r="F33" t="n">
-        <v>10831.4137</v>
+        <v>11850</v>
       </c>
       <c r="G33" t="n">
-        <v>73.44666666666667</v>
+        <v>155162.6009</v>
       </c>
       <c r="H33" t="n">
-        <v>73.15333333333336</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>73.5</v>
+        <v>73</v>
       </c>
       <c r="C34" t="n">
-        <v>72.7</v>
+        <v>73</v>
       </c>
       <c r="D34" t="n">
-        <v>73.5</v>
+        <v>73</v>
       </c>
       <c r="E34" t="n">
-        <v>72.7</v>
+        <v>73</v>
       </c>
       <c r="F34" t="n">
-        <v>41327.3333</v>
+        <v>5001.8608</v>
       </c>
       <c r="G34" t="n">
-        <v>73.44000000000001</v>
+        <v>155162.6009</v>
       </c>
       <c r="H34" t="n">
-        <v>73.15000000000003</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C35" t="n">
         <v>72.3</v>
       </c>
       <c r="D35" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E35" t="n">
         <v>72.3</v>
       </c>
       <c r="F35" t="n">
-        <v>2355.9999</v>
+        <v>7520</v>
       </c>
       <c r="G35" t="n">
-        <v>73.31333333333333</v>
+        <v>147642.6009</v>
       </c>
       <c r="H35" t="n">
-        <v>73.14000000000004</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>72.09999999999999</v>
+        <v>72</v>
       </c>
       <c r="C36" t="n">
-        <v>72.09999999999999</v>
+        <v>72</v>
       </c>
       <c r="D36" t="n">
-        <v>72.09999999999999</v>
+        <v>72</v>
       </c>
       <c r="E36" t="n">
-        <v>72.09999999999999</v>
+        <v>72</v>
       </c>
       <c r="F36" t="n">
-        <v>2613</v>
+        <v>7473.5707</v>
       </c>
       <c r="G36" t="n">
-        <v>73.16</v>
+        <v>140169.0302</v>
       </c>
       <c r="H36" t="n">
-        <v>73.12666666666672</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>72.09999999999999</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>72.09999999999999</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>72.09999999999999</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>72.09999999999999</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>11441.4305</v>
+        <v>30.9695</v>
       </c>
       <c r="G37" t="n">
-        <v>72.99999999999999</v>
+        <v>140138.0607</v>
       </c>
       <c r="H37" t="n">
-        <v>73.12333333333339</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+        <v>72</v>
+      </c>
+      <c r="K37" t="n">
+        <v>72</v>
+      </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1697,41 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>72.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>72.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>72.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>72.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>11830.5241</v>
+        <v>7070</v>
       </c>
       <c r="G38" t="n">
-        <v>72.83333333333331</v>
+        <v>147208.0607</v>
       </c>
       <c r="H38" t="n">
-        <v>73.13000000000005</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="K38" t="n">
+        <v>72</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1740,41 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="C39" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="D39" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="E39" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>40706.2121</v>
+      </c>
+      <c r="G39" t="n">
+        <v>187914.2728</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="C39" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="D39" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="E39" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="F39" t="n">
-        <v>260.002</v>
-      </c>
-      <c r="G39" t="n">
-        <v>72.67333333333332</v>
-      </c>
-      <c r="H39" t="n">
-        <v>73.13500000000005</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="K39" t="n">
+        <v>72</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1783,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>72.8</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>73.2</v>
+        <v>73.3</v>
       </c>
       <c r="D40" t="n">
-        <v>73.2</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>72.8</v>
+        <v>72.5</v>
       </c>
       <c r="F40" t="n">
-        <v>11267</v>
+        <v>80911.5793</v>
       </c>
       <c r="G40" t="n">
-        <v>72.57333333333331</v>
+        <v>268825.8521</v>
       </c>
       <c r="H40" t="n">
-        <v>73.14166666666671</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1818,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>72.59999999999999</v>
+        <v>73.7</v>
       </c>
       <c r="C41" t="n">
-        <v>72.3</v>
+        <v>74.3</v>
       </c>
       <c r="D41" t="n">
-        <v>72.59999999999999</v>
+        <v>74.3</v>
       </c>
       <c r="E41" t="n">
-        <v>72.3</v>
+        <v>73.7</v>
       </c>
       <c r="F41" t="n">
-        <v>7960</v>
+        <v>29484.6251</v>
       </c>
       <c r="G41" t="n">
-        <v>72.49999999999997</v>
+        <v>298310.4772</v>
       </c>
       <c r="H41" t="n">
-        <v>73.13000000000005</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1853,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>72.3</v>
+        <v>74.3</v>
       </c>
       <c r="C42" t="n">
-        <v>72</v>
+        <v>74.3</v>
       </c>
       <c r="D42" t="n">
-        <v>72.3</v>
+        <v>74.3</v>
       </c>
       <c r="E42" t="n">
-        <v>72</v>
+        <v>74.3</v>
       </c>
       <c r="F42" t="n">
-        <v>18094</v>
+        <v>14626.0996</v>
       </c>
       <c r="G42" t="n">
-        <v>72.44666666666664</v>
+        <v>298310.4772</v>
       </c>
       <c r="H42" t="n">
-        <v>73.11500000000005</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1888,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>72.40000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>72.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="D43" t="n">
-        <v>72.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="E43" t="n">
-        <v>72.40000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>20490</v>
+        <v>177937.3334</v>
       </c>
       <c r="G43" t="n">
-        <v>72.48666666666664</v>
+        <v>476247.8106</v>
       </c>
       <c r="H43" t="n">
-        <v>73.10833333333339</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1923,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>72.3</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>72.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>72.40000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>72.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>15180</v>
+        <v>2000</v>
       </c>
       <c r="G44" t="n">
-        <v>72.40666666666662</v>
+        <v>474247.8106</v>
       </c>
       <c r="H44" t="n">
-        <v>73.0933333333334</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1958,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>72.2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>71.8</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>72.2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>71.8</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>24276.8719</v>
+        <v>486.1259</v>
       </c>
       <c r="G45" t="n">
-        <v>72.37333333333329</v>
+        <v>474247.8106</v>
       </c>
       <c r="H45" t="n">
-        <v>73.07333333333341</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1993,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>72.40000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="C46" t="n">
-        <v>72.3</v>
+        <v>74.2</v>
       </c>
       <c r="D46" t="n">
-        <v>72.40000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="E46" t="n">
-        <v>71.7</v>
+        <v>74.2</v>
       </c>
       <c r="F46" t="n">
-        <v>18636.9429</v>
+        <v>135.3632</v>
       </c>
       <c r="G46" t="n">
-        <v>72.37333333333329</v>
+        <v>474112.4474</v>
       </c>
       <c r="H46" t="n">
-        <v>73.06166666666674</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2028,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>72.3</v>
+        <v>73.5</v>
       </c>
       <c r="C47" t="n">
-        <v>72.5</v>
+        <v>73.5</v>
       </c>
       <c r="D47" t="n">
-        <v>72.5</v>
+        <v>73.5</v>
       </c>
       <c r="E47" t="n">
-        <v>72.3</v>
+        <v>73.5</v>
       </c>
       <c r="F47" t="n">
-        <v>1669.679</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>72.39999999999996</v>
+        <v>474102.4474</v>
       </c>
       <c r="H47" t="n">
-        <v>73.05333333333341</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2063,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>72.7</v>
+        <v>72.8</v>
       </c>
       <c r="C48" t="n">
-        <v>73</v>
+        <v>72.8</v>
       </c>
       <c r="D48" t="n">
-        <v>73</v>
+        <v>72.8</v>
       </c>
       <c r="E48" t="n">
-        <v>72.7</v>
+        <v>72.8</v>
       </c>
       <c r="F48" t="n">
-        <v>50</v>
+        <v>707.5601</v>
       </c>
       <c r="G48" t="n">
-        <v>72.40666666666662</v>
+        <v>473394.8873</v>
       </c>
       <c r="H48" t="n">
-        <v>73.05333333333341</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2227,33 +2101,30 @@
         <v>73.8</v>
       </c>
       <c r="C49" t="n">
-        <v>73.8</v>
+        <v>74.2</v>
       </c>
       <c r="D49" t="n">
-        <v>73.8</v>
+        <v>74.2</v>
       </c>
       <c r="E49" t="n">
         <v>73.8</v>
       </c>
       <c r="F49" t="n">
-        <v>18149.4473</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="n">
-        <v>72.47999999999996</v>
+        <v>475394.8873</v>
       </c>
       <c r="H49" t="n">
-        <v>73.06666666666675</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2133,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>74.7</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>74.7</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>74.7</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>74.7</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>5480.8593</v>
+        <v>31.15591397849462</v>
       </c>
       <c r="G50" t="n">
-        <v>72.63999999999996</v>
+        <v>475426.0432139785</v>
       </c>
       <c r="H50" t="n">
-        <v>73.09666666666675</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2168,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>73.7</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>72.09999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="D51" t="n">
-        <v>73.7</v>
+        <v>74.5</v>
       </c>
       <c r="E51" t="n">
-        <v>72.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>23918.434</v>
+        <v>26918.7804</v>
       </c>
       <c r="G51" t="n">
-        <v>72.63999999999996</v>
+        <v>502344.8236139785</v>
       </c>
       <c r="H51" t="n">
-        <v>73.08000000000008</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2203,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>72.09999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="C52" t="n">
-        <v>72.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="D52" t="n">
-        <v>72.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="E52" t="n">
-        <v>72.09999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="F52" t="n">
-        <v>500</v>
+        <v>49728.0751860215</v>
       </c>
       <c r="G52" t="n">
-        <v>72.63999999999996</v>
+        <v>552072.8988</v>
       </c>
       <c r="H52" t="n">
-        <v>73.07000000000009</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2238,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C53" t="n">
-        <v>71.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="D53" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E53" t="n">
-        <v>71.90000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="F53" t="n">
-        <v>3143.1314</v>
+        <v>23794.4069</v>
       </c>
       <c r="G53" t="n">
-        <v>72.59999999999997</v>
+        <v>552072.8988</v>
       </c>
       <c r="H53" t="n">
-        <v>73.05000000000008</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2273,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>71.7</v>
+        <v>74.8</v>
       </c>
       <c r="C54" t="n">
-        <v>71.7</v>
+        <v>74.7</v>
       </c>
       <c r="D54" t="n">
-        <v>71.7</v>
+        <v>74.8</v>
       </c>
       <c r="E54" t="n">
-        <v>71.7</v>
+        <v>74.7</v>
       </c>
       <c r="F54" t="n">
-        <v>11403</v>
+        <v>29524.7999</v>
       </c>
       <c r="G54" t="n">
-        <v>72.53999999999998</v>
+        <v>522548.0989</v>
       </c>
       <c r="H54" t="n">
-        <v>73.03500000000007</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2308,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>72.40000000000001</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>74.3</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>74.3</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>72.40000000000001</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>10922.7431</v>
+        <v>132.2266</v>
       </c>
       <c r="G55" t="n">
-        <v>72.6133333333333</v>
+        <v>522415.8723</v>
       </c>
       <c r="H55" t="n">
-        <v>73.0633333333334</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2343,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>71.8</v>
+        <v>73.3</v>
       </c>
       <c r="C56" t="n">
-        <v>74.40000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="D56" t="n">
-        <v>74.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="E56" t="n">
-        <v>71.8</v>
+        <v>72.8</v>
       </c>
       <c r="F56" t="n">
-        <v>2165</v>
+        <v>9770.501099999999</v>
       </c>
       <c r="G56" t="n">
-        <v>72.75333333333332</v>
+        <v>512645.3712</v>
       </c>
       <c r="H56" t="n">
-        <v>73.0883333333334</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2378,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>73.3</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>73.3</v>
+        <v>72</v>
       </c>
       <c r="D57" t="n">
-        <v>73.3</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>73.3</v>
+        <v>72</v>
       </c>
       <c r="F57" t="n">
-        <v>39.0892</v>
+        <v>20000</v>
       </c>
       <c r="G57" t="n">
-        <v>72.83999999999997</v>
+        <v>492645.3712</v>
       </c>
       <c r="H57" t="n">
-        <v>73.0933333333334</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,7 +2413,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>73.3</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C58" t="n">
         <v>73.3</v>
@@ -2575,27 +2422,24 @@
         <v>73.3</v>
       </c>
       <c r="E58" t="n">
-        <v>73.3</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>102.4727</v>
+        <v>6290</v>
       </c>
       <c r="G58" t="n">
-        <v>72.88666666666664</v>
+        <v>498935.3712</v>
       </c>
       <c r="H58" t="n">
-        <v>73.0983333333334</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2448,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>72.5</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>72</v>
+        <v>72.3</v>
       </c>
       <c r="D59" t="n">
-        <v>72.5</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>72</v>
+        <v>72.3</v>
       </c>
       <c r="F59" t="n">
-        <v>2500</v>
+        <v>45883.9189</v>
       </c>
       <c r="G59" t="n">
-        <v>72.87999999999998</v>
+        <v>453051.4523</v>
       </c>
       <c r="H59" t="n">
-        <v>73.08000000000007</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2483,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>72.7</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>72.7</v>
+        <v>72.3</v>
       </c>
       <c r="D60" t="n">
-        <v>72.7</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>72.7</v>
+        <v>72.3</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>18327</v>
       </c>
       <c r="G60" t="n">
-        <v>72.94</v>
+        <v>453051.4523</v>
       </c>
       <c r="H60" t="n">
-        <v>73.07333333333339</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2518,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>72.90000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="C61" t="n">
-        <v>72.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>72.90000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="E61" t="n">
-        <v>72.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>141.1818</v>
+        <v>90007.9945</v>
       </c>
       <c r="G61" t="n">
-        <v>72.98</v>
+        <v>363043.4578</v>
       </c>
       <c r="H61" t="n">
-        <v>73.07166666666672</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2553,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>72.8</v>
+        <v>72.5</v>
       </c>
       <c r="C62" t="n">
-        <v>72.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>72.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>72.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>655.5185</v>
+        <v>10831.4137</v>
       </c>
       <c r="G62" t="n">
-        <v>73</v>
+        <v>373874.8715</v>
       </c>
       <c r="H62" t="n">
-        <v>73.06833333333338</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2588,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>73.09999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="C63" t="n">
-        <v>72.09999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="D63" t="n">
-        <v>73.09999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="E63" t="n">
-        <v>72.09999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="F63" t="n">
-        <v>1510</v>
+        <v>41327.3333</v>
       </c>
       <c r="G63" t="n">
-        <v>72.94</v>
+        <v>332547.5382</v>
       </c>
       <c r="H63" t="n">
-        <v>73.05333333333338</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2623,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>72.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="C64" t="n">
-        <v>72.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="D64" t="n">
-        <v>72.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="E64" t="n">
-        <v>72.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="F64" t="n">
-        <v>742.8952</v>
+        <v>2355.9999</v>
       </c>
       <c r="G64" t="n">
-        <v>72.82666666666665</v>
+        <v>330191.5383</v>
       </c>
       <c r="H64" t="n">
-        <v>73.0383333333334</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2658,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>72.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>72.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>72.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>72.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>2613</v>
       </c>
       <c r="G65" t="n">
-        <v>72.70666666666666</v>
+        <v>327578.5383</v>
       </c>
       <c r="H65" t="n">
-        <v>73.03666666666672</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2693,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>11441.4305</v>
       </c>
       <c r="G66" t="n">
-        <v>72.77333333333333</v>
+        <v>327578.5383</v>
       </c>
       <c r="H66" t="n">
-        <v>73.05000000000005</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2728,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>72.8</v>
+        <v>72.5</v>
       </c>
       <c r="C67" t="n">
-        <v>73</v>
+        <v>72.5</v>
       </c>
       <c r="D67" t="n">
-        <v>73</v>
+        <v>72.5</v>
       </c>
       <c r="E67" t="n">
-        <v>72.09999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="F67" t="n">
-        <v>11751.3595</v>
+        <v>11830.5241</v>
       </c>
       <c r="G67" t="n">
-        <v>72.83333333333333</v>
+        <v>339409.0623999999</v>
       </c>
       <c r="H67" t="n">
-        <v>73.06666666666673</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2763,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>72.40000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>72.40000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>72.40000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>72.40000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>4394.273</v>
+        <v>260.002</v>
       </c>
       <c r="G68" t="n">
-        <v>72.86666666666666</v>
+        <v>339669.0643999999</v>
       </c>
       <c r="H68" t="n">
-        <v>73.07500000000006</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2798,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>73.40000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="C69" t="n">
-        <v>72.40000000000001</v>
+        <v>73.2</v>
       </c>
       <c r="D69" t="n">
-        <v>73.40000000000001</v>
+        <v>73.2</v>
       </c>
       <c r="E69" t="n">
-        <v>72.40000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="F69" t="n">
-        <v>7789.2234</v>
+        <v>11267</v>
       </c>
       <c r="G69" t="n">
-        <v>72.91333333333334</v>
+        <v>350936.0643999999</v>
       </c>
       <c r="H69" t="n">
-        <v>73.07166666666672</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2833,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>73.3</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>73.3</v>
+        <v>72.3</v>
       </c>
       <c r="D70" t="n">
-        <v>73.3</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>73.3</v>
+        <v>72.3</v>
       </c>
       <c r="F70" t="n">
-        <v>10</v>
+        <v>7960</v>
       </c>
       <c r="G70" t="n">
-        <v>72.84666666666666</v>
+        <v>342976.0643999999</v>
       </c>
       <c r="H70" t="n">
-        <v>73.07500000000005</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2868,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>72.2</v>
+        <v>72.3</v>
       </c>
       <c r="C71" t="n">
-        <v>72.2</v>
+        <v>72</v>
       </c>
       <c r="D71" t="n">
-        <v>72.2</v>
+        <v>72.3</v>
       </c>
       <c r="E71" t="n">
-        <v>72.2</v>
+        <v>72</v>
       </c>
       <c r="F71" t="n">
-        <v>14833.3264</v>
+        <v>18094</v>
       </c>
       <c r="G71" t="n">
-        <v>72.7</v>
+        <v>324882.0643999999</v>
       </c>
       <c r="H71" t="n">
-        <v>73.0566666666667</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2903,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>72.2</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>72</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>72.2</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>72</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>4477.1195</v>
+        <v>20490</v>
       </c>
       <c r="G72" t="n">
-        <v>72.61333333333333</v>
+        <v>345372.0643999999</v>
       </c>
       <c r="H72" t="n">
-        <v>73.01833333333337</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2938,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>72</v>
+        <v>72.3</v>
       </c>
       <c r="C73" t="n">
-        <v>72</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>72</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>72</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>3315</v>
+        <v>15180</v>
       </c>
       <c r="G73" t="n">
-        <v>72.52666666666667</v>
+        <v>330192.0643999999</v>
       </c>
       <c r="H73" t="n">
-        <v>72.98000000000003</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2973,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>72.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="C74" t="n">
-        <v>72.59999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="D74" t="n">
-        <v>72.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="E74" t="n">
-        <v>72.59999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>24276.8719</v>
       </c>
       <c r="G74" t="n">
-        <v>72.56666666666666</v>
+        <v>305915.1924999999</v>
       </c>
       <c r="H74" t="n">
-        <v>72.94000000000004</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3008,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>72.5</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>72.5</v>
+        <v>72.3</v>
       </c>
       <c r="D75" t="n">
-        <v>72.5</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>72.5</v>
+        <v>71.7</v>
       </c>
       <c r="F75" t="n">
-        <v>3301.9418</v>
+        <v>18636.9429</v>
       </c>
       <c r="G75" t="n">
-        <v>72.55333333333333</v>
+        <v>324552.1353999999</v>
       </c>
       <c r="H75" t="n">
-        <v>72.90833333333337</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3043,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>72</v>
+        <v>72.3</v>
       </c>
       <c r="C76" t="n">
-        <v>71.3</v>
+        <v>72.5</v>
       </c>
       <c r="D76" t="n">
-        <v>72</v>
+        <v>72.5</v>
       </c>
       <c r="E76" t="n">
-        <v>71.3</v>
+        <v>72.3</v>
       </c>
       <c r="F76" t="n">
-        <v>500</v>
+        <v>1669.679</v>
       </c>
       <c r="G76" t="n">
-        <v>72.44666666666666</v>
+        <v>326221.8143999999</v>
       </c>
       <c r="H76" t="n">
-        <v>72.85666666666673</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3078,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>72.40000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="C77" t="n">
-        <v>72.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="D77" t="n">
-        <v>72.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="E77" t="n">
-        <v>72.40000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G77" t="n">
-        <v>72.42</v>
+        <v>326271.8143999999</v>
       </c>
       <c r="H77" t="n">
-        <v>72.82666666666672</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3113,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>71.40000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="C78" t="n">
-        <v>71.40000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="D78" t="n">
-        <v>71.40000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="E78" t="n">
-        <v>71.40000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>18149.4473</v>
       </c>
       <c r="G78" t="n">
-        <v>72.37333333333335</v>
+        <v>344421.2616999999</v>
       </c>
       <c r="H78" t="n">
-        <v>72.79166666666671</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3148,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>72</v>
+        <v>74.7</v>
       </c>
       <c r="C79" t="n">
-        <v>72.09999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="D79" t="n">
-        <v>72.09999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="E79" t="n">
-        <v>72</v>
+        <v>74.7</v>
       </c>
       <c r="F79" t="n">
-        <v>1309.330910402219</v>
+        <v>5480.8593</v>
       </c>
       <c r="G79" t="n">
-        <v>72.37333333333335</v>
+        <v>349902.1209999999</v>
       </c>
       <c r="H79" t="n">
-        <v>72.78000000000004</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3183,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>71.2</v>
+        <v>73.7</v>
       </c>
       <c r="C80" t="n">
-        <v>70.59999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>71.2</v>
+        <v>73.7</v>
       </c>
       <c r="E80" t="n">
-        <v>70.59999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>42500</v>
+        <v>23918.434</v>
       </c>
       <c r="G80" t="n">
-        <v>72.22</v>
+        <v>325983.6869999999</v>
       </c>
       <c r="H80" t="n">
-        <v>72.72000000000006</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3218,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>72.2</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>72.2</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>72.2</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>72.2</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>984.4838999999999</v>
+        <v>500</v>
       </c>
       <c r="G81" t="n">
-        <v>72.16000000000001</v>
+        <v>325983.6869999999</v>
       </c>
       <c r="H81" t="n">
-        <v>72.68333333333339</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3253,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>72.2</v>
+        <v>72</v>
       </c>
       <c r="C82" t="n">
-        <v>72.40000000000001</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>72.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="E82" t="n">
-        <v>72.2</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>13459.452</v>
+        <v>3143.1314</v>
       </c>
       <c r="G82" t="n">
-        <v>72.12000000000002</v>
+        <v>322840.5555999999</v>
       </c>
       <c r="H82" t="n">
-        <v>72.64833333333338</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3288,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>72.59999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="C83" t="n">
-        <v>72.59999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="D83" t="n">
-        <v>72.59999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="E83" t="n">
-        <v>72.59999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="F83" t="n">
-        <v>9286.3619</v>
+        <v>11403</v>
       </c>
       <c r="G83" t="n">
-        <v>72.13333333333334</v>
+        <v>311437.5555999999</v>
       </c>
       <c r="H83" t="n">
-        <v>72.60833333333339</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3323,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>72.2</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>72.2</v>
+        <v>74.3</v>
       </c>
       <c r="D84" t="n">
-        <v>72.2</v>
+        <v>74.3</v>
       </c>
       <c r="E84" t="n">
-        <v>72.2</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>9588.108899999999</v>
+        <v>10922.7431</v>
       </c>
       <c r="G84" t="n">
-        <v>72.11999999999999</v>
+        <v>322360.2986999999</v>
       </c>
       <c r="H84" t="n">
-        <v>72.56166666666672</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3358,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>72.2</v>
+        <v>71.8</v>
       </c>
       <c r="C85" t="n">
-        <v>72.2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>72.2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>72.2</v>
+        <v>71.8</v>
       </c>
       <c r="F85" t="n">
-        <v>18142.0136</v>
+        <v>2165</v>
       </c>
       <c r="G85" t="n">
-        <v>72.04666666666667</v>
+        <v>324525.2986999999</v>
       </c>
       <c r="H85" t="n">
-        <v>72.52000000000005</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3393,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>72.7</v>
+        <v>73.3</v>
       </c>
       <c r="C86" t="n">
-        <v>71.7</v>
+        <v>73.3</v>
       </c>
       <c r="D86" t="n">
-        <v>72.7</v>
+        <v>73.3</v>
       </c>
       <c r="E86" t="n">
-        <v>71.7</v>
+        <v>73.3</v>
       </c>
       <c r="F86" t="n">
-        <v>10530.8615</v>
+        <v>39.0892</v>
       </c>
       <c r="G86" t="n">
-        <v>72.01333333333334</v>
+        <v>324486.2094999999</v>
       </c>
       <c r="H86" t="n">
-        <v>72.49166666666673</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3428,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>73</v>
+        <v>73.3</v>
       </c>
       <c r="C87" t="n">
-        <v>73.2</v>
+        <v>73.3</v>
       </c>
       <c r="D87" t="n">
-        <v>73.2</v>
+        <v>73.3</v>
       </c>
       <c r="E87" t="n">
-        <v>73</v>
+        <v>73.3</v>
       </c>
       <c r="F87" t="n">
-        <v>3379.3164</v>
+        <v>102.4727</v>
       </c>
       <c r="G87" t="n">
-        <v>72.09333333333333</v>
+        <v>324486.2094999999</v>
       </c>
       <c r="H87" t="n">
-        <v>72.49833333333339</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3463,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>73.5</v>
+        <v>72.5</v>
       </c>
       <c r="C88" t="n">
-        <v>73.5</v>
+        <v>72</v>
       </c>
       <c r="D88" t="n">
-        <v>73.5</v>
+        <v>72.5</v>
       </c>
       <c r="E88" t="n">
-        <v>73.5</v>
+        <v>72</v>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>2500</v>
       </c>
       <c r="G88" t="n">
-        <v>72.19333333333334</v>
+        <v>321986.2094999999</v>
       </c>
       <c r="H88" t="n">
-        <v>72.52333333333338</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3498,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>73.5</v>
+        <v>72.7</v>
       </c>
       <c r="C89" t="n">
-        <v>73.5</v>
+        <v>72.7</v>
       </c>
       <c r="D89" t="n">
-        <v>73.5</v>
+        <v>72.7</v>
       </c>
       <c r="E89" t="n">
-        <v>73.5</v>
+        <v>72.7</v>
       </c>
       <c r="F89" t="n">
-        <v>1390.4493</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>72.25333333333334</v>
+        <v>321996.2094999999</v>
       </c>
       <c r="H89" t="n">
-        <v>72.52666666666671</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3533,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>73.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>73.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>73.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>73.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>141.1818</v>
       </c>
       <c r="G90" t="n">
-        <v>72.34</v>
+        <v>322137.3913</v>
       </c>
       <c r="H90" t="n">
-        <v>72.55166666666672</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3568,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>73.8</v>
+        <v>72.8</v>
       </c>
       <c r="C91" t="n">
-        <v>73.8</v>
+        <v>72.8</v>
       </c>
       <c r="D91" t="n">
-        <v>73.8</v>
+        <v>72.8</v>
       </c>
       <c r="E91" t="n">
-        <v>73.8</v>
+        <v>72.8</v>
       </c>
       <c r="F91" t="n">
-        <v>4406.453</v>
+        <v>655.5185</v>
       </c>
       <c r="G91" t="n">
-        <v>72.50666666666667</v>
+        <v>321481.8728</v>
       </c>
       <c r="H91" t="n">
-        <v>72.57666666666672</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3603,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>73.7</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>73.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>73.90000000000001</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>73.7</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>399.025</v>
+        <v>1510</v>
       </c>
       <c r="G92" t="n">
-        <v>72.60666666666667</v>
+        <v>319971.8728</v>
       </c>
       <c r="H92" t="n">
-        <v>72.60666666666671</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3638,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>73.7</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>73.7</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>73.7</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>73.7</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>9646</v>
+        <v>742.8952</v>
       </c>
       <c r="G93" t="n">
-        <v>72.76000000000001</v>
+        <v>319971.8728</v>
       </c>
       <c r="H93" t="n">
-        <v>72.62000000000005</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3673,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>73.90000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>74.09999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>74.09999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>73.90000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>7535</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>72.89333333333335</v>
+        <v>319981.8728</v>
       </c>
       <c r="H94" t="n">
-        <v>72.64333333333339</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3708,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>74.09999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>74.09999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>74.09999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>74</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>5047.6702</v>
+        <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>73.12666666666668</v>
+        <v>319991.8728</v>
       </c>
       <c r="H95" t="n">
-        <v>72.67333333333339</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3743,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>74.09999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="C96" t="n">
-        <v>74.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="D96" t="n">
-        <v>74.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="E96" t="n">
-        <v>74</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>6274.4386</v>
+        <v>11751.3595</v>
       </c>
       <c r="G96" t="n">
-        <v>73.27333333333334</v>
+        <v>308240.5132999999</v>
       </c>
       <c r="H96" t="n">
-        <v>72.71166666666672</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3778,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>74.40000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>74.40000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>74.40000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>74.40000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>98.33329999999999</v>
+        <v>4394.273</v>
       </c>
       <c r="G97" t="n">
-        <v>73.40666666666668</v>
+        <v>303846.2402999999</v>
       </c>
       <c r="H97" t="n">
-        <v>72.75000000000003</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +3813,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>74</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>74</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>74</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>74</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>505</v>
+        <v>7789.2234</v>
       </c>
       <c r="G98" t="n">
-        <v>73.50000000000001</v>
+        <v>303846.2402999999</v>
       </c>
       <c r="H98" t="n">
-        <v>72.77500000000003</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +3848,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>73.8</v>
+        <v>73.3</v>
       </c>
       <c r="C99" t="n">
-        <v>73.2</v>
+        <v>73.3</v>
       </c>
       <c r="D99" t="n">
-        <v>73.8</v>
+        <v>73.3</v>
       </c>
       <c r="E99" t="n">
-        <v>73.2</v>
+        <v>73.3</v>
       </c>
       <c r="F99" t="n">
-        <v>1909.5584</v>
+        <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>73.56666666666668</v>
+        <v>303856.2402999999</v>
       </c>
       <c r="H99" t="n">
-        <v>72.78500000000003</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +3883,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>73.09999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="C100" t="n">
-        <v>73.09999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="D100" t="n">
-        <v>73.09999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="E100" t="n">
-        <v>73.09999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="F100" t="n">
-        <v>880</v>
+        <v>14833.3264</v>
       </c>
       <c r="G100" t="n">
-        <v>73.62666666666668</v>
+        <v>289022.9138999999</v>
       </c>
       <c r="H100" t="n">
-        <v>72.78333333333336</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +3918,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>73.09999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="C101" t="n">
-        <v>73.09999999999999</v>
+        <v>72</v>
       </c>
       <c r="D101" t="n">
-        <v>73.09999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="E101" t="n">
-        <v>73.09999999999999</v>
+        <v>72</v>
       </c>
       <c r="F101" t="n">
-        <v>5000</v>
+        <v>4477.1195</v>
       </c>
       <c r="G101" t="n">
-        <v>73.72</v>
+        <v>284545.7944</v>
       </c>
       <c r="H101" t="n">
-        <v>72.7966666666667</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +3953,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>73.8</v>
+        <v>72</v>
       </c>
       <c r="C102" t="n">
-        <v>73.8</v>
+        <v>72</v>
       </c>
       <c r="D102" t="n">
-        <v>73.8</v>
+        <v>72</v>
       </c>
       <c r="E102" t="n">
-        <v>73.8</v>
+        <v>72</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>3315</v>
       </c>
       <c r="G102" t="n">
-        <v>73.75999999999999</v>
+        <v>284545.7944</v>
       </c>
       <c r="H102" t="n">
-        <v>72.8266666666667</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +3988,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>73.2</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>73.2</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>73.2</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>73.2</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>2008</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>73.73999999999999</v>
+        <v>284555.7944</v>
       </c>
       <c r="H103" t="n">
-        <v>72.83666666666669</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4023,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>73.3</v>
+        <v>72.5</v>
       </c>
       <c r="C104" t="n">
-        <v>73.3</v>
+        <v>72.5</v>
       </c>
       <c r="D104" t="n">
-        <v>73.3</v>
+        <v>72.5</v>
       </c>
       <c r="E104" t="n">
-        <v>73.3</v>
+        <v>72.5</v>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>3301.9418</v>
       </c>
       <c r="G104" t="n">
-        <v>73.72666666666666</v>
+        <v>281253.8526</v>
       </c>
       <c r="H104" t="n">
-        <v>72.8566666666667</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4058,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>72.8</v>
+        <v>72</v>
       </c>
       <c r="C105" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="D105" t="n">
         <v>72</v>
       </c>
-      <c r="D105" t="n">
-        <v>72.8</v>
-      </c>
       <c r="E105" t="n">
-        <v>72</v>
+        <v>71.3</v>
       </c>
       <c r="F105" t="n">
-        <v>87521.7257</v>
+        <v>500</v>
       </c>
       <c r="G105" t="n">
-        <v>73.60666666666665</v>
+        <v>280753.8526</v>
       </c>
       <c r="H105" t="n">
-        <v>72.86000000000003</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4093,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>72.8</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>72.8</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>72.8</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>72.8</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>9979.6983</v>
+        <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>73.53999999999999</v>
+        <v>280763.8526</v>
       </c>
       <c r="H106" t="n">
-        <v>72.86833333333335</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4128,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>73</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>73</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>73</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>72.90000000000001</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>11500</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>73.47999999999999</v>
+        <v>280753.8526</v>
       </c>
       <c r="H107" t="n">
-        <v>72.87666666666669</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,36 +4163,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>72.90000000000001</v>
+        <v>72</v>
       </c>
       <c r="C108" t="n">
-        <v>72.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>73</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>72.90000000000001</v>
+        <v>72</v>
       </c>
       <c r="F108" t="n">
-        <v>3823.8844</v>
+        <v>1309.330910402219</v>
       </c>
       <c r="G108" t="n">
-        <v>73.42666666666666</v>
+        <v>282063.1835104022</v>
       </c>
       <c r="H108" t="n">
-        <v>72.87500000000001</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,36 +4198,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>73.3</v>
+        <v>71.2</v>
       </c>
       <c r="C109" t="n">
-        <v>73.40000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>73.40000000000001</v>
+        <v>71.2</v>
       </c>
       <c r="E109" t="n">
-        <v>73.3</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="F109" t="n">
-        <v>12010</v>
+        <v>42500</v>
       </c>
       <c r="G109" t="n">
-        <v>73.38000000000001</v>
+        <v>239563.1835104022</v>
       </c>
       <c r="H109" t="n">
-        <v>72.86833333333334</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,36 +4233,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>73.5</v>
+        <v>72.2</v>
       </c>
       <c r="C110" t="n">
-        <v>73.5</v>
+        <v>72.2</v>
       </c>
       <c r="D110" t="n">
-        <v>73.5</v>
+        <v>72.2</v>
       </c>
       <c r="E110" t="n">
-        <v>73.5</v>
+        <v>72.2</v>
       </c>
       <c r="F110" t="n">
-        <v>1361.074829931973</v>
+        <v>984.4838999999999</v>
       </c>
       <c r="G110" t="n">
-        <v>73.34</v>
+        <v>240547.6674104022</v>
       </c>
       <c r="H110" t="n">
-        <v>72.84833333333334</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,36 +4268,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>73.3</v>
+        <v>72.2</v>
       </c>
       <c r="C111" t="n">
-        <v>73.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>73.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>73.3</v>
+        <v>72.2</v>
       </c>
       <c r="F111" t="n">
-        <v>517</v>
+        <v>13459.452</v>
       </c>
       <c r="G111" t="n">
-        <v>73.26666666666667</v>
+        <v>254007.1194104022</v>
       </c>
       <c r="H111" t="n">
-        <v>72.86833333333334</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,36 +4303,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>72.90000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>72.90000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>72.90000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>72.90000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>7207.6947</v>
+        <v>9286.3619</v>
       </c>
       <c r="G112" t="n">
-        <v>73.16666666666667</v>
+        <v>263293.4813104022</v>
       </c>
       <c r="H112" t="n">
-        <v>72.88166666666666</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4656,36 +4338,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>73.2</v>
+        <v>72.2</v>
       </c>
       <c r="C113" t="n">
-        <v>73.2</v>
+        <v>72.2</v>
       </c>
       <c r="D113" t="n">
-        <v>73.2</v>
+        <v>72.2</v>
       </c>
       <c r="E113" t="n">
-        <v>73.2</v>
+        <v>72.2</v>
       </c>
       <c r="F113" t="n">
-        <v>16.7213</v>
+        <v>9588.108899999999</v>
       </c>
       <c r="G113" t="n">
-        <v>73.11333333333333</v>
+        <v>253705.3724104022</v>
       </c>
       <c r="H113" t="n">
-        <v>72.90333333333334</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,36 +4373,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>73.2</v>
+        <v>72.2</v>
       </c>
       <c r="C114" t="n">
-        <v>73.2</v>
+        <v>72.2</v>
       </c>
       <c r="D114" t="n">
-        <v>73.2</v>
+        <v>72.2</v>
       </c>
       <c r="E114" t="n">
-        <v>73.2</v>
+        <v>72.2</v>
       </c>
       <c r="F114" t="n">
-        <v>2280</v>
+        <v>18142.0136</v>
       </c>
       <c r="G114" t="n">
-        <v>73.11333333333333</v>
+        <v>253705.3724104022</v>
       </c>
       <c r="H114" t="n">
-        <v>72.92833333333333</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,36 +4408,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>73.09999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="C115" t="n">
-        <v>73.09999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="D115" t="n">
-        <v>73.09999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="E115" t="n">
-        <v>73.09999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="F115" t="n">
-        <v>14970</v>
+        <v>10530.8615</v>
       </c>
       <c r="G115" t="n">
-        <v>73.11333333333333</v>
+        <v>243174.5109104022</v>
       </c>
       <c r="H115" t="n">
-        <v>72.90833333333333</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,36 +4443,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>73.09999999999999</v>
+        <v>73</v>
       </c>
       <c r="C116" t="n">
-        <v>73.09999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="D116" t="n">
-        <v>73.09999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="E116" t="n">
-        <v>73.09999999999999</v>
+        <v>73</v>
       </c>
       <c r="F116" t="n">
-        <v>12787</v>
+        <v>3379.3164</v>
       </c>
       <c r="G116" t="n">
-        <v>73.11333333333333</v>
+        <v>246553.8273104022</v>
       </c>
       <c r="H116" t="n">
-        <v>72.88666666666668</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,36 +4478,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>73.09999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="C117" t="n">
-        <v>73.09999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="D117" t="n">
-        <v>73.09999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="E117" t="n">
-        <v>73.09999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="F117" t="n">
-        <v>1367.989056087551</v>
+        <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>73.06666666666666</v>
+        <v>246563.8273104022</v>
       </c>
       <c r="H117" t="n">
-        <v>72.88333333333335</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,36 +4513,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>72.8</v>
+        <v>73.5</v>
       </c>
       <c r="C118" t="n">
-        <v>72.7</v>
+        <v>73.5</v>
       </c>
       <c r="D118" t="n">
-        <v>72.8</v>
+        <v>73.5</v>
       </c>
       <c r="E118" t="n">
-        <v>72.7</v>
+        <v>73.5</v>
       </c>
       <c r="F118" t="n">
-        <v>3043.9064</v>
+        <v>1390.4493</v>
       </c>
       <c r="G118" t="n">
-        <v>73.03333333333333</v>
+        <v>246563.8273104022</v>
       </c>
       <c r="H118" t="n">
-        <v>72.87333333333335</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,36 +4548,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>72.7</v>
+        <v>73.8</v>
       </c>
       <c r="C119" t="n">
-        <v>72.59999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="D119" t="n">
-        <v>72.7</v>
+        <v>73.8</v>
       </c>
       <c r="E119" t="n">
-        <v>72.59999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="F119" t="n">
-        <v>2386.3394</v>
+        <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>72.98666666666666</v>
+        <v>246573.8273104022</v>
       </c>
       <c r="H119" t="n">
-        <v>72.88333333333335</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,36 +4583,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>72.59999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="C120" t="n">
-        <v>72.5</v>
+        <v>73.8</v>
       </c>
       <c r="D120" t="n">
-        <v>72.59999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="E120" t="n">
-        <v>72.5</v>
+        <v>73.8</v>
       </c>
       <c r="F120" t="n">
-        <v>750</v>
+        <v>4406.453</v>
       </c>
       <c r="G120" t="n">
-        <v>73.02</v>
+        <v>246573.8273104022</v>
       </c>
       <c r="H120" t="n">
-        <v>72.88000000000002</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4960,36 +4618,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>72.5</v>
+        <v>73.7</v>
       </c>
       <c r="C121" t="n">
-        <v>72.09999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>72.5</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>72.09999999999999</v>
+        <v>73.7</v>
       </c>
       <c r="F121" t="n">
-        <v>8231.6952</v>
+        <v>399.025</v>
       </c>
       <c r="G121" t="n">
-        <v>72.97333333333333</v>
+        <v>246972.8523104022</v>
       </c>
       <c r="H121" t="n">
-        <v>72.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,36 +4653,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>72.5</v>
+        <v>73.7</v>
       </c>
       <c r="C122" t="n">
-        <v>72.5</v>
+        <v>73.7</v>
       </c>
       <c r="D122" t="n">
-        <v>72.5</v>
+        <v>73.7</v>
       </c>
       <c r="E122" t="n">
-        <v>72.5</v>
+        <v>73.7</v>
       </c>
       <c r="F122" t="n">
-        <v>14741.6588</v>
+        <v>9646</v>
       </c>
       <c r="G122" t="n">
-        <v>72.94</v>
+        <v>237326.8523104022</v>
       </c>
       <c r="H122" t="n">
-        <v>72.86166666666669</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,36 +4688,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>72.5</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>72.5</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>72.5</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>72.5</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>258.5723</v>
+        <v>7535</v>
       </c>
       <c r="G123" t="n">
-        <v>72.91333333333333</v>
+        <v>244861.8523104022</v>
       </c>
       <c r="H123" t="n">
-        <v>72.86833333333335</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5074,36 +4723,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>72.40000000000001</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>72.40000000000001</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>72.40000000000001</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>72.40000000000001</v>
+        <v>74</v>
       </c>
       <c r="F124" t="n">
-        <v>4562.3</v>
+        <v>5047.6702</v>
       </c>
       <c r="G124" t="n">
-        <v>72.84666666666665</v>
+        <v>244861.8523104022</v>
       </c>
       <c r="H124" t="n">
-        <v>72.87333333333335</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5112,36 +4758,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>71.8</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>71.8</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>71.8</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>71.8</v>
+        <v>74</v>
       </c>
       <c r="F125" t="n">
-        <v>500</v>
+        <v>6274.4386</v>
       </c>
       <c r="G125" t="n">
-        <v>72.73333333333332</v>
+        <v>251136.2909104022</v>
       </c>
       <c r="H125" t="n">
-        <v>72.85500000000002</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5150,36 +4793,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>72.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>72.2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>72.2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>72.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F126" t="n">
-        <v>11246.0797</v>
+        <v>98.33329999999999</v>
       </c>
       <c r="G126" t="n">
-        <v>72.66</v>
+        <v>251136.2909104022</v>
       </c>
       <c r="H126" t="n">
-        <v>72.84</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,36 +4828,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>72.2</v>
+        <v>74</v>
       </c>
       <c r="C127" t="n">
-        <v>72.2</v>
+        <v>74</v>
       </c>
       <c r="D127" t="n">
-        <v>72.2</v>
+        <v>74</v>
       </c>
       <c r="E127" t="n">
-        <v>72.2</v>
+        <v>74</v>
       </c>
       <c r="F127" t="n">
-        <v>6433.3665</v>
+        <v>505</v>
       </c>
       <c r="G127" t="n">
-        <v>72.61333333333332</v>
+        <v>250631.2909104022</v>
       </c>
       <c r="H127" t="n">
-        <v>72.82666666666667</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,36 +4863,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>72.2</v>
+        <v>73.8</v>
       </c>
       <c r="C128" t="n">
-        <v>72.2</v>
+        <v>73.2</v>
       </c>
       <c r="D128" t="n">
-        <v>72.2</v>
+        <v>73.8</v>
       </c>
       <c r="E128" t="n">
-        <v>72.2</v>
+        <v>73.2</v>
       </c>
       <c r="F128" t="n">
-        <v>6816.8205</v>
+        <v>1909.5584</v>
       </c>
       <c r="G128" t="n">
-        <v>72.54666666666665</v>
+        <v>248721.7325104022</v>
       </c>
       <c r="H128" t="n">
-        <v>72.82333333333334</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5264,36 +4898,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>71.59999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>71.40000000000001</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>71.59999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>71.40000000000001</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>952.936</v>
+        <v>880</v>
       </c>
       <c r="G129" t="n">
-        <v>72.42666666666666</v>
+        <v>247841.7325104022</v>
       </c>
       <c r="H129" t="n">
-        <v>72.80666666666667</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5302,36 +4933,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>72</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>72.2</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>72.2</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>72</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>60660.9701</v>
+        <v>5000</v>
       </c>
       <c r="G130" t="n">
-        <v>72.36666666666666</v>
+        <v>247841.7325104022</v>
       </c>
       <c r="H130" t="n">
-        <v>72.78833333333334</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5340,36 +4968,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>71.8</v>
+        <v>73.8</v>
       </c>
       <c r="C131" t="n">
-        <v>71.8</v>
+        <v>73.8</v>
       </c>
       <c r="D131" t="n">
-        <v>71.8</v>
+        <v>73.8</v>
       </c>
       <c r="E131" t="n">
-        <v>71.8</v>
+        <v>73.8</v>
       </c>
       <c r="F131" t="n">
-        <v>7410</v>
+        <v>10</v>
       </c>
       <c r="G131" t="n">
-        <v>72.28</v>
+        <v>247851.7325104022</v>
       </c>
       <c r="H131" t="n">
-        <v>72.78166666666668</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5378,36 +5003,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>71.40000000000001</v>
+        <v>73.2</v>
       </c>
       <c r="C132" t="n">
-        <v>71.40000000000001</v>
+        <v>73.2</v>
       </c>
       <c r="D132" t="n">
-        <v>71.40000000000001</v>
+        <v>73.2</v>
       </c>
       <c r="E132" t="n">
-        <v>71.40000000000001</v>
+        <v>73.2</v>
       </c>
       <c r="F132" t="n">
-        <v>2760.7981</v>
+        <v>2008</v>
       </c>
       <c r="G132" t="n">
-        <v>72.16666666666669</v>
+        <v>245843.7325104022</v>
       </c>
       <c r="H132" t="n">
-        <v>72.77166666666668</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5416,36 +5038,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>71.3</v>
+        <v>73.3</v>
       </c>
       <c r="C133" t="n">
-        <v>71.3</v>
+        <v>73.3</v>
       </c>
       <c r="D133" t="n">
-        <v>71.3</v>
+        <v>73.3</v>
       </c>
       <c r="E133" t="n">
-        <v>71.3</v>
+        <v>73.3</v>
       </c>
       <c r="F133" t="n">
-        <v>1147.8122</v>
+        <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>72.07333333333334</v>
+        <v>245853.7325104022</v>
       </c>
       <c r="H133" t="n">
-        <v>72.76000000000001</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,36 +5073,33 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>71.40000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="C134" t="n">
-        <v>71.5</v>
+        <v>72</v>
       </c>
       <c r="D134" t="n">
-        <v>71.5</v>
+        <v>72.8</v>
       </c>
       <c r="E134" t="n">
-        <v>71.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="F134" t="n">
-        <v>6140</v>
+        <v>87521.7257</v>
       </c>
       <c r="G134" t="n">
-        <v>72.00000000000001</v>
+        <v>158332.0068104022</v>
       </c>
       <c r="H134" t="n">
-        <v>72.74166666666666</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5492,36 +5108,33 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>71.3</v>
+        <v>72.8</v>
       </c>
       <c r="C135" t="n">
-        <v>71.3</v>
+        <v>72.8</v>
       </c>
       <c r="D135" t="n">
-        <v>71.3</v>
+        <v>72.8</v>
       </c>
       <c r="E135" t="n">
-        <v>71.3</v>
+        <v>72.8</v>
       </c>
       <c r="F135" t="n">
-        <v>618.4521999999999</v>
+        <v>9979.6983</v>
       </c>
       <c r="G135" t="n">
-        <v>71.92000000000002</v>
+        <v>168311.7051104022</v>
       </c>
       <c r="H135" t="n">
-        <v>72.72166666666666</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5530,36 +5143,33 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>71.09999999999999</v>
+        <v>73</v>
       </c>
       <c r="C136" t="n">
-        <v>71.09999999999999</v>
+        <v>73</v>
       </c>
       <c r="D136" t="n">
-        <v>71.09999999999999</v>
+        <v>73</v>
       </c>
       <c r="E136" t="n">
-        <v>71.09999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F136" t="n">
-        <v>137.0938</v>
+        <v>11500</v>
       </c>
       <c r="G136" t="n">
-        <v>71.85333333333334</v>
+        <v>179811.7051104022</v>
       </c>
       <c r="H136" t="n">
-        <v>72.71833333333333</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5568,36 +5178,33 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>71</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>71</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E137" t="n">
-        <v>71</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F137" t="n">
-        <v>6527.7183</v>
+        <v>3823.8844</v>
       </c>
       <c r="G137" t="n">
-        <v>71.75333333333334</v>
+        <v>175987.8207104022</v>
       </c>
       <c r="H137" t="n">
-        <v>72.69500000000001</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5606,36 +5213,33 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>71</v>
+        <v>73.3</v>
       </c>
       <c r="C138" t="n">
-        <v>71</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>71</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="E138" t="n">
-        <v>71</v>
+        <v>73.3</v>
       </c>
       <c r="F138" t="n">
-        <v>35.4929</v>
+        <v>12010</v>
       </c>
       <c r="G138" t="n">
-        <v>71.65333333333335</v>
+        <v>187997.8207104022</v>
       </c>
       <c r="H138" t="n">
-        <v>72.68833333333335</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,36 +5248,33 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>70.59999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="C139" t="n">
-        <v>70.59999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="D139" t="n">
-        <v>70.59999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="E139" t="n">
-        <v>70.59999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="F139" t="n">
-        <v>1202.9999</v>
+        <v>1361.074829931973</v>
       </c>
       <c r="G139" t="n">
-        <v>71.53333333333333</v>
+        <v>189358.8955403342</v>
       </c>
       <c r="H139" t="n">
-        <v>72.66333333333336</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5682,36 +5283,33 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>70.59999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="C140" t="n">
-        <v>70.5</v>
+        <v>73.3</v>
       </c>
       <c r="D140" t="n">
-        <v>70.59999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="E140" t="n">
-        <v>70.5</v>
+        <v>73.3</v>
       </c>
       <c r="F140" t="n">
-        <v>3658.8501</v>
+        <v>517</v>
       </c>
       <c r="G140" t="n">
-        <v>71.44666666666667</v>
+        <v>188841.8955403342</v>
       </c>
       <c r="H140" t="n">
-        <v>72.66166666666668</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5720,36 +5318,33 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>70.40000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>70.40000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>70.40000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>70.40000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F141" t="n">
-        <v>20.2374</v>
+        <v>7207.6947</v>
       </c>
       <c r="G141" t="n">
-        <v>71.32666666666667</v>
+        <v>181634.2008403342</v>
       </c>
       <c r="H141" t="n">
-        <v>72.63166666666667</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5758,36 +5353,33 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>70.59999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="C142" t="n">
-        <v>70.59999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="D142" t="n">
-        <v>70.59999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="E142" t="n">
-        <v>70.59999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="F142" t="n">
-        <v>2000.0008</v>
+        <v>16.7213</v>
       </c>
       <c r="G142" t="n">
-        <v>71.22</v>
+        <v>181650.9221403342</v>
       </c>
       <c r="H142" t="n">
-        <v>72.60166666666669</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5796,36 +5388,33 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>70.59999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="C143" t="n">
-        <v>70.59999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="D143" t="n">
-        <v>70.59999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="E143" t="n">
-        <v>70.59999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="F143" t="n">
-        <v>11.3314</v>
+        <v>2280</v>
       </c>
       <c r="G143" t="n">
-        <v>71.11333333333332</v>
+        <v>181650.9221403342</v>
       </c>
       <c r="H143" t="n">
-        <v>72.56833333333336</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="n">
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5834,36 +5423,33 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>70.40000000000001</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>70.3</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D144" t="n">
-        <v>70.40000000000001</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E144" t="n">
-        <v>70.3</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F144" t="n">
-        <v>7974.2719</v>
+        <v>14970</v>
       </c>
       <c r="G144" t="n">
-        <v>71.03999999999998</v>
+        <v>166680.9221403342</v>
       </c>
       <c r="H144" t="n">
-        <v>72.53666666666669</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="n">
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5872,36 +5458,33 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>70</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C145" t="n">
-        <v>70</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D145" t="n">
-        <v>70</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E145" t="n">
-        <v>70</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F145" t="n">
-        <v>16482.0291</v>
+        <v>12787</v>
       </c>
       <c r="G145" t="n">
-        <v>70.8933333333333</v>
+        <v>166680.9221403342</v>
       </c>
       <c r="H145" t="n">
-        <v>72.50000000000003</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="n">
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5910,36 +5493,33 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>70</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C146" t="n">
-        <v>70</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D146" t="n">
-        <v>70</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E146" t="n">
-        <v>70</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F146" t="n">
-        <v>14833.8262</v>
+        <v>1367.989056087551</v>
       </c>
       <c r="G146" t="n">
-        <v>70.77333333333331</v>
+        <v>166680.9221403342</v>
       </c>
       <c r="H146" t="n">
-        <v>72.47166666666671</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="n">
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5948,36 +5528,33 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>70.2</v>
+        <v>72.8</v>
       </c>
       <c r="C147" t="n">
-        <v>70.2</v>
+        <v>72.7</v>
       </c>
       <c r="D147" t="n">
-        <v>70.2</v>
+        <v>72.8</v>
       </c>
       <c r="E147" t="n">
-        <v>70.2</v>
+        <v>72.7</v>
       </c>
       <c r="F147" t="n">
-        <v>11.1111</v>
+        <v>3043.9064</v>
       </c>
       <c r="G147" t="n">
-        <v>70.69333333333331</v>
+        <v>163637.0157403342</v>
       </c>
       <c r="H147" t="n">
-        <v>72.4216666666667</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5986,36 +5563,33 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>70.2</v>
+        <v>72.7</v>
       </c>
       <c r="C148" t="n">
-        <v>70.2</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D148" t="n">
-        <v>70.2</v>
+        <v>72.7</v>
       </c>
       <c r="E148" t="n">
-        <v>70.2</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F148" t="n">
-        <v>1462.621</v>
+        <v>2386.3394</v>
       </c>
       <c r="G148" t="n">
-        <v>70.61999999999998</v>
+        <v>161250.6763403342</v>
       </c>
       <c r="H148" t="n">
-        <v>72.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="n">
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6024,36 +5598,33 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>69.90000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>69.90000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="D149" t="n">
-        <v>69.90000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E149" t="n">
-        <v>69.90000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="F149" t="n">
-        <v>41.2336</v>
+        <v>750</v>
       </c>
       <c r="G149" t="n">
-        <v>70.51333333333332</v>
+        <v>160500.6763403342</v>
       </c>
       <c r="H149" t="n">
-        <v>72.30666666666669</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="n">
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6062,36 +5633,33 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>70.59999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="C150" t="n">
-        <v>70.59999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D150" t="n">
-        <v>70.59999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="E150" t="n">
-        <v>70.59999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F150" t="n">
-        <v>4877.5068</v>
+        <v>8231.6952</v>
       </c>
       <c r="G150" t="n">
-        <v>70.46666666666665</v>
+        <v>152268.9811403342</v>
       </c>
       <c r="H150" t="n">
-        <v>72.25333333333336</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="n">
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6100,36 +5668,33 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>70.8</v>
+        <v>72.5</v>
       </c>
       <c r="C151" t="n">
-        <v>70.8</v>
+        <v>72.5</v>
       </c>
       <c r="D151" t="n">
-        <v>70.8</v>
+        <v>72.5</v>
       </c>
       <c r="E151" t="n">
-        <v>70.8</v>
+        <v>72.5</v>
       </c>
       <c r="F151" t="n">
-        <v>7511.4865</v>
+        <v>14741.6588</v>
       </c>
       <c r="G151" t="n">
-        <v>70.44666666666666</v>
+        <v>167010.6399403342</v>
       </c>
       <c r="H151" t="n">
-        <v>72.20333333333336</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="n">
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6138,36 +5703,33 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>70.40000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="C152" t="n">
-        <v>70.40000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="D152" t="n">
-        <v>70.40000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="E152" t="n">
-        <v>70.40000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="F152" t="n">
-        <v>138.7025</v>
+        <v>258.5723</v>
       </c>
       <c r="G152" t="n">
-        <v>70.40666666666667</v>
+        <v>167010.6399403342</v>
       </c>
       <c r="H152" t="n">
-        <v>72.14500000000002</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="n">
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6176,40 +5738,33 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>70.2</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C153" t="n">
-        <v>70.2</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D153" t="n">
-        <v>70.2</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E153" t="n">
-        <v>70.2</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F153" t="n">
-        <v>1109.3549</v>
+        <v>4562.3</v>
       </c>
       <c r="G153" t="n">
-        <v>70.35333333333332</v>
+        <v>162448.3399403342</v>
       </c>
       <c r="H153" t="n">
-        <v>72.08666666666669</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
-      </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
-      <c r="K153" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="L153" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6218,316 +5773,1426 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>70.3</v>
+        <v>71.8</v>
       </c>
       <c r="C154" t="n">
-        <v>70.3</v>
+        <v>71.8</v>
       </c>
       <c r="D154" t="n">
-        <v>70.3</v>
+        <v>71.8</v>
       </c>
       <c r="E154" t="n">
-        <v>70.3</v>
+        <v>71.8</v>
       </c>
       <c r="F154" t="n">
-        <v>8130</v>
+        <v>500</v>
       </c>
       <c r="G154" t="n">
-        <v>70.33333333333333</v>
+        <v>161948.3399403342</v>
       </c>
       <c r="H154" t="n">
-        <v>72.02333333333335</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
-      <c r="K154" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="L154" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="M154" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="C155" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="E155" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="F155" t="n">
+        <v>11246.0797</v>
+      </c>
+      <c r="G155" t="n">
+        <v>173194.4196403342</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="C156" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="D156" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="E156" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>6433.3665</v>
+      </c>
+      <c r="G156" t="n">
+        <v>173194.4196403342</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="C157" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="D157" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="E157" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="F157" t="n">
+        <v>6816.8205</v>
+      </c>
+      <c r="G157" t="n">
+        <v>173194.4196403342</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="C158" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="D158" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="E158" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="F158" t="n">
+        <v>952.936</v>
+      </c>
+      <c r="G158" t="n">
+        <v>172241.4836403342</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>72</v>
+      </c>
+      <c r="C159" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="D159" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="E159" t="n">
+        <v>72</v>
+      </c>
+      <c r="F159" t="n">
+        <v>60660.9701</v>
+      </c>
+      <c r="G159" t="n">
+        <v>232902.4537403342</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="C160" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="D160" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="E160" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="F160" t="n">
+        <v>7410</v>
+      </c>
+      <c r="G160" t="n">
+        <v>225492.4537403342</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="C161" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="D161" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="E161" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2760.7981</v>
+      </c>
+      <c r="G161" t="n">
+        <v>222731.6556403342</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="C162" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="D162" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="E162" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1147.8122</v>
+      </c>
+      <c r="G162" t="n">
+        <v>221583.8434403343</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="C163" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="D163" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="E163" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="F163" t="n">
+        <v>6140</v>
+      </c>
+      <c r="G163" t="n">
+        <v>227723.8434403343</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="K163" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="C164" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="D164" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="E164" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="F164" t="n">
+        <v>618.4521999999999</v>
+      </c>
+      <c r="G164" t="n">
+        <v>227105.3912403343</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="K164" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="L164" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="C155" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="D155" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="E155" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="F155" t="n">
-        <v>5717</v>
-      </c>
-      <c r="G155" t="n">
-        <v>70.32666666666667</v>
-      </c>
-      <c r="H155" t="n">
-        <v>71.96166666666667</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
-      <c r="K155" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="L155" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="M155" t="inlineStr">
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="C165" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="D165" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="E165" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="F165" t="n">
+        <v>137.0938</v>
+      </c>
+      <c r="G165" t="n">
+        <v>226968.2974403343</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="K165" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>71</v>
+      </c>
+      <c r="C166" t="n">
+        <v>71</v>
+      </c>
+      <c r="D166" t="n">
+        <v>71</v>
+      </c>
+      <c r="E166" t="n">
+        <v>71</v>
+      </c>
+      <c r="F166" t="n">
+        <v>6527.7183</v>
+      </c>
+      <c r="G166" t="n">
+        <v>220440.5791403342</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="K166" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>71</v>
+      </c>
+      <c r="C167" t="n">
+        <v>71</v>
+      </c>
+      <c r="D167" t="n">
+        <v>71</v>
+      </c>
+      <c r="E167" t="n">
+        <v>71</v>
+      </c>
+      <c r="F167" t="n">
+        <v>35.4929</v>
+      </c>
+      <c r="G167" t="n">
+        <v>220440.5791403342</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>71</v>
+      </c>
+      <c r="K167" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="C168" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="D168" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="E168" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1202.9999</v>
+      </c>
+      <c r="G168" t="n">
+        <v>219237.5792403342</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>71</v>
+      </c>
+      <c r="K168" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="C169" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="D169" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="E169" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="F169" t="n">
+        <v>3658.8501</v>
+      </c>
+      <c r="G169" t="n">
+        <v>215578.7291403342</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="K169" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L169" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="N155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>70.8</v>
-      </c>
-      <c r="C156" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="D156" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="E156" t="n">
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="F156" t="n">
-        <v>9358.6968</v>
-      </c>
-      <c r="G156" t="n">
-        <v>70.38000000000001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>71.90833333333335</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
-      <c r="K156" t="n">
+      <c r="C170" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="L156" t="n">
+      <c r="D170" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="M156" t="inlineStr">
+      <c r="E170" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="F170" t="n">
+        <v>20.2374</v>
+      </c>
+      <c r="G170" t="n">
+        <v>215558.4917403342</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="C157" t="n">
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="D157" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="E157" t="n">
+      <c r="C171" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="F157" t="n">
-        <v>7243.893</v>
-      </c>
-      <c r="G157" t="n">
-        <v>70.38000000000001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>71.84500000000003</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
-      <c r="K157" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="L157" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="M157" t="inlineStr">
+      <c r="D171" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="E171" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2000.0008</v>
+      </c>
+      <c r="G171" t="n">
+        <v>217558.4925403342</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="C158" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="D158" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="E158" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="F158" t="n">
-        <v>249.4788</v>
-      </c>
-      <c r="G158" t="n">
-        <v>70.42666666666668</v>
-      </c>
-      <c r="H158" t="n">
-        <v>71.80000000000003</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
-      <c r="K158" t="n">
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="L158" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="M158" t="inlineStr">
+      <c r="C172" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="D172" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="E172" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="F172" t="n">
+        <v>11.3314</v>
+      </c>
+      <c r="G172" t="n">
+        <v>217558.4925403342</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="C159" t="n">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="D159" t="n">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="E159" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="F159" t="n">
-        <v>9439.3842</v>
-      </c>
-      <c r="G159" t="n">
-        <v>70.51333333333334</v>
-      </c>
-      <c r="H159" t="n">
-        <v>71.77333333333337</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="M159" t="inlineStr">
+      <c r="C173" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="D173" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="E173" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="F173" t="n">
+        <v>7974.2719</v>
+      </c>
+      <c r="G173" t="n">
+        <v>209584.2206403342</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="C160" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="D160" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="E160" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="F160" t="n">
-        <v>500</v>
-      </c>
-      <c r="G160" t="n">
-        <v>70.61333333333333</v>
-      </c>
-      <c r="H160" t="n">
-        <v>71.7466666666667</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="M160" t="inlineStr">
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>70</v>
+      </c>
+      <c r="C174" t="n">
+        <v>70</v>
+      </c>
+      <c r="D174" t="n">
+        <v>70</v>
+      </c>
+      <c r="E174" t="n">
+        <v>70</v>
+      </c>
+      <c r="F174" t="n">
+        <v>16482.0291</v>
+      </c>
+      <c r="G174" t="n">
+        <v>193102.1915403343</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N160" t="n">
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>70</v>
+      </c>
+      <c r="C175" t="n">
+        <v>70</v>
+      </c>
+      <c r="D175" t="n">
+        <v>70</v>
+      </c>
+      <c r="E175" t="n">
+        <v>70</v>
+      </c>
+      <c r="F175" t="n">
+        <v>14833.8262</v>
+      </c>
+      <c r="G175" t="n">
+        <v>193102.1915403343</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="C176" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="D176" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="E176" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="F176" t="n">
+        <v>11.1111</v>
+      </c>
+      <c r="G176" t="n">
+        <v>193113.3026403343</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="C177" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="D177" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="E177" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1462.621</v>
+      </c>
+      <c r="G177" t="n">
+        <v>193113.3026403343</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="C178" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="D178" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="E178" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="F178" t="n">
+        <v>41.2336</v>
+      </c>
+      <c r="G178" t="n">
+        <v>193072.0690403343</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="C179" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="D179" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="E179" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="F179" t="n">
+        <v>4877.5068</v>
+      </c>
+      <c r="G179" t="n">
+        <v>197949.5758403343</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="C180" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="D180" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="E180" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="F180" t="n">
+        <v>7511.4865</v>
+      </c>
+      <c r="G180" t="n">
+        <v>205461.0623403343</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="C181" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="D181" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="E181" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="F181" t="n">
+        <v>138.7025</v>
+      </c>
+      <c r="G181" t="n">
+        <v>205322.3598403342</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="C182" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="D182" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="E182" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1109.3549</v>
+      </c>
+      <c r="G182" t="n">
+        <v>204213.0049403342</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="C183" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="D183" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="E183" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="F183" t="n">
+        <v>8130</v>
+      </c>
+      <c r="G183" t="n">
+        <v>212343.0049403342</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="C184" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="D184" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="E184" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="F184" t="n">
+        <v>5717</v>
+      </c>
+      <c r="G184" t="n">
+        <v>218060.0049403342</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="C185" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="D185" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="E185" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="F185" t="n">
+        <v>9358.6968</v>
+      </c>
+      <c r="G185" t="n">
+        <v>227418.7017403342</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="C186" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="D186" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="E186" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="F186" t="n">
+        <v>7243.893</v>
+      </c>
+      <c r="G186" t="n">
+        <v>220174.8087403342</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="C187" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="D187" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="E187" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="F187" t="n">
+        <v>249.4788</v>
+      </c>
+      <c r="G187" t="n">
+        <v>220424.2875403342</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="C188" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="D188" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="E188" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="F188" t="n">
+        <v>9439.3842</v>
+      </c>
+      <c r="G188" t="n">
+        <v>229863.6717403342</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="C189" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="D189" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="E189" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="F189" t="n">
+        <v>500</v>
+      </c>
+      <c r="G189" t="n">
+        <v>229363.6717403342</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-26 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M189"/>
+  <dimension ref="A1:N147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>72.5</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>72.8</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>72.8</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>72.5</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>13243.3648</v>
+        <v>2000</v>
       </c>
       <c r="G2" t="n">
-        <v>16931.90700000002</v>
+        <v>74.26000000000002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>72.90000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>72.90000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>72.90000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>72.90000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>71513.8743</v>
+        <v>486.1259</v>
       </c>
       <c r="G3" t="n">
-        <v>88445.78130000002</v>
+        <v>74.48</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>72.90000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="C4" t="n">
-        <v>72.90000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="D4" t="n">
-        <v>72.90000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="E4" t="n">
-        <v>72.90000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="F4" t="n">
-        <v>27285.9999</v>
+        <v>135.3632</v>
       </c>
       <c r="G4" t="n">
-        <v>88445.78130000002</v>
+        <v>74.46000000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>72.90000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="C5" t="n">
-        <v>72.90000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="D5" t="n">
-        <v>72.90000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="E5" t="n">
-        <v>72.90000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="F5" t="n">
-        <v>8519.8377</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>88445.78130000002</v>
+        <v>74.3</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>72.40000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="C6" t="n">
-        <v>72.3</v>
+        <v>72.8</v>
       </c>
       <c r="D6" t="n">
-        <v>72.40000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="E6" t="n">
-        <v>72.3</v>
+        <v>72.8</v>
       </c>
       <c r="F6" t="n">
-        <v>7341.6639</v>
+        <v>707.5601</v>
       </c>
       <c r="G6" t="n">
-        <v>81104.11740000002</v>
+        <v>73.86</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72.09999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="C7" t="n">
-        <v>72.09999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="D7" t="n">
-        <v>72.09999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="E7" t="n">
-        <v>72.09999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="F7" t="n">
-        <v>16137.225</v>
+        <v>2000</v>
       </c>
       <c r="G7" t="n">
-        <v>64966.89240000002</v>
+        <v>73.82000000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>72.3</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>72.3</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>72.3</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>72.3</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>278.8889</v>
+        <v>31.15591397849462</v>
       </c>
       <c r="G8" t="n">
-        <v>65245.78130000002</v>
+        <v>73.82000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>72.8</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>72.8</v>
+        <v>74.5</v>
       </c>
       <c r="D9" t="n">
-        <v>72.8</v>
+        <v>74.5</v>
       </c>
       <c r="E9" t="n">
-        <v>72.8</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>11186.1231</v>
+        <v>26918.7804</v>
       </c>
       <c r="G9" t="n">
-        <v>76431.90440000001</v>
+        <v>73.88000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>73</v>
+        <v>74.5</v>
       </c>
       <c r="C10" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D10" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E10" t="n">
-        <v>73</v>
+        <v>74.5</v>
       </c>
       <c r="F10" t="n">
-        <v>19552.9383</v>
+        <v>49728.0751860215</v>
       </c>
       <c r="G10" t="n">
-        <v>95984.84270000001</v>
+        <v>74.18000000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>72.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="C11" t="n">
-        <v>72.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="D11" t="n">
-        <v>72.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="E11" t="n">
-        <v>72.90000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="F11" t="n">
-        <v>550</v>
+        <v>23794.4069</v>
       </c>
       <c r="G11" t="n">
-        <v>95434.84270000001</v>
+        <v>74.62</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>73</v>
+        <v>74.8</v>
       </c>
       <c r="C12" t="n">
-        <v>73</v>
+        <v>74.7</v>
       </c>
       <c r="D12" t="n">
-        <v>73</v>
+        <v>74.8</v>
       </c>
       <c r="E12" t="n">
-        <v>73</v>
+        <v>74.7</v>
       </c>
       <c r="F12" t="n">
-        <v>6940</v>
+        <v>29524.7999</v>
       </c>
       <c r="G12" t="n">
-        <v>102374.8427</v>
+        <v>74.72</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>73</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>73</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>73</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>73</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>25338</v>
+        <v>132.2266</v>
       </c>
       <c r="G13" t="n">
-        <v>102374.8427</v>
+        <v>74.52000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>73</v>
+        <v>73.3</v>
       </c>
       <c r="C14" t="n">
-        <v>73</v>
+        <v>72.8</v>
       </c>
       <c r="D14" t="n">
-        <v>73</v>
+        <v>73.3</v>
       </c>
       <c r="E14" t="n">
-        <v>73</v>
+        <v>72.8</v>
       </c>
       <c r="F14" t="n">
-        <v>36907.431</v>
+        <v>9770.501099999999</v>
       </c>
       <c r="G14" t="n">
-        <v>102374.8427</v>
+        <v>74.18000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>73</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" t="n">
-        <v>73</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" t="n">
-        <v>36.5342</v>
+        <v>20000</v>
       </c>
       <c r="G15" t="n">
-        <v>102374.8427</v>
+        <v>73.58000000000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>73</v>
+        <v>73.3</v>
       </c>
       <c r="D16" t="n">
-        <v>73</v>
+        <v>73.3</v>
       </c>
       <c r="E16" t="n">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>2635</v>
+        <v>6290</v>
       </c>
       <c r="G16" t="n">
-        <v>102374.8427</v>
+        <v>73.24000000000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>73</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>73</v>
+        <v>72.3</v>
       </c>
       <c r="D17" t="n">
-        <v>73</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>73</v>
+        <v>72.3</v>
       </c>
       <c r="F17" t="n">
-        <v>32937.9851</v>
+        <v>45883.9189</v>
       </c>
       <c r="G17" t="n">
-        <v>102374.8427</v>
+        <v>72.76000000000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>72.90000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>73</v>
+        <v>72.3</v>
       </c>
       <c r="D18" t="n">
-        <v>73</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>72.90000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="F18" t="n">
-        <v>14140.4097</v>
+        <v>18327</v>
       </c>
       <c r="G18" t="n">
-        <v>102374.8427</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>73</v>
+        <v>72.3</v>
       </c>
       <c r="C19" t="n">
-        <v>72.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>73.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="E19" t="n">
-        <v>72.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>1013.7174</v>
+        <v>90007.9945</v>
       </c>
       <c r="G19" t="n">
-        <v>101361.1253</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>73.09999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="C20" t="n">
-        <v>73.09999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>73.09999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>5828.9404</v>
+        <v>10831.4137</v>
       </c>
       <c r="G20" t="n">
-        <v>107190.0657</v>
+        <v>72.58000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>73.09999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="C21" t="n">
         <v>72.7</v>
       </c>
       <c r="D21" t="n">
-        <v>73.09999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="E21" t="n">
         <v>72.7</v>
       </c>
       <c r="F21" t="n">
-        <v>10407.8461</v>
+        <v>41327.3333</v>
       </c>
       <c r="G21" t="n">
-        <v>96782.21960000003</v>
+        <v>72.46000000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>73</v>
+        <v>72.3</v>
       </c>
       <c r="C22" t="n">
-        <v>73.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="D22" t="n">
-        <v>73.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="E22" t="n">
-        <v>73</v>
+        <v>72.3</v>
       </c>
       <c r="F22" t="n">
-        <v>2000</v>
+        <v>2355.9999</v>
       </c>
       <c r="G22" t="n">
-        <v>98782.21960000003</v>
+        <v>72.46000000000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>72.59999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>72.59999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>72.59999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>72.59999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>19.95</v>
+        <v>2613</v>
       </c>
       <c r="G23" t="n">
-        <v>98762.26960000003</v>
+        <v>72.42000000000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>72.59999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>72.59999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>72.59999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>72.59999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>46356.1193</v>
+        <v>11441.4305</v>
       </c>
       <c r="G24" t="n">
-        <v>98762.26960000003</v>
+        <v>72.42</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>72.7</v>
+        <v>72.5</v>
       </c>
       <c r="C25" t="n">
-        <v>72.90000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="D25" t="n">
-        <v>72.90000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="E25" t="n">
-        <v>72.7</v>
+        <v>72.5</v>
       </c>
       <c r="F25" t="n">
-        <v>9383.5888</v>
+        <v>11830.5241</v>
       </c>
       <c r="G25" t="n">
-        <v>108145.8584</v>
+        <v>72.34</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>73</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>73</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>73</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>73</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>45406.6112</v>
+        <v>260.002</v>
       </c>
       <c r="G26" t="n">
-        <v>153552.4696</v>
+        <v>72.32000000000002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>73</v>
+        <v>72.8</v>
       </c>
       <c r="C27" t="n">
-        <v>73</v>
+        <v>73.2</v>
       </c>
       <c r="D27" t="n">
-        <v>73</v>
+        <v>73.2</v>
       </c>
       <c r="E27" t="n">
-        <v>73</v>
+        <v>72.8</v>
       </c>
       <c r="F27" t="n">
-        <v>1520</v>
+        <v>11267</v>
       </c>
       <c r="G27" t="n">
-        <v>153552.4696</v>
+        <v>72.50000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>73.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>73.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="D28" t="n">
-        <v>73.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>73.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="F28" t="n">
-        <v>12180</v>
+        <v>7960</v>
       </c>
       <c r="G28" t="n">
-        <v>165732.4696</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>73.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="C29" t="n">
-        <v>73.09999999999999</v>
+        <v>72</v>
       </c>
       <c r="D29" t="n">
-        <v>73.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="E29" t="n">
-        <v>73.09999999999999</v>
+        <v>72</v>
       </c>
       <c r="F29" t="n">
-        <v>11733.4199</v>
+        <v>18094</v>
       </c>
       <c r="G29" t="n">
-        <v>165732.4696</v>
+        <v>72.52000000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>73</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>73</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>73</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>73</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>10569.8687</v>
+        <v>20490</v>
       </c>
       <c r="G30" t="n">
-        <v>155162.6009</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>73</v>
+        <v>72.3</v>
       </c>
       <c r="C31" t="n">
-        <v>73</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>73</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>73</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>50000.0017</v>
+        <v>15180</v>
       </c>
       <c r="G31" t="n">
-        <v>155162.6009</v>
+        <v>72.44000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>73</v>
+        <v>72.2</v>
       </c>
       <c r="C32" t="n">
-        <v>73</v>
+        <v>71.8</v>
       </c>
       <c r="D32" t="n">
-        <v>73</v>
+        <v>72.2</v>
       </c>
       <c r="E32" t="n">
-        <v>73</v>
+        <v>71.8</v>
       </c>
       <c r="F32" t="n">
-        <v>9237</v>
+        <v>24276.8719</v>
       </c>
       <c r="G32" t="n">
-        <v>155162.6009</v>
+        <v>72.16000000000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>73</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>73</v>
+        <v>72.3</v>
       </c>
       <c r="D33" t="n">
-        <v>73</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>73</v>
+        <v>71.7</v>
       </c>
       <c r="F33" t="n">
-        <v>11850</v>
+        <v>18636.9429</v>
       </c>
       <c r="G33" t="n">
-        <v>155162.6009</v>
+        <v>72.16000000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>73</v>
+        <v>72.3</v>
       </c>
       <c r="C34" t="n">
-        <v>73</v>
+        <v>72.5</v>
       </c>
       <c r="D34" t="n">
-        <v>73</v>
+        <v>72.5</v>
       </c>
       <c r="E34" t="n">
-        <v>73</v>
+        <v>72.3</v>
       </c>
       <c r="F34" t="n">
-        <v>5001.8608</v>
+        <v>1669.679</v>
       </c>
       <c r="G34" t="n">
-        <v>155162.6009</v>
+        <v>72.26000000000002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>72.40000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="C35" t="n">
-        <v>72.3</v>
+        <v>73</v>
       </c>
       <c r="D35" t="n">
-        <v>72.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="E35" t="n">
-        <v>72.3</v>
+        <v>72.7</v>
       </c>
       <c r="F35" t="n">
-        <v>7520</v>
+        <v>50</v>
       </c>
       <c r="G35" t="n">
-        <v>147642.6009</v>
+        <v>72.34</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>72</v>
+        <v>73.8</v>
       </c>
       <c r="C36" t="n">
-        <v>72</v>
+        <v>73.8</v>
       </c>
       <c r="D36" t="n">
-        <v>72</v>
+        <v>73.8</v>
       </c>
       <c r="E36" t="n">
-        <v>72</v>
+        <v>73.8</v>
       </c>
       <c r="F36" t="n">
-        <v>7473.5707</v>
+        <v>18149.4473</v>
       </c>
       <c r="G36" t="n">
-        <v>140169.0302</v>
+        <v>72.68000000000002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,153 +1691,137 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>71.90000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="C37" t="n">
-        <v>71.90000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="D37" t="n">
-        <v>71.90000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="E37" t="n">
-        <v>71.90000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="F37" t="n">
-        <v>30.9695</v>
+        <v>5480.8593</v>
       </c>
       <c r="G37" t="n">
-        <v>140138.0607</v>
+        <v>73.26000000000002</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>72</v>
-      </c>
-      <c r="K37" t="n">
-        <v>72</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>72.59999999999999</v>
+        <v>73.7</v>
       </c>
       <c r="C38" t="n">
-        <v>72.59999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>72.59999999999999</v>
+        <v>73.7</v>
       </c>
       <c r="E38" t="n">
-        <v>72.59999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>7070</v>
+        <v>23918.434</v>
       </c>
       <c r="G38" t="n">
-        <v>147208.0607</v>
+        <v>73.22000000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="K38" t="n">
-        <v>72</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>72.7</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>72.7</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>40706.2121</v>
+        <v>500</v>
       </c>
       <c r="G39" t="n">
-        <v>187914.2728</v>
+        <v>73.14000000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="K39" t="n">
-        <v>72</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>73.09999999999999</v>
+        <v>72</v>
       </c>
       <c r="C40" t="n">
-        <v>73.3</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>73.59999999999999</v>
+        <v>72</v>
       </c>
       <c r="E40" t="n">
-        <v>72.5</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>80911.5793</v>
+        <v>3143.1314</v>
       </c>
       <c r="G40" t="n">
-        <v>268825.8521</v>
+        <v>72.92</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1812,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>73.7</v>
+        <v>71.7</v>
       </c>
       <c r="C41" t="n">
-        <v>74.3</v>
+        <v>71.7</v>
       </c>
       <c r="D41" t="n">
-        <v>74.3</v>
+        <v>71.7</v>
       </c>
       <c r="E41" t="n">
-        <v>73.7</v>
+        <v>71.7</v>
       </c>
       <c r="F41" t="n">
-        <v>29484.6251</v>
+        <v>11403</v>
       </c>
       <c r="G41" t="n">
-        <v>298310.4772</v>
+        <v>72.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1847,13 +1871,14 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>74.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C42" t="n">
         <v>74.3</v>
@@ -1862,13 +1887,13 @@
         <v>74.3</v>
       </c>
       <c r="E42" t="n">
-        <v>74.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>14626.0996</v>
+        <v>10922.7431</v>
       </c>
       <c r="G42" t="n">
-        <v>298310.4772</v>
+        <v>72.42</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1882,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="C43" t="n">
         <v>74.40000000000001</v>
       </c>
-      <c r="C43" t="n">
-        <v>75</v>
-      </c>
       <c r="D43" t="n">
-        <v>75</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>74.40000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="F43" t="n">
-        <v>177937.3334</v>
+        <v>2165</v>
       </c>
       <c r="G43" t="n">
-        <v>476247.8106</v>
+        <v>72.88</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1917,34 +1943,35 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>74.59999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="C44" t="n">
-        <v>74.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="D44" t="n">
-        <v>74.59999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="E44" t="n">
-        <v>74.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="F44" t="n">
-        <v>2000</v>
+        <v>39.0892</v>
       </c>
       <c r="G44" t="n">
-        <v>474247.8106</v>
+        <v>73.12</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1952,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>74.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="C45" t="n">
-        <v>74.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="D45" t="n">
-        <v>74.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="E45" t="n">
-        <v>74.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="F45" t="n">
-        <v>486.1259</v>
+        <v>102.4727</v>
       </c>
       <c r="G45" t="n">
-        <v>474247.8106</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1987,34 +2015,35 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>74.2</v>
+        <v>72.5</v>
       </c>
       <c r="C46" t="n">
-        <v>74.2</v>
+        <v>72</v>
       </c>
       <c r="D46" t="n">
-        <v>74.2</v>
+        <v>72.5</v>
       </c>
       <c r="E46" t="n">
-        <v>74.2</v>
+        <v>72</v>
       </c>
       <c r="F46" t="n">
-        <v>135.3632</v>
+        <v>2500</v>
       </c>
       <c r="G46" t="n">
-        <v>474112.4474</v>
+        <v>73.46000000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2022,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>73.5</v>
+        <v>72.7</v>
       </c>
       <c r="C47" t="n">
-        <v>73.5</v>
+        <v>72.7</v>
       </c>
       <c r="D47" t="n">
-        <v>73.5</v>
+        <v>72.7</v>
       </c>
       <c r="E47" t="n">
-        <v>73.5</v>
+        <v>72.7</v>
       </c>
       <c r="F47" t="n">
         <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>474102.4474</v>
+        <v>73.14</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2057,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>72.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>72.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>72.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>72.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>707.5601</v>
+        <v>141.1818</v>
       </c>
       <c r="G48" t="n">
-        <v>473394.8873</v>
+        <v>72.84</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2092,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>73.8</v>
+        <v>72.8</v>
       </c>
       <c r="C49" t="n">
-        <v>74.2</v>
+        <v>72.8</v>
       </c>
       <c r="D49" t="n">
-        <v>74.2</v>
+        <v>72.8</v>
       </c>
       <c r="E49" t="n">
-        <v>73.8</v>
+        <v>72.8</v>
       </c>
       <c r="F49" t="n">
-        <v>2000</v>
+        <v>655.5185</v>
       </c>
       <c r="G49" t="n">
-        <v>475394.8873</v>
+        <v>72.74000000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2127,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>74.40000000000001</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>74.40000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>74.40000000000001</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>74.40000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>31.15591397849462</v>
+        <v>1510</v>
       </c>
       <c r="G50" t="n">
-        <v>475426.0432139785</v>
+        <v>72.50000000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2162,34 +2195,35 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>74.40000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>74.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>74.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>74.40000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>26918.7804</v>
+        <v>742.8952</v>
       </c>
       <c r="G51" t="n">
-        <v>502344.8236139785</v>
+        <v>72.52000000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2197,34 +2231,35 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>74.5</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>75</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>75</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>74.5</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>49728.0751860215</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>552072.8988</v>
+        <v>72.56</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2232,34 +2267,35 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>75</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>75</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>75</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>74.5</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>23794.4069</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>552072.8988</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2267,34 +2303,35 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>74.8</v>
+        <v>72.8</v>
       </c>
       <c r="C54" t="n">
-        <v>74.7</v>
+        <v>73</v>
       </c>
       <c r="D54" t="n">
-        <v>74.8</v>
+        <v>73</v>
       </c>
       <c r="E54" t="n">
-        <v>74.7</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>29524.7999</v>
+        <v>11751.3595</v>
       </c>
       <c r="G54" t="n">
-        <v>522548.0989</v>
+        <v>72.64</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2302,34 +2339,35 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>73.40000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>73.40000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>73.40000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>73.40000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>132.2266</v>
+        <v>4394.273</v>
       </c>
       <c r="G55" t="n">
-        <v>522415.8723</v>
+        <v>72.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2337,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>73.3</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>72.8</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>73.3</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>72.8</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>9770.501099999999</v>
+        <v>7789.2234</v>
       </c>
       <c r="G56" t="n">
-        <v>512645.3712</v>
+        <v>72.75999999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2372,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>72.09999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="C57" t="n">
-        <v>72</v>
+        <v>73.3</v>
       </c>
       <c r="D57" t="n">
-        <v>72.09999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="E57" t="n">
-        <v>72</v>
+        <v>73.3</v>
       </c>
       <c r="F57" t="n">
-        <v>20000</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>492645.3712</v>
+        <v>72.83999999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2407,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>72.90000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="C58" t="n">
-        <v>73.3</v>
+        <v>72.2</v>
       </c>
       <c r="D58" t="n">
-        <v>73.3</v>
+        <v>72.2</v>
       </c>
       <c r="E58" t="n">
-        <v>72.90000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="F58" t="n">
-        <v>6290</v>
+        <v>14833.3264</v>
       </c>
       <c r="G58" t="n">
-        <v>498935.3712</v>
+        <v>72.66</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2442,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>72.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="C59" t="n">
-        <v>72.3</v>
+        <v>72</v>
       </c>
       <c r="D59" t="n">
-        <v>73.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="E59" t="n">
-        <v>72.3</v>
+        <v>72</v>
       </c>
       <c r="F59" t="n">
-        <v>45883.9189</v>
+        <v>4477.1195</v>
       </c>
       <c r="G59" t="n">
-        <v>453051.4523</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2477,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>72.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="C60" t="n">
-        <v>72.3</v>
+        <v>72</v>
       </c>
       <c r="D60" t="n">
-        <v>72.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="E60" t="n">
-        <v>72.3</v>
+        <v>72</v>
       </c>
       <c r="F60" t="n">
-        <v>18327</v>
+        <v>3315</v>
       </c>
       <c r="G60" t="n">
-        <v>453051.4523</v>
+        <v>72.38</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2512,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>72.3</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>72.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>72.3</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>72.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>90007.9945</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>363043.4578</v>
+        <v>72.42</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2547,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2556,19 +2601,19 @@
         <v>72.5</v>
       </c>
       <c r="C62" t="n">
-        <v>72.90000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="D62" t="n">
-        <v>72.90000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="E62" t="n">
-        <v>72.09999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="F62" t="n">
-        <v>10831.4137</v>
+        <v>3301.9418</v>
       </c>
       <c r="G62" t="n">
-        <v>373874.8715</v>
+        <v>72.26000000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2582,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>73.5</v>
+        <v>72</v>
       </c>
       <c r="C63" t="n">
-        <v>72.7</v>
+        <v>71.3</v>
       </c>
       <c r="D63" t="n">
-        <v>73.5</v>
+        <v>72</v>
       </c>
       <c r="E63" t="n">
-        <v>72.7</v>
+        <v>71.3</v>
       </c>
       <c r="F63" t="n">
-        <v>41327.3333</v>
+        <v>500</v>
       </c>
       <c r="G63" t="n">
-        <v>332547.5382</v>
+        <v>72.08000000000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2617,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>72.3</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>2355.9999</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>330191.5383</v>
+        <v>72.16000000000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2652,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>72.09999999999999</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>72.09999999999999</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>72.09999999999999</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>72.09999999999999</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>2613</v>
+        <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>327578.5383</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2687,13 +2735,14 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>72.09999999999999</v>
+        <v>72</v>
       </c>
       <c r="C66" t="n">
         <v>72.09999999999999</v>
@@ -2702,13 +2751,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>72.09999999999999</v>
+        <v>72</v>
       </c>
       <c r="F66" t="n">
-        <v>11441.4305</v>
+        <v>1309.330910402219</v>
       </c>
       <c r="G66" t="n">
-        <v>327578.5383</v>
+        <v>71.94000000000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2722,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>72.5</v>
+        <v>71.2</v>
       </c>
       <c r="C67" t="n">
-        <v>72.5</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>72.5</v>
+        <v>71.2</v>
       </c>
       <c r="E67" t="n">
-        <v>72.5</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>11830.5241</v>
+        <v>42500</v>
       </c>
       <c r="G67" t="n">
-        <v>339409.0623999999</v>
+        <v>71.56000000000002</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2757,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>72.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="C68" t="n">
-        <v>72.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="D68" t="n">
-        <v>72.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="E68" t="n">
-        <v>72.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="F68" t="n">
-        <v>260.002</v>
+        <v>984.4838999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>339669.0643999999</v>
+        <v>71.74000000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2792,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>72.8</v>
+        <v>72.2</v>
       </c>
       <c r="C69" t="n">
-        <v>73.2</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>73.2</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>72.8</v>
+        <v>72.2</v>
       </c>
       <c r="F69" t="n">
-        <v>11267</v>
+        <v>13459.452</v>
       </c>
       <c r="G69" t="n">
-        <v>350936.0643999999</v>
+        <v>71.74000000000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2827,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2836,19 +2889,19 @@
         <v>72.59999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>72.3</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D70" t="n">
         <v>72.59999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>72.3</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>7960</v>
+        <v>9286.3619</v>
       </c>
       <c r="G70" t="n">
-        <v>342976.0643999999</v>
+        <v>71.98000000000002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2862,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>72.3</v>
+        <v>72.2</v>
       </c>
       <c r="C71" t="n">
-        <v>72</v>
+        <v>72.2</v>
       </c>
       <c r="D71" t="n">
-        <v>72.3</v>
+        <v>72.2</v>
       </c>
       <c r="E71" t="n">
-        <v>72</v>
+        <v>72.2</v>
       </c>
       <c r="F71" t="n">
-        <v>18094</v>
+        <v>9588.108899999999</v>
       </c>
       <c r="G71" t="n">
-        <v>324882.0643999999</v>
+        <v>72.00000000000003</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2897,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>72.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="C72" t="n">
-        <v>72.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="D72" t="n">
-        <v>72.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="E72" t="n">
-        <v>72.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="F72" t="n">
-        <v>20490</v>
+        <v>18142.0136</v>
       </c>
       <c r="G72" t="n">
-        <v>345372.0643999999</v>
+        <v>72.32000000000002</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2932,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>72.3</v>
+        <v>72.7</v>
       </c>
       <c r="C73" t="n">
-        <v>72.09999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="D73" t="n">
-        <v>72.40000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="E73" t="n">
-        <v>72.09999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="F73" t="n">
-        <v>15180</v>
+        <v>10530.8615</v>
       </c>
       <c r="G73" t="n">
-        <v>330192.0643999999</v>
+        <v>72.22000000000003</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2967,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>72.2</v>
+        <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>71.8</v>
+        <v>73.2</v>
       </c>
       <c r="D74" t="n">
-        <v>72.2</v>
+        <v>73.2</v>
       </c>
       <c r="E74" t="n">
-        <v>71.8</v>
+        <v>73</v>
       </c>
       <c r="F74" t="n">
-        <v>24276.8719</v>
+        <v>3379.3164</v>
       </c>
       <c r="G74" t="n">
-        <v>305915.1924999999</v>
+        <v>72.38000000000002</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3002,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>72.40000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="C75" t="n">
-        <v>72.3</v>
+        <v>73.5</v>
       </c>
       <c r="D75" t="n">
-        <v>72.40000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="E75" t="n">
-        <v>71.7</v>
+        <v>73.5</v>
       </c>
       <c r="F75" t="n">
-        <v>18636.9429</v>
+        <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>324552.1353999999</v>
+        <v>72.56000000000002</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3037,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>72.3</v>
+        <v>73.5</v>
       </c>
       <c r="C76" t="n">
-        <v>72.5</v>
+        <v>73.5</v>
       </c>
       <c r="D76" t="n">
-        <v>72.5</v>
+        <v>73.5</v>
       </c>
       <c r="E76" t="n">
-        <v>72.3</v>
+        <v>73.5</v>
       </c>
       <c r="F76" t="n">
-        <v>1669.679</v>
+        <v>1390.4493</v>
       </c>
       <c r="G76" t="n">
-        <v>326221.8143999999</v>
+        <v>72.82000000000002</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3072,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>72.7</v>
+        <v>73.8</v>
       </c>
       <c r="C77" t="n">
-        <v>73</v>
+        <v>73.8</v>
       </c>
       <c r="D77" t="n">
-        <v>73</v>
+        <v>73.8</v>
       </c>
       <c r="E77" t="n">
-        <v>72.7</v>
+        <v>73.8</v>
       </c>
       <c r="F77" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>326271.8143999999</v>
+        <v>73.14000000000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3107,6 +3167,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3125,10 +3186,10 @@
         <v>73.8</v>
       </c>
       <c r="F78" t="n">
-        <v>18149.4473</v>
+        <v>4406.453</v>
       </c>
       <c r="G78" t="n">
-        <v>344421.2616999999</v>
+        <v>73.56000000000003</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3142,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>74.7</v>
+        <v>73.7</v>
       </c>
       <c r="C79" t="n">
-        <v>74.7</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>74.7</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>74.7</v>
+        <v>73.7</v>
       </c>
       <c r="F79" t="n">
-        <v>5480.8593</v>
+        <v>399.025</v>
       </c>
       <c r="G79" t="n">
-        <v>349902.1209999999</v>
+        <v>73.70000000000003</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3177,6 +3239,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3186,25 +3249,25 @@
         <v>73.7</v>
       </c>
       <c r="C80" t="n">
-        <v>72.09999999999999</v>
+        <v>73.7</v>
       </c>
       <c r="D80" t="n">
         <v>73.7</v>
       </c>
       <c r="E80" t="n">
-        <v>72.09999999999999</v>
+        <v>73.7</v>
       </c>
       <c r="F80" t="n">
-        <v>23918.434</v>
+        <v>9646</v>
       </c>
       <c r="G80" t="n">
-        <v>325983.6869999999</v>
+        <v>73.74000000000004</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3212,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>72.09999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>72.09999999999999</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>72.09999999999999</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>72.09999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>500</v>
+        <v>7535</v>
       </c>
       <c r="G81" t="n">
-        <v>325983.6869999999</v>
+        <v>73.86000000000004</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3247,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>72</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>71.90000000000001</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>72</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>71.90000000000001</v>
+        <v>74</v>
       </c>
       <c r="F82" t="n">
-        <v>3143.1314</v>
+        <v>5047.6702</v>
       </c>
       <c r="G82" t="n">
-        <v>322840.5555999999</v>
+        <v>73.92000000000004</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3282,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>71.7</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>71.7</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>71.7</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>71.7</v>
+        <v>74</v>
       </c>
       <c r="F83" t="n">
-        <v>11403</v>
+        <v>6274.4386</v>
       </c>
       <c r="G83" t="n">
-        <v>311437.5555999999</v>
+        <v>74.04000000000005</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3317,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>72.40000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>74.3</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>74.3</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>72.40000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>10922.7431</v>
+        <v>98.33329999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>322360.2986999999</v>
+        <v>74.14000000000006</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3352,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>71.8</v>
+        <v>74</v>
       </c>
       <c r="C85" t="n">
-        <v>74.40000000000001</v>
+        <v>74</v>
       </c>
       <c r="D85" t="n">
-        <v>74.40000000000001</v>
+        <v>74</v>
       </c>
       <c r="E85" t="n">
-        <v>71.8</v>
+        <v>74</v>
       </c>
       <c r="F85" t="n">
-        <v>2165</v>
+        <v>505</v>
       </c>
       <c r="G85" t="n">
-        <v>324525.2986999999</v>
+        <v>74.20000000000006</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3387,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>73.3</v>
+        <v>73.8</v>
       </c>
       <c r="C86" t="n">
-        <v>73.3</v>
+        <v>73.2</v>
       </c>
       <c r="D86" t="n">
-        <v>73.3</v>
+        <v>73.8</v>
       </c>
       <c r="E86" t="n">
-        <v>73.3</v>
+        <v>73.2</v>
       </c>
       <c r="F86" t="n">
-        <v>39.0892</v>
+        <v>1909.5584</v>
       </c>
       <c r="G86" t="n">
-        <v>324486.2094999999</v>
+        <v>74.02000000000005</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3422,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>73.3</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>73.3</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>73.3</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>73.3</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>102.4727</v>
+        <v>880</v>
       </c>
       <c r="G87" t="n">
-        <v>324486.2094999999</v>
+        <v>73.82000000000005</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3457,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>72.5</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>72</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>72.5</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>72</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G88" t="n">
-        <v>321986.2094999999</v>
+        <v>73.56000000000006</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3492,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>72.7</v>
+        <v>73.8</v>
       </c>
       <c r="C89" t="n">
-        <v>72.7</v>
+        <v>73.8</v>
       </c>
       <c r="D89" t="n">
-        <v>72.7</v>
+        <v>73.8</v>
       </c>
       <c r="E89" t="n">
-        <v>72.7</v>
+        <v>73.8</v>
       </c>
       <c r="F89" t="n">
         <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>321996.2094999999</v>
+        <v>73.44000000000005</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3527,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>72.90000000000001</v>
+        <v>73.2</v>
       </c>
       <c r="C90" t="n">
-        <v>72.90000000000001</v>
+        <v>73.2</v>
       </c>
       <c r="D90" t="n">
-        <v>72.90000000000001</v>
+        <v>73.2</v>
       </c>
       <c r="E90" t="n">
-        <v>72.90000000000001</v>
+        <v>73.2</v>
       </c>
       <c r="F90" t="n">
-        <v>141.1818</v>
+        <v>2008</v>
       </c>
       <c r="G90" t="n">
-        <v>322137.3913</v>
+        <v>73.28000000000006</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3562,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>72.8</v>
+        <v>73.3</v>
       </c>
       <c r="C91" t="n">
-        <v>72.8</v>
+        <v>73.3</v>
       </c>
       <c r="D91" t="n">
-        <v>72.8</v>
+        <v>73.3</v>
       </c>
       <c r="E91" t="n">
-        <v>72.8</v>
+        <v>73.3</v>
       </c>
       <c r="F91" t="n">
-        <v>655.5185</v>
+        <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>321481.8728</v>
+        <v>73.30000000000005</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3597,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>73.09999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="C92" t="n">
-        <v>72.09999999999999</v>
+        <v>72</v>
       </c>
       <c r="D92" t="n">
-        <v>73.09999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="E92" t="n">
-        <v>72.09999999999999</v>
+        <v>72</v>
       </c>
       <c r="F92" t="n">
-        <v>1510</v>
+        <v>87521.7257</v>
       </c>
       <c r="G92" t="n">
-        <v>319971.8728</v>
+        <v>73.08000000000007</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3632,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>72.09999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="C93" t="n">
-        <v>72.09999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="D93" t="n">
-        <v>72.09999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="E93" t="n">
-        <v>72.09999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="F93" t="n">
-        <v>742.8952</v>
+        <v>9979.6983</v>
       </c>
       <c r="G93" t="n">
-        <v>319971.8728</v>
+        <v>73.02000000000007</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3667,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>72.90000000000001</v>
+        <v>73</v>
       </c>
       <c r="C94" t="n">
-        <v>72.90000000000001</v>
+        <v>73</v>
       </c>
       <c r="D94" t="n">
-        <v>72.90000000000001</v>
+        <v>73</v>
       </c>
       <c r="E94" t="n">
         <v>72.90000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>11500</v>
       </c>
       <c r="G94" t="n">
-        <v>319981.8728</v>
+        <v>72.86000000000007</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3702,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>73.09999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>73.09999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>73.09999999999999</v>
+        <v>73</v>
       </c>
       <c r="E95" t="n">
-        <v>73.09999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>10</v>
+        <v>3823.8844</v>
       </c>
       <c r="G95" t="n">
-        <v>319991.8728</v>
+        <v>72.80000000000008</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3737,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>72.8</v>
+        <v>73.3</v>
       </c>
       <c r="C96" t="n">
-        <v>73</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>73</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>72.09999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="F96" t="n">
-        <v>11751.3595</v>
+        <v>12010</v>
       </c>
       <c r="G96" t="n">
-        <v>308240.5132999999</v>
+        <v>72.82000000000008</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3772,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>72.40000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="C97" t="n">
-        <v>72.40000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="D97" t="n">
-        <v>72.40000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="E97" t="n">
-        <v>72.40000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="F97" t="n">
-        <v>4394.273</v>
+        <v>1361.074829931973</v>
       </c>
       <c r="G97" t="n">
-        <v>303846.2402999999</v>
+        <v>73.12000000000009</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3807,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>73.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="C98" t="n">
-        <v>72.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="D98" t="n">
-        <v>73.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="E98" t="n">
-        <v>72.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="F98" t="n">
-        <v>7789.2234</v>
+        <v>517</v>
       </c>
       <c r="G98" t="n">
-        <v>303846.2402999999</v>
+        <v>73.22000000000008</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3842,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>73.3</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>73.3</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>73.3</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>73.3</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>10</v>
+        <v>7207.6947</v>
       </c>
       <c r="G99" t="n">
-        <v>303856.2402999999</v>
+        <v>73.20000000000009</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3877,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>72.2</v>
+        <v>73.2</v>
       </c>
       <c r="C100" t="n">
-        <v>72.2</v>
+        <v>73.2</v>
       </c>
       <c r="D100" t="n">
-        <v>72.2</v>
+        <v>73.2</v>
       </c>
       <c r="E100" t="n">
-        <v>72.2</v>
+        <v>73.2</v>
       </c>
       <c r="F100" t="n">
-        <v>14833.3264</v>
+        <v>16.7213</v>
       </c>
       <c r="G100" t="n">
-        <v>289022.9138999999</v>
+        <v>73.26000000000008</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3912,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>72.2</v>
+        <v>73.2</v>
       </c>
       <c r="C101" t="n">
-        <v>72</v>
+        <v>73.2</v>
       </c>
       <c r="D101" t="n">
-        <v>72.2</v>
+        <v>73.2</v>
       </c>
       <c r="E101" t="n">
-        <v>72</v>
+        <v>73.2</v>
       </c>
       <c r="F101" t="n">
-        <v>4477.1195</v>
+        <v>2280</v>
       </c>
       <c r="G101" t="n">
-        <v>284545.7944</v>
+        <v>73.22000000000007</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3947,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>72</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>72</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>72</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>72</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>3315</v>
+        <v>14970</v>
       </c>
       <c r="G102" t="n">
-        <v>284545.7944</v>
+        <v>73.14000000000007</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3982,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>72.59999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>72.59999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>72.59999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>72.59999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>12787</v>
       </c>
       <c r="G103" t="n">
-        <v>284555.7944</v>
+        <v>73.10000000000008</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4017,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>72.5</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>72.5</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>72.5</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>72.5</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>3301.9418</v>
+        <v>1367.989056087551</v>
       </c>
       <c r="G104" t="n">
-        <v>281253.8526</v>
+        <v>73.14000000000007</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4052,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>72</v>
+        <v>72.8</v>
       </c>
       <c r="C105" t="n">
-        <v>71.3</v>
+        <v>72.7</v>
       </c>
       <c r="D105" t="n">
-        <v>72</v>
+        <v>72.8</v>
       </c>
       <c r="E105" t="n">
-        <v>71.3</v>
+        <v>72.7</v>
       </c>
       <c r="F105" t="n">
-        <v>500</v>
+        <v>3043.9064</v>
       </c>
       <c r="G105" t="n">
-        <v>280753.8526</v>
+        <v>73.04000000000008</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4087,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>72.40000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="C106" t="n">
-        <v>72.40000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>72.40000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="E106" t="n">
-        <v>72.40000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>2386.3394</v>
       </c>
       <c r="G106" t="n">
-        <v>280763.8526</v>
+        <v>72.92000000000009</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4122,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>71.40000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>71.40000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="D107" t="n">
-        <v>71.40000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>71.40000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="F107" t="n">
-        <v>10</v>
+        <v>750</v>
       </c>
       <c r="G107" t="n">
-        <v>280753.8526</v>
+        <v>72.8000000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4157,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>72</v>
+        <v>72.5</v>
       </c>
       <c r="C108" t="n">
         <v>72.09999999999999</v>
       </c>
       <c r="D108" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="E108" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c r="E108" t="n">
-        <v>72</v>
-      </c>
       <c r="F108" t="n">
-        <v>1309.330910402219</v>
+        <v>8231.6952</v>
       </c>
       <c r="G108" t="n">
-        <v>282063.1835104022</v>
+        <v>72.60000000000009</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4192,28 +4283,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>71.2</v>
+        <v>72.5</v>
       </c>
       <c r="C109" t="n">
-        <v>70.59999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="D109" t="n">
-        <v>71.2</v>
+        <v>72.5</v>
       </c>
       <c r="E109" t="n">
-        <v>70.59999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="F109" t="n">
-        <v>42500</v>
+        <v>14741.6588</v>
       </c>
       <c r="G109" t="n">
-        <v>239563.1835104022</v>
+        <v>72.48000000000009</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4227,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>72.2</v>
+        <v>72.5</v>
       </c>
       <c r="C110" t="n">
-        <v>72.2</v>
+        <v>72.5</v>
       </c>
       <c r="D110" t="n">
-        <v>72.2</v>
+        <v>72.5</v>
       </c>
       <c r="E110" t="n">
-        <v>72.2</v>
+        <v>72.5</v>
       </c>
       <c r="F110" t="n">
-        <v>984.4838999999999</v>
+        <v>258.5723</v>
       </c>
       <c r="G110" t="n">
-        <v>240547.6674104022</v>
+        <v>72.44000000000008</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4262,13 +4355,14 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>72.2</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C111" t="n">
         <v>72.40000000000001</v>
@@ -4277,13 +4371,13 @@
         <v>72.40000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>72.2</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>13459.452</v>
+        <v>4562.3</v>
       </c>
       <c r="G111" t="n">
-        <v>254007.1194104022</v>
+        <v>72.40000000000009</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4297,28 +4391,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>72.59999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="C112" t="n">
-        <v>72.59999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="D112" t="n">
-        <v>72.59999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="E112" t="n">
-        <v>72.59999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="F112" t="n">
-        <v>9286.3619</v>
+        <v>500</v>
       </c>
       <c r="G112" t="n">
-        <v>263293.4813104022</v>
+        <v>72.26000000000009</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4332,13 +4427,14 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>72.2</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C113" t="n">
         <v>72.2</v>
@@ -4347,13 +4443,13 @@
         <v>72.2</v>
       </c>
       <c r="E113" t="n">
-        <v>72.2</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F113" t="n">
-        <v>9588.108899999999</v>
+        <v>11246.0797</v>
       </c>
       <c r="G113" t="n">
-        <v>253705.3724104022</v>
+        <v>72.28000000000009</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4367,6 +4463,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4385,10 +4482,10 @@
         <v>72.2</v>
       </c>
       <c r="F114" t="n">
-        <v>18142.0136</v>
+        <v>6433.3665</v>
       </c>
       <c r="G114" t="n">
-        <v>253705.3724104022</v>
+        <v>72.22000000000008</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4402,28 +4499,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>72.7</v>
+        <v>72.2</v>
       </c>
       <c r="C115" t="n">
-        <v>71.7</v>
+        <v>72.2</v>
       </c>
       <c r="D115" t="n">
-        <v>72.7</v>
+        <v>72.2</v>
       </c>
       <c r="E115" t="n">
-        <v>71.7</v>
+        <v>72.2</v>
       </c>
       <c r="F115" t="n">
-        <v>10530.8615</v>
+        <v>6816.8205</v>
       </c>
       <c r="G115" t="n">
-        <v>243174.5109104022</v>
+        <v>72.16000000000008</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4437,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>73</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>73.2</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>73.2</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>73</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>3379.3164</v>
+        <v>952.936</v>
       </c>
       <c r="G116" t="n">
-        <v>246553.8273104022</v>
+        <v>71.96000000000008</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4472,28 +4571,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>73.5</v>
+        <v>72</v>
       </c>
       <c r="C117" t="n">
-        <v>73.5</v>
+        <v>72.2</v>
       </c>
       <c r="D117" t="n">
-        <v>73.5</v>
+        <v>72.2</v>
       </c>
       <c r="E117" t="n">
-        <v>73.5</v>
+        <v>72</v>
       </c>
       <c r="F117" t="n">
-        <v>10</v>
+        <v>60660.9701</v>
       </c>
       <c r="G117" t="n">
-        <v>246563.8273104022</v>
+        <v>72.04000000000008</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4507,28 +4607,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>73.5</v>
+        <v>71.8</v>
       </c>
       <c r="C118" t="n">
-        <v>73.5</v>
+        <v>71.8</v>
       </c>
       <c r="D118" t="n">
-        <v>73.5</v>
+        <v>71.8</v>
       </c>
       <c r="E118" t="n">
-        <v>73.5</v>
+        <v>71.8</v>
       </c>
       <c r="F118" t="n">
-        <v>1390.4493</v>
+        <v>7410</v>
       </c>
       <c r="G118" t="n">
-        <v>246563.8273104022</v>
+        <v>71.96000000000008</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4542,28 +4643,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>73.8</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>73.8</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>73.8</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>73.8</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>10</v>
+        <v>2760.7981</v>
       </c>
       <c r="G119" t="n">
-        <v>246573.8273104022</v>
+        <v>71.80000000000008</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4577,28 +4679,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>73.8</v>
+        <v>71.3</v>
       </c>
       <c r="C120" t="n">
-        <v>73.8</v>
+        <v>71.3</v>
       </c>
       <c r="D120" t="n">
-        <v>73.8</v>
+        <v>71.3</v>
       </c>
       <c r="E120" t="n">
-        <v>73.8</v>
+        <v>71.3</v>
       </c>
       <c r="F120" t="n">
-        <v>4406.453</v>
+        <v>1147.8122</v>
       </c>
       <c r="G120" t="n">
-        <v>246573.8273104022</v>
+        <v>71.62000000000009</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4612,28 +4715,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>73.7</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>73.90000000000001</v>
+        <v>71.5</v>
       </c>
       <c r="D121" t="n">
-        <v>73.90000000000001</v>
+        <v>71.5</v>
       </c>
       <c r="E121" t="n">
-        <v>73.7</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F121" t="n">
-        <v>399.025</v>
+        <v>6140</v>
       </c>
       <c r="G121" t="n">
-        <v>246972.8523104022</v>
+        <v>71.64000000000007</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4647,28 +4751,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>73.7</v>
+        <v>71.3</v>
       </c>
       <c r="C122" t="n">
-        <v>73.7</v>
+        <v>71.3</v>
       </c>
       <c r="D122" t="n">
-        <v>73.7</v>
+        <v>71.3</v>
       </c>
       <c r="E122" t="n">
-        <v>73.7</v>
+        <v>71.3</v>
       </c>
       <c r="F122" t="n">
-        <v>9646</v>
+        <v>618.4521999999999</v>
       </c>
       <c r="G122" t="n">
-        <v>237326.8523104022</v>
+        <v>71.46000000000008</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4682,28 +4787,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>73.90000000000001</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>74.09999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>74.09999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>73.90000000000001</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>7535</v>
+        <v>137.0938</v>
       </c>
       <c r="G123" t="n">
-        <v>244861.8523104022</v>
+        <v>71.32000000000008</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4717,28 +4823,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>74.09999999999999</v>
+        <v>71</v>
       </c>
       <c r="C124" t="n">
-        <v>74.09999999999999</v>
+        <v>71</v>
       </c>
       <c r="D124" t="n">
-        <v>74.09999999999999</v>
+        <v>71</v>
       </c>
       <c r="E124" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F124" t="n">
-        <v>5047.6702</v>
+        <v>6527.7183</v>
       </c>
       <c r="G124" t="n">
-        <v>244861.8523104022</v>
+        <v>71.24000000000008</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4752,28 +4859,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>74.09999999999999</v>
+        <v>71</v>
       </c>
       <c r="C125" t="n">
-        <v>74.40000000000001</v>
+        <v>71</v>
       </c>
       <c r="D125" t="n">
-        <v>74.40000000000001</v>
+        <v>71</v>
       </c>
       <c r="E125" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F125" t="n">
-        <v>6274.4386</v>
+        <v>35.4929</v>
       </c>
       <c r="G125" t="n">
-        <v>251136.2909104022</v>
+        <v>71.18000000000008</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4787,28 +4895,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>74.40000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>74.40000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>74.40000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>74.40000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>98.33329999999999</v>
+        <v>1202.9999</v>
       </c>
       <c r="G126" t="n">
-        <v>251136.2909104022</v>
+        <v>71.00000000000007</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4822,28 +4931,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>74</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>74</v>
+        <v>70.5</v>
       </c>
       <c r="D127" t="n">
-        <v>74</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>74</v>
+        <v>70.5</v>
       </c>
       <c r="F127" t="n">
-        <v>505</v>
+        <v>3658.8501</v>
       </c>
       <c r="G127" t="n">
-        <v>250631.2909104022</v>
+        <v>70.84000000000006</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4857,28 +4967,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>73.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>73.2</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>73.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>73.2</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>1909.5584</v>
+        <v>20.2374</v>
       </c>
       <c r="G128" t="n">
-        <v>248721.7325104022</v>
+        <v>70.70000000000007</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4892,28 +5003,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>73.09999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>73.09999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>73.09999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>73.09999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>880</v>
+        <v>2000.0008</v>
       </c>
       <c r="G129" t="n">
-        <v>247841.7325104022</v>
+        <v>70.62000000000008</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4927,28 +5039,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>73.09999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>73.09999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>73.09999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>73.09999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>5000</v>
+        <v>11.3314</v>
       </c>
       <c r="G130" t="n">
-        <v>247841.7325104022</v>
+        <v>70.54000000000008</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4962,28 +5075,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>73.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="C131" t="n">
-        <v>73.8</v>
+        <v>70.3</v>
       </c>
       <c r="D131" t="n">
-        <v>73.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>73.8</v>
+        <v>70.3</v>
       </c>
       <c r="F131" t="n">
-        <v>10</v>
+        <v>7974.2719</v>
       </c>
       <c r="G131" t="n">
-        <v>247851.7325104022</v>
+        <v>70.48000000000009</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4997,28 +5111,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>73.2</v>
+        <v>70</v>
       </c>
       <c r="C132" t="n">
-        <v>73.2</v>
+        <v>70</v>
       </c>
       <c r="D132" t="n">
-        <v>73.2</v>
+        <v>70</v>
       </c>
       <c r="E132" t="n">
-        <v>73.2</v>
+        <v>70</v>
       </c>
       <c r="F132" t="n">
-        <v>2008</v>
+        <v>16482.0291</v>
       </c>
       <c r="G132" t="n">
-        <v>245843.7325104022</v>
+        <v>70.38000000000008</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5032,28 +5147,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="C133" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="D133" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="E133" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F133" t="n">
-        <v>10</v>
+        <v>14833.8262</v>
       </c>
       <c r="G133" t="n">
-        <v>245853.7325104022</v>
+        <v>70.3000000000001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5067,448 +5183,545 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>72.8</v>
+        <v>70.2</v>
       </c>
       <c r="C134" t="n">
-        <v>72</v>
+        <v>70.2</v>
       </c>
       <c r="D134" t="n">
-        <v>72.8</v>
+        <v>70.2</v>
       </c>
       <c r="E134" t="n">
-        <v>72</v>
+        <v>70.2</v>
       </c>
       <c r="F134" t="n">
-        <v>87521.7257</v>
+        <v>11.1111</v>
       </c>
       <c r="G134" t="n">
-        <v>158332.0068104022</v>
+        <v>70.2200000000001</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>70</v>
+      </c>
+      <c r="K134" t="n">
+        <v>70</v>
+      </c>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>72.8</v>
+        <v>70.2</v>
       </c>
       <c r="C135" t="n">
-        <v>72.8</v>
+        <v>70.2</v>
       </c>
       <c r="D135" t="n">
-        <v>72.8</v>
+        <v>70.2</v>
       </c>
       <c r="E135" t="n">
-        <v>72.8</v>
+        <v>70.2</v>
       </c>
       <c r="F135" t="n">
-        <v>9979.6983</v>
+        <v>1462.621</v>
       </c>
       <c r="G135" t="n">
-        <v>168311.7051104022</v>
+        <v>70.1400000000001</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="K135" t="n">
+        <v>70</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>73</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>73</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>73</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>72.90000000000001</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="F136" t="n">
-        <v>11500</v>
+        <v>41.2336</v>
       </c>
       <c r="G136" t="n">
-        <v>179811.7051104022</v>
+        <v>70.06000000000009</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="K136" t="n">
+        <v>70</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>72.90000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>72.90000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>73</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="E137" t="n">
-        <v>72.90000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="F137" t="n">
-        <v>3823.8844</v>
+        <v>4877.5068</v>
       </c>
       <c r="G137" t="n">
-        <v>175987.8207104022</v>
+        <v>70.18000000000009</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K137" t="n">
+        <v>69.90000000000001</v>
+      </c>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>73.3</v>
+        <v>70.8</v>
       </c>
       <c r="C138" t="n">
-        <v>73.40000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="D138" t="n">
-        <v>73.40000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="E138" t="n">
-        <v>73.3</v>
+        <v>70.8</v>
       </c>
       <c r="F138" t="n">
-        <v>12010</v>
+        <v>7511.4865</v>
       </c>
       <c r="G138" t="n">
-        <v>187997.8207104022</v>
+        <v>70.34000000000009</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="K138" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>73.5</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>73.5</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>73.5</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>73.5</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="F139" t="n">
-        <v>1361.074829931973</v>
+        <v>138.7025</v>
       </c>
       <c r="G139" t="n">
-        <v>189358.8955403342</v>
+        <v>70.38000000000009</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="K139" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>73.3</v>
+        <v>70.2</v>
       </c>
       <c r="C140" t="n">
-        <v>73.3</v>
+        <v>70.2</v>
       </c>
       <c r="D140" t="n">
-        <v>73.3</v>
+        <v>70.2</v>
       </c>
       <c r="E140" t="n">
-        <v>73.3</v>
+        <v>70.2</v>
       </c>
       <c r="F140" t="n">
-        <v>517</v>
+        <v>1109.3549</v>
       </c>
       <c r="G140" t="n">
-        <v>188841.8955403342</v>
+        <v>70.38000000000009</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="K140" t="n">
+        <v>70.40000000000001</v>
+      </c>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>72.90000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="C141" t="n">
-        <v>72.90000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="D141" t="n">
-        <v>72.90000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="E141" t="n">
-        <v>72.90000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="F141" t="n">
-        <v>7207.6947</v>
+        <v>8130</v>
       </c>
       <c r="G141" t="n">
-        <v>181634.2008403342</v>
+        <v>70.46000000000011</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="K141" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>73.2</v>
+        <v>70.3</v>
       </c>
       <c r="C142" t="n">
-        <v>73.2</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>73.2</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="E142" t="n">
-        <v>73.2</v>
+        <v>70.3</v>
       </c>
       <c r="F142" t="n">
-        <v>16.7213</v>
+        <v>5717</v>
       </c>
       <c r="G142" t="n">
-        <v>181650.9221403342</v>
+        <v>70.4200000000001</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="K142" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>73.2</v>
+        <v>70.8</v>
       </c>
       <c r="C143" t="n">
-        <v>73.2</v>
+        <v>71.2</v>
       </c>
       <c r="D143" t="n">
-        <v>73.2</v>
+        <v>71.2</v>
       </c>
       <c r="E143" t="n">
-        <v>73.2</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="F143" t="n">
-        <v>2280</v>
+        <v>9358.6968</v>
       </c>
       <c r="G143" t="n">
-        <v>181650.9221403342</v>
+        <v>70.50000000000009</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="K143" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>73.09999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="C144" t="n">
-        <v>73.09999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="D144" t="n">
-        <v>73.09999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="E144" t="n">
-        <v>73.09999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="F144" t="n">
-        <v>14970</v>
+        <v>7243.893</v>
       </c>
       <c r="G144" t="n">
-        <v>166680.9221403342</v>
+        <v>70.54000000000011</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="K144" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>73.09999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="C145" t="n">
-        <v>73.09999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="D145" t="n">
-        <v>73.09999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="E145" t="n">
-        <v>73.09999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="F145" t="n">
-        <v>12787</v>
+        <v>249.4788</v>
       </c>
       <c r="G145" t="n">
-        <v>166680.9221403342</v>
+        <v>70.7600000000001</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="K145" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>73.09999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="C146" t="n">
-        <v>73.09999999999999</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="D146" t="n">
-        <v>73.09999999999999</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="E146" t="n">
-        <v>73.09999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="F146" t="n">
-        <v>1367.989056087551</v>
+        <v>9439.3842</v>
       </c>
       <c r="G146" t="n">
-        <v>166680.9221403342</v>
+        <v>71.02000000000011</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5517,33 +5730,40 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>72.8</v>
+        <v>71.5</v>
       </c>
       <c r="C147" t="n">
-        <v>72.7</v>
+        <v>71.5</v>
       </c>
       <c r="D147" t="n">
-        <v>72.8</v>
+        <v>71.5</v>
       </c>
       <c r="E147" t="n">
-        <v>72.7</v>
+        <v>71.5</v>
       </c>
       <c r="F147" t="n">
-        <v>3043.9064</v>
+        <v>500</v>
       </c>
       <c r="G147" t="n">
-        <v>163637.0157403342</v>
+        <v>71.24000000000009</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5552,1649 +5772,18 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="C148" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="D148" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="E148" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="F148" t="n">
-        <v>2386.3394</v>
-      </c>
-      <c r="G148" t="n">
-        <v>161250.6763403342</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="C149" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="D149" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="E149" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="F149" t="n">
-        <v>750</v>
-      </c>
-      <c r="G149" t="n">
-        <v>160500.6763403342</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="C150" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="D150" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="E150" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="F150" t="n">
-        <v>8231.6952</v>
-      </c>
-      <c r="G150" t="n">
-        <v>152268.9811403342</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="C151" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="D151" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="E151" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="F151" t="n">
-        <v>14741.6588</v>
-      </c>
-      <c r="G151" t="n">
-        <v>167010.6399403342</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="C152" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="D152" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="E152" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="F152" t="n">
-        <v>258.5723</v>
-      </c>
-      <c r="G152" t="n">
-        <v>167010.6399403342</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="C153" t="n">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="D153" t="n">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="E153" t="n">
-        <v>72.40000000000001</v>
-      </c>
-      <c r="F153" t="n">
-        <v>4562.3</v>
-      </c>
-      <c r="G153" t="n">
-        <v>162448.3399403342</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="C154" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="D154" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="E154" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="F154" t="n">
-        <v>500</v>
-      </c>
-      <c r="G154" t="n">
-        <v>161948.3399403342</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="C155" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="D155" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="E155" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="F155" t="n">
-        <v>11246.0797</v>
-      </c>
-      <c r="G155" t="n">
-        <v>173194.4196403342</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="C156" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="D156" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="E156" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="F156" t="n">
-        <v>6433.3665</v>
-      </c>
-      <c r="G156" t="n">
-        <v>173194.4196403342</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="C157" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="D157" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="E157" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="F157" t="n">
-        <v>6816.8205</v>
-      </c>
-      <c r="G157" t="n">
-        <v>173194.4196403342</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="C158" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="D158" t="n">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="E158" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="F158" t="n">
-        <v>952.936</v>
-      </c>
-      <c r="G158" t="n">
-        <v>172241.4836403342</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>72</v>
-      </c>
-      <c r="C159" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="D159" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="E159" t="n">
-        <v>72</v>
-      </c>
-      <c r="F159" t="n">
-        <v>60660.9701</v>
-      </c>
-      <c r="G159" t="n">
-        <v>232902.4537403342</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="C160" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="D160" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="E160" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="F160" t="n">
-        <v>7410</v>
-      </c>
-      <c r="G160" t="n">
-        <v>225492.4537403342</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="C161" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="D161" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="E161" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="F161" t="n">
-        <v>2760.7981</v>
-      </c>
-      <c r="G161" t="n">
-        <v>222731.6556403342</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="C162" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="D162" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="E162" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1147.8122</v>
-      </c>
-      <c r="G162" t="n">
-        <v>221583.8434403343</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="C163" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="D163" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="E163" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="F163" t="n">
-        <v>6140</v>
-      </c>
-      <c r="G163" t="n">
-        <v>227723.8434403343</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="K163" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="C164" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="D164" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="E164" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="F164" t="n">
-        <v>618.4521999999999</v>
-      </c>
-      <c r="G164" t="n">
-        <v>227105.3912403343</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="K164" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="C165" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="D165" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="E165" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="F165" t="n">
-        <v>137.0938</v>
-      </c>
-      <c r="G165" t="n">
-        <v>226968.2974403343</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="K165" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>71</v>
-      </c>
-      <c r="C166" t="n">
-        <v>71</v>
-      </c>
-      <c r="D166" t="n">
-        <v>71</v>
-      </c>
-      <c r="E166" t="n">
-        <v>71</v>
-      </c>
-      <c r="F166" t="n">
-        <v>6527.7183</v>
-      </c>
-      <c r="G166" t="n">
-        <v>220440.5791403342</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="K166" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>71</v>
-      </c>
-      <c r="C167" t="n">
-        <v>71</v>
-      </c>
-      <c r="D167" t="n">
-        <v>71</v>
-      </c>
-      <c r="E167" t="n">
-        <v>71</v>
-      </c>
-      <c r="F167" t="n">
-        <v>35.4929</v>
-      </c>
-      <c r="G167" t="n">
-        <v>220440.5791403342</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>71</v>
-      </c>
-      <c r="K167" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="C168" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="D168" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="E168" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1202.9999</v>
-      </c>
-      <c r="G168" t="n">
-        <v>219237.5792403342</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>71</v>
-      </c>
-      <c r="K168" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="C169" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="D169" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="E169" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="F169" t="n">
-        <v>3658.8501</v>
-      </c>
-      <c r="G169" t="n">
-        <v>215578.7291403342</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="K169" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
+      <c r="K147" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="C170" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="D170" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="E170" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="F170" t="n">
-        <v>20.2374</v>
-      </c>
-      <c r="G170" t="n">
-        <v>215558.4917403342</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L170" t="inlineStr">
+      <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="C171" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="D171" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="E171" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="F171" t="n">
-        <v>2000.0008</v>
-      </c>
-      <c r="G171" t="n">
-        <v>217558.4925403342</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="C172" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="D172" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="E172" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="F172" t="n">
-        <v>11.3314</v>
-      </c>
-      <c r="G172" t="n">
-        <v>217558.4925403342</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="C173" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="D173" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="E173" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="F173" t="n">
-        <v>7974.2719</v>
-      </c>
-      <c r="G173" t="n">
-        <v>209584.2206403342</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>70</v>
-      </c>
-      <c r="C174" t="n">
-        <v>70</v>
-      </c>
-      <c r="D174" t="n">
-        <v>70</v>
-      </c>
-      <c r="E174" t="n">
-        <v>70</v>
-      </c>
-      <c r="F174" t="n">
-        <v>16482.0291</v>
-      </c>
-      <c r="G174" t="n">
-        <v>193102.1915403343</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>70</v>
-      </c>
-      <c r="C175" t="n">
-        <v>70</v>
-      </c>
-      <c r="D175" t="n">
-        <v>70</v>
-      </c>
-      <c r="E175" t="n">
-        <v>70</v>
-      </c>
-      <c r="F175" t="n">
-        <v>14833.8262</v>
-      </c>
-      <c r="G175" t="n">
-        <v>193102.1915403343</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="C176" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="D176" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="E176" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="F176" t="n">
-        <v>11.1111</v>
-      </c>
-      <c r="G176" t="n">
-        <v>193113.3026403343</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="C177" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="D177" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="E177" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1462.621</v>
-      </c>
-      <c r="G177" t="n">
-        <v>193113.3026403343</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="C178" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="D178" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="E178" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="F178" t="n">
-        <v>41.2336</v>
-      </c>
-      <c r="G178" t="n">
-        <v>193072.0690403343</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="C179" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="D179" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="E179" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="F179" t="n">
-        <v>4877.5068</v>
-      </c>
-      <c r="G179" t="n">
-        <v>197949.5758403343</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>70.8</v>
-      </c>
-      <c r="C180" t="n">
-        <v>70.8</v>
-      </c>
-      <c r="D180" t="n">
-        <v>70.8</v>
-      </c>
-      <c r="E180" t="n">
-        <v>70.8</v>
-      </c>
-      <c r="F180" t="n">
-        <v>7511.4865</v>
-      </c>
-      <c r="G180" t="n">
-        <v>205461.0623403343</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="C181" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="D181" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="E181" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="F181" t="n">
-        <v>138.7025</v>
-      </c>
-      <c r="G181" t="n">
-        <v>205322.3598403342</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="C182" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="D182" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="E182" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="F182" t="n">
-        <v>1109.3549</v>
-      </c>
-      <c r="G182" t="n">
-        <v>204213.0049403342</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="C183" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="D183" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="E183" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="F183" t="n">
-        <v>8130</v>
-      </c>
-      <c r="G183" t="n">
-        <v>212343.0049403342</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="C184" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="D184" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="E184" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="F184" t="n">
-        <v>5717</v>
-      </c>
-      <c r="G184" t="n">
-        <v>218060.0049403342</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>70.8</v>
-      </c>
-      <c r="C185" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="D185" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="E185" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="F185" t="n">
-        <v>9358.6968</v>
-      </c>
-      <c r="G185" t="n">
-        <v>227418.7017403342</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="C186" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="D186" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="E186" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="F186" t="n">
-        <v>7243.893</v>
-      </c>
-      <c r="G186" t="n">
-        <v>220174.8087403342</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="C187" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="D187" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="E187" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="F187" t="n">
-        <v>249.4788</v>
-      </c>
-      <c r="G187" t="n">
-        <v>220424.2875403342</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="C188" t="n">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="D188" t="n">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="E188" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="F188" t="n">
-        <v>9439.3842</v>
-      </c>
-      <c r="G188" t="n">
-        <v>229863.6717403342</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="C189" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="D189" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="E189" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="F189" t="n">
-        <v>500</v>
-      </c>
-      <c r="G189" t="n">
-        <v>229363.6717403342</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-26 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N147"/>
+  <dimension ref="A1:N218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>74.59999999999999</v>
+        <v>71</v>
       </c>
       <c r="C2" t="n">
-        <v>74.40000000000001</v>
+        <v>71</v>
       </c>
       <c r="D2" t="n">
-        <v>74.59999999999999</v>
+        <v>71</v>
       </c>
       <c r="E2" t="n">
-        <v>74.40000000000001</v>
+        <v>71</v>
       </c>
       <c r="F2" t="n">
-        <v>2000</v>
+        <v>4046.1484</v>
       </c>
       <c r="G2" t="n">
-        <v>74.26000000000002</v>
+        <v>-17978.20659999998</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,32 +474,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>74.40000000000001</v>
+        <v>71</v>
       </c>
       <c r="C3" t="n">
-        <v>74.40000000000001</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>74.40000000000001</v>
+        <v>71</v>
       </c>
       <c r="E3" t="n">
-        <v>74.40000000000001</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>486.1259</v>
+        <v>5984</v>
       </c>
       <c r="G3" t="n">
-        <v>74.48</v>
+        <v>-23962.20659999998</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>71</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -510,32 +516,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>74.2</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>74.2</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>74.2</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>74.2</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>135.3632</v>
+        <v>5050</v>
       </c>
       <c r="G4" t="n">
-        <v>74.46000000000001</v>
+        <v>-23962.20659999998</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>70.90000000000001</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>73.5</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>73.5</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>73.5</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>73.5</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>20065</v>
       </c>
       <c r="G5" t="n">
-        <v>74.3</v>
+        <v>-23962.20659999998</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>70.90000000000001</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +600,38 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>72.8</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>72.8</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>72.8</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>72.8</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>707.5601</v>
+        <v>2000</v>
       </c>
       <c r="G6" t="n">
-        <v>73.86</v>
+        <v>-21962.20659999998</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>70.90000000000001</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +642,38 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>73.8</v>
+        <v>71.2</v>
       </c>
       <c r="C7" t="n">
-        <v>74.2</v>
+        <v>71.2</v>
       </c>
       <c r="D7" t="n">
-        <v>74.2</v>
+        <v>71.2</v>
       </c>
       <c r="E7" t="n">
-        <v>73.8</v>
+        <v>71.2</v>
       </c>
       <c r="F7" t="n">
-        <v>2000</v>
+        <v>7267.4</v>
       </c>
       <c r="G7" t="n">
-        <v>73.82000000000001</v>
+        <v>-14694.80659999998</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>71.09999999999999</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +684,38 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74.40000000000001</v>
+        <v>71</v>
       </c>
       <c r="C8" t="n">
-        <v>74.40000000000001</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>74.40000000000001</v>
+        <v>71</v>
       </c>
       <c r="E8" t="n">
-        <v>74.40000000000001</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>31.15591397849462</v>
+        <v>11990</v>
       </c>
       <c r="G8" t="n">
-        <v>73.82000000000001</v>
+        <v>-26684.80659999997</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>71.2</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +726,38 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74.40000000000001</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>74.5</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>74.5</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>74.40000000000001</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>26918.7804</v>
+        <v>8330</v>
       </c>
       <c r="G9" t="n">
-        <v>73.88000000000001</v>
+        <v>-26684.80659999997</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>70.90000000000001</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,32 +768,38 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>74.5</v>
+        <v>71</v>
       </c>
       <c r="C10" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D10" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E10" t="n">
-        <v>74.5</v>
+        <v>71</v>
       </c>
       <c r="F10" t="n">
-        <v>49728.0751860215</v>
+        <v>5000</v>
       </c>
       <c r="G10" t="n">
-        <v>74.18000000000001</v>
+        <v>-21684.80659999997</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>70.90000000000001</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +810,38 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>75</v>
+        <v>71.2</v>
       </c>
       <c r="C11" t="n">
-        <v>75</v>
+        <v>71.2</v>
       </c>
       <c r="D11" t="n">
-        <v>75</v>
+        <v>71.2</v>
       </c>
       <c r="E11" t="n">
-        <v>74.5</v>
+        <v>71.2</v>
       </c>
       <c r="F11" t="n">
-        <v>23794.4069</v>
+        <v>2106.7415</v>
       </c>
       <c r="G11" t="n">
-        <v>74.62</v>
+        <v>-19578.06509999997</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>71</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +852,38 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>74.8</v>
+        <v>71.3</v>
       </c>
       <c r="C12" t="n">
-        <v>74.7</v>
+        <v>71.3</v>
       </c>
       <c r="D12" t="n">
-        <v>74.8</v>
+        <v>71.3</v>
       </c>
       <c r="E12" t="n">
-        <v>74.7</v>
+        <v>71.3</v>
       </c>
       <c r="F12" t="n">
-        <v>29524.7999</v>
+        <v>1095</v>
       </c>
       <c r="G12" t="n">
-        <v>74.72</v>
+        <v>-18483.06509999997</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>71.2</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,32 +894,38 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>73.40000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="C13" t="n">
-        <v>73.40000000000001</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>73.40000000000001</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>73.40000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="F13" t="n">
-        <v>132.2266</v>
+        <v>4065.3085</v>
       </c>
       <c r="G13" t="n">
-        <v>74.52000000000001</v>
+        <v>-14417.75659999998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>71.3</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +936,38 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>73.3</v>
+        <v>71.3</v>
       </c>
       <c r="C14" t="n">
-        <v>72.8</v>
+        <v>71.3</v>
       </c>
       <c r="D14" t="n">
-        <v>73.3</v>
+        <v>71.3</v>
       </c>
       <c r="E14" t="n">
-        <v>72.8</v>
+        <v>71.3</v>
       </c>
       <c r="F14" t="n">
-        <v>9770.501099999999</v>
+        <v>56.1009</v>
       </c>
       <c r="G14" t="n">
-        <v>74.18000000000001</v>
+        <v>-14473.85749999997</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>71.40000000000001</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -909,29 +981,35 @@
         <v>72.09999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>72</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D15" t="n">
         <v>72.09999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>72</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>20000</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>73.58000000000001</v>
+        <v>-14463.85749999997</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>71.3</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1020,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>72.90000000000001</v>
+        <v>72</v>
       </c>
       <c r="C16" t="n">
-        <v>73.3</v>
+        <v>72</v>
       </c>
       <c r="D16" t="n">
-        <v>73.3</v>
+        <v>72</v>
       </c>
       <c r="E16" t="n">
-        <v>72.90000000000001</v>
+        <v>72</v>
       </c>
       <c r="F16" t="n">
-        <v>6290</v>
+        <v>4530</v>
       </c>
       <c r="G16" t="n">
-        <v>73.24000000000001</v>
+        <v>-18993.85749999998</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -967,7 +1045,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1060,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>72.40000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="C17" t="n">
-        <v>72.3</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>73.40000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>72.3</v>
+        <v>72.5</v>
       </c>
       <c r="F17" t="n">
-        <v>45883.9189</v>
+        <v>3200</v>
       </c>
       <c r="G17" t="n">
-        <v>72.76000000000002</v>
+        <v>-15793.85749999998</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1003,7 +1085,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1100,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>72.40000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="C18" t="n">
-        <v>72.3</v>
+        <v>72.5</v>
       </c>
       <c r="D18" t="n">
-        <v>72.40000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="E18" t="n">
-        <v>72.3</v>
+        <v>72.5</v>
       </c>
       <c r="F18" t="n">
-        <v>18327</v>
+        <v>2821.0529</v>
       </c>
       <c r="G18" t="n">
-        <v>72.54000000000001</v>
+        <v>-18614.91039999998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1039,7 +1125,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1140,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>72.3</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>72.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>72.3</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>72.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>90007.9945</v>
+        <v>1026</v>
       </c>
       <c r="G19" t="n">
-        <v>72.40000000000001</v>
+        <v>-17588.91039999998</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,7 +1165,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1180,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>72.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>72.90000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>72.90000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>72.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>10831.4137</v>
+        <v>664</v>
       </c>
       <c r="G20" t="n">
-        <v>72.58000000000001</v>
+        <v>-17588.91039999998</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1111,7 +1205,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1220,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>73.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>72.7</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>73.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>72.7</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>41327.3333</v>
+        <v>7052.1861</v>
       </c>
       <c r="G21" t="n">
-        <v>72.46000000000001</v>
+        <v>-17588.91039999998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1147,7 +1245,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1260,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>72.3</v>
+        <v>72.7</v>
       </c>
       <c r="C22" t="n">
-        <v>72.3</v>
+        <v>72.7</v>
       </c>
       <c r="D22" t="n">
-        <v>72.3</v>
+        <v>72.7</v>
       </c>
       <c r="E22" t="n">
-        <v>72.3</v>
+        <v>72.7</v>
       </c>
       <c r="F22" t="n">
-        <v>2355.9999</v>
+        <v>1510.6102</v>
       </c>
       <c r="G22" t="n">
-        <v>72.46000000000001</v>
+        <v>-16078.30019999998</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1183,7 +1285,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1300,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>72.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>72.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>72.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>72.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>2613</v>
+        <v>457.4005</v>
       </c>
       <c r="G23" t="n">
-        <v>72.42000000000002</v>
+        <v>-16535.70069999998</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1219,7 +1325,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>72.09999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="C24" t="n">
-        <v>72.09999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="D24" t="n">
-        <v>72.09999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="E24" t="n">
-        <v>72.09999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="F24" t="n">
-        <v>11441.4305</v>
+        <v>3644.8</v>
       </c>
       <c r="G24" t="n">
-        <v>72.42</v>
+        <v>-12890.90069999998</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1255,7 +1365,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1380,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>72.5</v>
+        <v>72.7</v>
       </c>
       <c r="C25" t="n">
-        <v>72.5</v>
+        <v>72.7</v>
       </c>
       <c r="D25" t="n">
-        <v>72.5</v>
+        <v>72.7</v>
       </c>
       <c r="E25" t="n">
-        <v>72.5</v>
+        <v>72.7</v>
       </c>
       <c r="F25" t="n">
-        <v>11830.5241</v>
+        <v>1351.5</v>
       </c>
       <c r="G25" t="n">
-        <v>72.34</v>
+        <v>-12890.90069999998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1291,7 +1405,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1420,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>72.59999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="C26" t="n">
-        <v>72.59999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>72.59999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>72.59999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="F26" t="n">
-        <v>260.002</v>
+        <v>8000</v>
       </c>
       <c r="G26" t="n">
-        <v>72.32000000000002</v>
+        <v>-4890.900699999976</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1327,7 +1445,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1341,19 +1463,19 @@
         <v>72.8</v>
       </c>
       <c r="C27" t="n">
-        <v>73.2</v>
+        <v>72.8</v>
       </c>
       <c r="D27" t="n">
-        <v>73.2</v>
+        <v>72.8</v>
       </c>
       <c r="E27" t="n">
         <v>72.8</v>
       </c>
       <c r="F27" t="n">
-        <v>11267</v>
+        <v>840</v>
       </c>
       <c r="G27" t="n">
-        <v>72.50000000000001</v>
+        <v>-5730.900699999976</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1363,7 +1485,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1500,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>72.59999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="C28" t="n">
-        <v>72.3</v>
+        <v>72.8</v>
       </c>
       <c r="D28" t="n">
-        <v>72.59999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="E28" t="n">
-        <v>72.3</v>
+        <v>72.8</v>
       </c>
       <c r="F28" t="n">
-        <v>7960</v>
+        <v>3332.6571</v>
       </c>
       <c r="G28" t="n">
-        <v>72.54000000000001</v>
+        <v>-5730.900699999976</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1399,7 +1525,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1413,19 +1543,19 @@
         <v>72.3</v>
       </c>
       <c r="C29" t="n">
-        <v>72</v>
+        <v>72.3</v>
       </c>
       <c r="D29" t="n">
         <v>72.3</v>
       </c>
       <c r="E29" t="n">
-        <v>72</v>
+        <v>72.3</v>
       </c>
       <c r="F29" t="n">
-        <v>18094</v>
+        <v>3800</v>
       </c>
       <c r="G29" t="n">
-        <v>72.52000000000001</v>
+        <v>-9530.900699999976</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1435,7 +1565,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1580,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>72.40000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C30" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="D30" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="E30" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="D30" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="E30" t="n">
-        <v>72.40000000000001</v>
-      </c>
       <c r="F30" t="n">
-        <v>20490</v>
+        <v>13219.4429</v>
       </c>
       <c r="G30" t="n">
-        <v>72.54000000000001</v>
+        <v>3688.542200000024</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1471,7 +1605,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1620,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>72.3</v>
+        <v>72.5</v>
       </c>
       <c r="C31" t="n">
-        <v>72.09999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="D31" t="n">
-        <v>72.40000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="E31" t="n">
-        <v>72.09999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="F31" t="n">
-        <v>15180</v>
+        <v>13243.3648</v>
       </c>
       <c r="G31" t="n">
-        <v>72.44000000000001</v>
+        <v>16931.90700000002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1507,7 +1645,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1660,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>72.2</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>71.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>72.2</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>71.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>24276.8719</v>
+        <v>71513.8743</v>
       </c>
       <c r="G32" t="n">
-        <v>72.16000000000001</v>
+        <v>88445.78130000002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1543,7 +1685,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1700,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>72.40000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>72.3</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>72.40000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>71.7</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>18636.9429</v>
+        <v>27285.9999</v>
       </c>
       <c r="G33" t="n">
-        <v>72.16000000000001</v>
+        <v>88445.78130000002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1579,7 +1725,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1740,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>72.3</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>72.5</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>72.5</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>72.3</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>1669.679</v>
+        <v>8519.8377</v>
       </c>
       <c r="G34" t="n">
-        <v>72.26000000000002</v>
+        <v>88445.78130000002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1615,7 +1765,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1780,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>72.7</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>73</v>
+        <v>72.3</v>
       </c>
       <c r="D35" t="n">
-        <v>73</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>72.7</v>
+        <v>72.3</v>
       </c>
       <c r="F35" t="n">
-        <v>50</v>
+        <v>7341.6639</v>
       </c>
       <c r="G35" t="n">
-        <v>72.34</v>
+        <v>81104.11740000002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1651,7 +1805,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1820,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>73.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>73.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>73.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>73.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>18149.4473</v>
+        <v>16137.225</v>
       </c>
       <c r="G36" t="n">
-        <v>72.68000000000002</v>
+        <v>64966.89240000002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1687,7 +1845,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1860,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>74.7</v>
+        <v>72.3</v>
       </c>
       <c r="C37" t="n">
-        <v>74.7</v>
+        <v>72.3</v>
       </c>
       <c r="D37" t="n">
-        <v>74.7</v>
+        <v>72.3</v>
       </c>
       <c r="E37" t="n">
-        <v>74.7</v>
+        <v>72.3</v>
       </c>
       <c r="F37" t="n">
-        <v>5480.8593</v>
+        <v>278.8889</v>
       </c>
       <c r="G37" t="n">
-        <v>73.26000000000002</v>
+        <v>65245.78130000002</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1723,7 +1885,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1900,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>73.7</v>
+        <v>72.8</v>
       </c>
       <c r="C38" t="n">
-        <v>72.09999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="D38" t="n">
-        <v>73.7</v>
+        <v>72.8</v>
       </c>
       <c r="E38" t="n">
-        <v>72.09999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="F38" t="n">
-        <v>23918.434</v>
+        <v>11186.1231</v>
       </c>
       <c r="G38" t="n">
-        <v>73.22000000000001</v>
+        <v>76431.90440000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1759,7 +1925,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1940,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>72.09999999999999</v>
+        <v>73</v>
       </c>
       <c r="C39" t="n">
-        <v>72.09999999999999</v>
+        <v>73</v>
       </c>
       <c r="D39" t="n">
-        <v>72.09999999999999</v>
+        <v>73</v>
       </c>
       <c r="E39" t="n">
-        <v>72.09999999999999</v>
+        <v>73</v>
       </c>
       <c r="F39" t="n">
-        <v>500</v>
+        <v>19552.9383</v>
       </c>
       <c r="G39" t="n">
-        <v>73.14000000000001</v>
+        <v>95984.84270000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1795,7 +1965,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +1980,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>72</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>71.90000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>72</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>71.90000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>3143.1314</v>
+        <v>550</v>
       </c>
       <c r="G40" t="n">
-        <v>72.92</v>
+        <v>95434.84270000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1831,7 +2005,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>71.7</v>
+        <v>73</v>
       </c>
       <c r="C41" t="n">
-        <v>71.7</v>
+        <v>73</v>
       </c>
       <c r="D41" t="n">
-        <v>71.7</v>
+        <v>73</v>
       </c>
       <c r="E41" t="n">
-        <v>71.7</v>
+        <v>73</v>
       </c>
       <c r="F41" t="n">
-        <v>11403</v>
+        <v>6940</v>
       </c>
       <c r="G41" t="n">
-        <v>72.5</v>
+        <v>102374.8427</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1867,7 +2045,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,22 +2060,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>72.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="C42" t="n">
-        <v>74.3</v>
+        <v>73</v>
       </c>
       <c r="D42" t="n">
-        <v>74.3</v>
+        <v>73</v>
       </c>
       <c r="E42" t="n">
-        <v>72.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="F42" t="n">
-        <v>10922.7431</v>
+        <v>25338</v>
       </c>
       <c r="G42" t="n">
-        <v>72.42</v>
+        <v>102374.8427</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1903,7 +2085,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,22 +2100,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>71.8</v>
+        <v>73</v>
       </c>
       <c r="C43" t="n">
-        <v>74.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="D43" t="n">
-        <v>74.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="E43" t="n">
-        <v>71.8</v>
+        <v>73</v>
       </c>
       <c r="F43" t="n">
-        <v>2165</v>
+        <v>36907.431</v>
       </c>
       <c r="G43" t="n">
-        <v>72.88</v>
+        <v>102374.8427</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1939,7 +2125,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2140,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>73.3</v>
+        <v>73</v>
       </c>
       <c r="C44" t="n">
-        <v>73.3</v>
+        <v>73</v>
       </c>
       <c r="D44" t="n">
-        <v>73.3</v>
+        <v>73</v>
       </c>
       <c r="E44" t="n">
-        <v>73.3</v>
+        <v>73</v>
       </c>
       <c r="F44" t="n">
-        <v>39.0892</v>
+        <v>36.5342</v>
       </c>
       <c r="G44" t="n">
-        <v>73.12</v>
+        <v>102374.8427</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1975,7 +2165,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2180,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>73.3</v>
+        <v>73</v>
       </c>
       <c r="C45" t="n">
-        <v>73.3</v>
+        <v>73</v>
       </c>
       <c r="D45" t="n">
-        <v>73.3</v>
+        <v>73</v>
       </c>
       <c r="E45" t="n">
-        <v>73.3</v>
+        <v>73</v>
       </c>
       <c r="F45" t="n">
-        <v>102.4727</v>
+        <v>2635</v>
       </c>
       <c r="G45" t="n">
-        <v>73.40000000000001</v>
+        <v>102374.8427</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2011,7 +2205,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +2220,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>72.5</v>
+        <v>73</v>
       </c>
       <c r="C46" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D46" t="n">
-        <v>72.5</v>
+        <v>73</v>
       </c>
       <c r="E46" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F46" t="n">
-        <v>2500</v>
+        <v>32937.9851</v>
       </c>
       <c r="G46" t="n">
-        <v>73.46000000000001</v>
+        <v>102374.8427</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2047,7 +2245,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2260,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>72.7</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>72.7</v>
+        <v>73</v>
       </c>
       <c r="D47" t="n">
-        <v>72.7</v>
+        <v>73</v>
       </c>
       <c r="E47" t="n">
-        <v>72.7</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>14140.4097</v>
       </c>
       <c r="G47" t="n">
-        <v>73.14</v>
+        <v>102374.8427</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2083,7 +2285,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,22 +2300,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>72.90000000000001</v>
+        <v>73</v>
       </c>
       <c r="C48" t="n">
         <v>72.90000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>72.90000000000001</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E48" t="n">
         <v>72.90000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>141.1818</v>
+        <v>1013.7174</v>
       </c>
       <c r="G48" t="n">
-        <v>72.84</v>
+        <v>101361.1253</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2119,7 +2325,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,22 +2340,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>72.8</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>72.8</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>72.8</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>72.8</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>655.5185</v>
+        <v>5828.9404</v>
       </c>
       <c r="G49" t="n">
-        <v>72.74000000000001</v>
+        <v>107190.0657</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2155,7 +2365,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2169,19 +2383,19 @@
         <v>73.09999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>72.09999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="D50" t="n">
         <v>73.09999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>72.09999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="F50" t="n">
-        <v>1510</v>
+        <v>10407.8461</v>
       </c>
       <c r="G50" t="n">
-        <v>72.50000000000001</v>
+        <v>96782.21960000003</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2191,7 +2405,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +2420,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>72.09999999999999</v>
+        <v>73</v>
       </c>
       <c r="C51" t="n">
-        <v>72.09999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>72.09999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>72.09999999999999</v>
+        <v>73</v>
       </c>
       <c r="F51" t="n">
-        <v>742.8952</v>
+        <v>2000</v>
       </c>
       <c r="G51" t="n">
-        <v>72.52000000000001</v>
+        <v>98782.21960000003</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2227,7 +2445,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,22 +2460,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>72.90000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>72.90000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>72.90000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>72.90000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>19.95</v>
       </c>
       <c r="G52" t="n">
-        <v>72.56</v>
+        <v>98762.26960000003</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2263,7 +2485,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,22 +2500,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>73.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>73.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>73.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>73.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>46356.1193</v>
       </c>
       <c r="G53" t="n">
-        <v>72.59999999999999</v>
+        <v>98762.26960000003</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2299,7 +2525,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,22 +2540,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>72.8</v>
+        <v>72.7</v>
       </c>
       <c r="C54" t="n">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>72.09999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="F54" t="n">
-        <v>11751.3595</v>
+        <v>9383.5888</v>
       </c>
       <c r="G54" t="n">
-        <v>72.64</v>
+        <v>108145.8584</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2335,7 +2565,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,22 +2580,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>72.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="C55" t="n">
-        <v>72.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="D55" t="n">
-        <v>72.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="E55" t="n">
-        <v>72.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="F55" t="n">
-        <v>4394.273</v>
+        <v>45406.6112</v>
       </c>
       <c r="G55" t="n">
-        <v>72.7</v>
+        <v>153552.4696</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2371,7 +2605,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2620,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>73.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="C56" t="n">
-        <v>72.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="D56" t="n">
-        <v>73.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="E56" t="n">
-        <v>72.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="F56" t="n">
-        <v>7789.2234</v>
+        <v>1520</v>
       </c>
       <c r="G56" t="n">
-        <v>72.75999999999999</v>
+        <v>153552.4696</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2407,7 +2645,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,22 +2660,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>73.3</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>73.3</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>73.3</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>73.3</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>12180</v>
       </c>
       <c r="G57" t="n">
-        <v>72.83999999999999</v>
+        <v>165732.4696</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2443,7 +2685,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2454,22 +2700,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>72.2</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>72.2</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>72.2</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>72.2</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>14833.3264</v>
+        <v>11733.4199</v>
       </c>
       <c r="G58" t="n">
-        <v>72.66</v>
+        <v>165732.4696</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2479,7 +2725,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,22 +2740,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>72.2</v>
+        <v>73</v>
       </c>
       <c r="C59" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D59" t="n">
-        <v>72.2</v>
+        <v>73</v>
       </c>
       <c r="E59" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F59" t="n">
-        <v>4477.1195</v>
+        <v>10569.8687</v>
       </c>
       <c r="G59" t="n">
-        <v>72.45999999999999</v>
+        <v>155162.6009</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2515,7 +2765,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,22 +2780,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C60" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D60" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E60" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F60" t="n">
-        <v>3315</v>
+        <v>50000.0017</v>
       </c>
       <c r="G60" t="n">
-        <v>72.38</v>
+        <v>155162.6009</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2551,7 +2805,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,22 +2820,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>72.59999999999999</v>
+        <v>73</v>
       </c>
       <c r="C61" t="n">
-        <v>72.59999999999999</v>
+        <v>73</v>
       </c>
       <c r="D61" t="n">
-        <v>72.59999999999999</v>
+        <v>73</v>
       </c>
       <c r="E61" t="n">
-        <v>72.59999999999999</v>
+        <v>73</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>9237</v>
       </c>
       <c r="G61" t="n">
-        <v>72.42</v>
+        <v>155162.6009</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2587,7 +2845,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2598,22 +2860,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>72.5</v>
+        <v>73</v>
       </c>
       <c r="C62" t="n">
-        <v>72.5</v>
+        <v>73</v>
       </c>
       <c r="D62" t="n">
-        <v>72.5</v>
+        <v>73</v>
       </c>
       <c r="E62" t="n">
-        <v>72.5</v>
+        <v>73</v>
       </c>
       <c r="F62" t="n">
-        <v>3301.9418</v>
+        <v>11850</v>
       </c>
       <c r="G62" t="n">
-        <v>72.26000000000001</v>
+        <v>155162.6009</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2623,7 +2885,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2634,22 +2900,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C63" t="n">
-        <v>71.3</v>
+        <v>73</v>
       </c>
       <c r="D63" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E63" t="n">
-        <v>71.3</v>
+        <v>73</v>
       </c>
       <c r="F63" t="n">
-        <v>500</v>
+        <v>5001.8608</v>
       </c>
       <c r="G63" t="n">
-        <v>72.08000000000001</v>
+        <v>155162.6009</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2659,7 +2925,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2673,19 +2943,19 @@
         <v>72.40000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="D64" t="n">
         <v>72.40000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="F64" t="n">
-        <v>10</v>
+        <v>7520</v>
       </c>
       <c r="G64" t="n">
-        <v>72.16000000000001</v>
+        <v>147642.6009</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2695,7 +2965,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2706,22 +2980,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>71.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="C65" t="n">
-        <v>71.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="D65" t="n">
-        <v>71.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="E65" t="n">
-        <v>71.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>7473.5707</v>
       </c>
       <c r="G65" t="n">
-        <v>72.04000000000001</v>
+        <v>140169.0302</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2731,7 +3005,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2742,22 +3020,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>72</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>72.09999999999999</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>72.09999999999999</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>72</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>1309.330910402219</v>
+        <v>30.9695</v>
       </c>
       <c r="G66" t="n">
-        <v>71.94000000000001</v>
+        <v>140138.0607</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2767,7 +3045,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +3060,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>71.2</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>70.59999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>71.2</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>70.59999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>42500</v>
+        <v>7070</v>
       </c>
       <c r="G67" t="n">
-        <v>71.56000000000002</v>
+        <v>147208.0607</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2803,7 +3085,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2814,22 +3100,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>72.2</v>
+        <v>72.7</v>
       </c>
       <c r="C68" t="n">
-        <v>72.2</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>72.2</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>72.2</v>
+        <v>72.7</v>
       </c>
       <c r="F68" t="n">
-        <v>984.4838999999999</v>
+        <v>40706.2121</v>
       </c>
       <c r="G68" t="n">
-        <v>71.74000000000001</v>
+        <v>187914.2728</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2839,7 +3125,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2850,22 +3140,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>72.2</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>72.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="D69" t="n">
-        <v>72.40000000000001</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>72.2</v>
+        <v>72.5</v>
       </c>
       <c r="F69" t="n">
-        <v>13459.452</v>
+        <v>80911.5793</v>
       </c>
       <c r="G69" t="n">
-        <v>71.74000000000001</v>
+        <v>268825.8521</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2875,7 +3165,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2886,22 +3180,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>72.59999999999999</v>
+        <v>73.7</v>
       </c>
       <c r="C70" t="n">
-        <v>72.59999999999999</v>
+        <v>74.3</v>
       </c>
       <c r="D70" t="n">
-        <v>72.59999999999999</v>
+        <v>74.3</v>
       </c>
       <c r="E70" t="n">
-        <v>72.59999999999999</v>
+        <v>73.7</v>
       </c>
       <c r="F70" t="n">
-        <v>9286.3619</v>
+        <v>29484.6251</v>
       </c>
       <c r="G70" t="n">
-        <v>71.98000000000002</v>
+        <v>298310.4772</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2911,7 +3205,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2922,22 +3220,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>72.2</v>
+        <v>74.3</v>
       </c>
       <c r="C71" t="n">
-        <v>72.2</v>
+        <v>74.3</v>
       </c>
       <c r="D71" t="n">
-        <v>72.2</v>
+        <v>74.3</v>
       </c>
       <c r="E71" t="n">
-        <v>72.2</v>
+        <v>74.3</v>
       </c>
       <c r="F71" t="n">
-        <v>9588.108899999999</v>
+        <v>14626.0996</v>
       </c>
       <c r="G71" t="n">
-        <v>72.00000000000003</v>
+        <v>298310.4772</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2947,7 +3245,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2958,22 +3260,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>72.2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>72.2</v>
+        <v>75</v>
       </c>
       <c r="D72" t="n">
-        <v>72.2</v>
+        <v>75</v>
       </c>
       <c r="E72" t="n">
-        <v>72.2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>18142.0136</v>
+        <v>177937.3334</v>
       </c>
       <c r="G72" t="n">
-        <v>72.32000000000002</v>
+        <v>476247.8106</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2983,7 +3285,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2994,35 +3300,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>72.7</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>71.7</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>72.7</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>71.7</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>10530.8615</v>
+        <v>2000</v>
       </c>
       <c r="G73" t="n">
-        <v>72.22000000000003</v>
+        <v>474247.8106</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -3030,28 +3338,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>73</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>73.2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>73.2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>73</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>3379.3164</v>
+        <v>486.1259</v>
       </c>
       <c r="G74" t="n">
-        <v>72.38000000000002</v>
+        <v>474247.8106</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3066,28 +3374,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>73.5</v>
+        <v>74.2</v>
       </c>
       <c r="C75" t="n">
-        <v>73.5</v>
+        <v>74.2</v>
       </c>
       <c r="D75" t="n">
-        <v>73.5</v>
+        <v>74.2</v>
       </c>
       <c r="E75" t="n">
-        <v>73.5</v>
+        <v>74.2</v>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>135.3632</v>
       </c>
       <c r="G75" t="n">
-        <v>72.56000000000002</v>
+        <v>474112.4474</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3114,16 +3422,16 @@
         <v>73.5</v>
       </c>
       <c r="F76" t="n">
-        <v>1390.4493</v>
+        <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>72.82000000000002</v>
+        <v>474102.4474</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3138,22 +3446,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>73.8</v>
+        <v>72.8</v>
       </c>
       <c r="C77" t="n">
-        <v>73.8</v>
+        <v>72.8</v>
       </c>
       <c r="D77" t="n">
-        <v>73.8</v>
+        <v>72.8</v>
       </c>
       <c r="E77" t="n">
-        <v>73.8</v>
+        <v>72.8</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>707.5601</v>
       </c>
       <c r="G77" t="n">
-        <v>73.14000000000001</v>
+        <v>473394.8873</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3177,19 +3485,19 @@
         <v>73.8</v>
       </c>
       <c r="C78" t="n">
-        <v>73.8</v>
+        <v>74.2</v>
       </c>
       <c r="D78" t="n">
-        <v>73.8</v>
+        <v>74.2</v>
       </c>
       <c r="E78" t="n">
         <v>73.8</v>
       </c>
       <c r="F78" t="n">
-        <v>4406.453</v>
+        <v>2000</v>
       </c>
       <c r="G78" t="n">
-        <v>73.56000000000003</v>
+        <v>475394.8873</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3518,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>73.7</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>73.90000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>73.90000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>73.7</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>399.025</v>
+        <v>31.15591397849462</v>
       </c>
       <c r="G79" t="n">
-        <v>73.70000000000003</v>
+        <v>475426.0432139785</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,28 +3554,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>73.7</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>73.7</v>
+        <v>74.5</v>
       </c>
       <c r="D80" t="n">
-        <v>73.7</v>
+        <v>74.5</v>
       </c>
       <c r="E80" t="n">
-        <v>73.7</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>9646</v>
+        <v>26918.7804</v>
       </c>
       <c r="G80" t="n">
-        <v>73.74000000000004</v>
+        <v>502344.8236139785</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3282,28 +3590,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>73.90000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="C81" t="n">
-        <v>74.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="D81" t="n">
-        <v>74.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="E81" t="n">
-        <v>73.90000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="F81" t="n">
-        <v>7535</v>
+        <v>49728.0751860215</v>
       </c>
       <c r="G81" t="n">
-        <v>73.86000000000004</v>
+        <v>552072.8988</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3318,28 +3626,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>74.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="C82" t="n">
-        <v>74.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="D82" t="n">
-        <v>74.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="E82" t="n">
-        <v>74</v>
+        <v>74.5</v>
       </c>
       <c r="F82" t="n">
-        <v>5047.6702</v>
+        <v>23794.4069</v>
       </c>
       <c r="G82" t="n">
-        <v>73.92000000000004</v>
+        <v>552072.8988</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3354,28 +3662,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>74.09999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="C83" t="n">
-        <v>74.40000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="D83" t="n">
-        <v>74.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="E83" t="n">
-        <v>74</v>
+        <v>74.7</v>
       </c>
       <c r="F83" t="n">
-        <v>6274.4386</v>
+        <v>29524.7999</v>
       </c>
       <c r="G83" t="n">
-        <v>74.04000000000005</v>
+        <v>522548.0989</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3390,28 +3698,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>74.40000000000001</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>74.40000000000001</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>74.40000000000001</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>74.40000000000001</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>98.33329999999999</v>
+        <v>132.2266</v>
       </c>
       <c r="G84" t="n">
-        <v>74.14000000000006</v>
+        <v>522415.8723</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3426,28 +3734,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>74</v>
+        <v>73.3</v>
       </c>
       <c r="C85" t="n">
-        <v>74</v>
+        <v>72.8</v>
       </c>
       <c r="D85" t="n">
-        <v>74</v>
+        <v>73.3</v>
       </c>
       <c r="E85" t="n">
-        <v>74</v>
+        <v>72.8</v>
       </c>
       <c r="F85" t="n">
-        <v>505</v>
+        <v>9770.501099999999</v>
       </c>
       <c r="G85" t="n">
-        <v>74.20000000000006</v>
+        <v>512645.3712</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3462,22 +3770,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>73.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>73.2</v>
+        <v>72</v>
       </c>
       <c r="D86" t="n">
-        <v>73.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>73.2</v>
+        <v>72</v>
       </c>
       <c r="F86" t="n">
-        <v>1909.5584</v>
+        <v>20000</v>
       </c>
       <c r="G86" t="n">
-        <v>74.02000000000005</v>
+        <v>492645.3712</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3806,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>73.09999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>73.09999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="D87" t="n">
-        <v>73.09999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="E87" t="n">
-        <v>73.09999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>880</v>
+        <v>6290</v>
       </c>
       <c r="G87" t="n">
-        <v>73.82000000000005</v>
+        <v>498935.3712</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3842,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>73.09999999999999</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>73.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="D88" t="n">
-        <v>73.09999999999999</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>73.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="F88" t="n">
-        <v>5000</v>
+        <v>45883.9189</v>
       </c>
       <c r="G88" t="n">
-        <v>73.56000000000006</v>
+        <v>453051.4523</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3878,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>73.8</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>73.8</v>
+        <v>72.3</v>
       </c>
       <c r="D89" t="n">
-        <v>73.8</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>73.8</v>
+        <v>72.3</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>18327</v>
       </c>
       <c r="G89" t="n">
-        <v>73.44000000000005</v>
+        <v>453051.4523</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3914,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>73.2</v>
+        <v>72.3</v>
       </c>
       <c r="C90" t="n">
-        <v>73.2</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>73.2</v>
+        <v>72.3</v>
       </c>
       <c r="E90" t="n">
-        <v>73.2</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>2008</v>
+        <v>90007.9945</v>
       </c>
       <c r="G90" t="n">
-        <v>73.28000000000006</v>
+        <v>363043.4578</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3950,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>73.3</v>
+        <v>72.5</v>
       </c>
       <c r="C91" t="n">
-        <v>73.3</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>73.3</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>73.3</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>10831.4137</v>
       </c>
       <c r="G91" t="n">
-        <v>73.30000000000005</v>
+        <v>373874.8715</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3986,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>72.8</v>
+        <v>73.5</v>
       </c>
       <c r="C92" t="n">
-        <v>72</v>
+        <v>72.7</v>
       </c>
       <c r="D92" t="n">
-        <v>72.8</v>
+        <v>73.5</v>
       </c>
       <c r="E92" t="n">
-        <v>72</v>
+        <v>72.7</v>
       </c>
       <c r="F92" t="n">
-        <v>87521.7257</v>
+        <v>41327.3333</v>
       </c>
       <c r="G92" t="n">
-        <v>73.08000000000007</v>
+        <v>332547.5382</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +4022,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>72.8</v>
+        <v>72.3</v>
       </c>
       <c r="C93" t="n">
-        <v>72.8</v>
+        <v>72.3</v>
       </c>
       <c r="D93" t="n">
-        <v>72.8</v>
+        <v>72.3</v>
       </c>
       <c r="E93" t="n">
-        <v>72.8</v>
+        <v>72.3</v>
       </c>
       <c r="F93" t="n">
-        <v>9979.6983</v>
+        <v>2355.9999</v>
       </c>
       <c r="G93" t="n">
-        <v>73.02000000000007</v>
+        <v>330191.5383</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +4058,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>73</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>73</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>73</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>72.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>11500</v>
+        <v>2613</v>
       </c>
       <c r="G94" t="n">
-        <v>72.86000000000007</v>
+        <v>327578.5383</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +4094,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>72.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>72.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>73</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>72.90000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>3823.8844</v>
+        <v>11441.4305</v>
       </c>
       <c r="G95" t="n">
-        <v>72.80000000000008</v>
+        <v>327578.5383</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +4130,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>73.3</v>
+        <v>72.5</v>
       </c>
       <c r="C96" t="n">
-        <v>73.40000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="D96" t="n">
-        <v>73.40000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="E96" t="n">
-        <v>73.3</v>
+        <v>72.5</v>
       </c>
       <c r="F96" t="n">
-        <v>12010</v>
+        <v>11830.5241</v>
       </c>
       <c r="G96" t="n">
-        <v>72.82000000000008</v>
+        <v>339409.0623999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +4166,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>73.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>73.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>73.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>73.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>1361.074829931973</v>
+        <v>260.002</v>
       </c>
       <c r="G97" t="n">
-        <v>73.12000000000009</v>
+        <v>339669.0643999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +4202,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>73.3</v>
+        <v>72.8</v>
       </c>
       <c r="C98" t="n">
-        <v>73.3</v>
+        <v>73.2</v>
       </c>
       <c r="D98" t="n">
-        <v>73.3</v>
+        <v>73.2</v>
       </c>
       <c r="E98" t="n">
-        <v>73.3</v>
+        <v>72.8</v>
       </c>
       <c r="F98" t="n">
-        <v>517</v>
+        <v>11267</v>
       </c>
       <c r="G98" t="n">
-        <v>73.22000000000008</v>
+        <v>350936.0643999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +4238,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>72.90000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>72.90000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="D99" t="n">
-        <v>72.90000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>72.90000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="F99" t="n">
-        <v>7207.6947</v>
+        <v>7960</v>
       </c>
       <c r="G99" t="n">
-        <v>73.20000000000009</v>
+        <v>342976.0643999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +4274,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>73.2</v>
+        <v>72.3</v>
       </c>
       <c r="C100" t="n">
-        <v>73.2</v>
+        <v>72</v>
       </c>
       <c r="D100" t="n">
-        <v>73.2</v>
+        <v>72.3</v>
       </c>
       <c r="E100" t="n">
-        <v>73.2</v>
+        <v>72</v>
       </c>
       <c r="F100" t="n">
-        <v>16.7213</v>
+        <v>18094</v>
       </c>
       <c r="G100" t="n">
-        <v>73.26000000000008</v>
+        <v>324882.0643999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4310,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>73.2</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>73.2</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>73.2</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>73.2</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>2280</v>
+        <v>20490</v>
       </c>
       <c r="G101" t="n">
-        <v>73.22000000000007</v>
+        <v>345372.0643999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4346,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>73.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="C102" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>73.09999999999999</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>73.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>14970</v>
+        <v>15180</v>
       </c>
       <c r="G102" t="n">
-        <v>73.14000000000007</v>
+        <v>330192.0643999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4382,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>73.09999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="C103" t="n">
-        <v>73.09999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="D103" t="n">
-        <v>73.09999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="E103" t="n">
-        <v>73.09999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="F103" t="n">
-        <v>12787</v>
+        <v>24276.8719</v>
       </c>
       <c r="G103" t="n">
-        <v>73.10000000000008</v>
+        <v>305915.1924999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4418,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>73.09999999999999</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>73.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="D104" t="n">
-        <v>73.09999999999999</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>73.09999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="F104" t="n">
-        <v>1367.989056087551</v>
+        <v>18636.9429</v>
       </c>
       <c r="G104" t="n">
-        <v>73.14000000000007</v>
+        <v>324552.1353999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,22 +4454,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>72.8</v>
+        <v>72.3</v>
       </c>
       <c r="C105" t="n">
-        <v>72.7</v>
+        <v>72.5</v>
       </c>
       <c r="D105" t="n">
-        <v>72.8</v>
+        <v>72.5</v>
       </c>
       <c r="E105" t="n">
-        <v>72.7</v>
+        <v>72.3</v>
       </c>
       <c r="F105" t="n">
-        <v>3043.9064</v>
+        <v>1669.679</v>
       </c>
       <c r="G105" t="n">
-        <v>73.04000000000008</v>
+        <v>326221.8143999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4185,19 +4493,19 @@
         <v>72.7</v>
       </c>
       <c r="C106" t="n">
-        <v>72.59999999999999</v>
+        <v>73</v>
       </c>
       <c r="D106" t="n">
+        <v>73</v>
+      </c>
+      <c r="E106" t="n">
         <v>72.7</v>
       </c>
-      <c r="E106" t="n">
-        <v>72.59999999999999</v>
-      </c>
       <c r="F106" t="n">
-        <v>2386.3394</v>
+        <v>50</v>
       </c>
       <c r="G106" t="n">
-        <v>72.92000000000009</v>
+        <v>326271.8143999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4218,28 +4526,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>72.59999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="C107" t="n">
-        <v>72.5</v>
+        <v>73.8</v>
       </c>
       <c r="D107" t="n">
-        <v>72.59999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="E107" t="n">
-        <v>72.5</v>
+        <v>73.8</v>
       </c>
       <c r="F107" t="n">
-        <v>750</v>
+        <v>18149.4473</v>
       </c>
       <c r="G107" t="n">
-        <v>72.8000000000001</v>
+        <v>344421.2616999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4254,28 +4562,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>72.5</v>
+        <v>74.7</v>
       </c>
       <c r="C108" t="n">
-        <v>72.09999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="D108" t="n">
-        <v>72.5</v>
+        <v>74.7</v>
       </c>
       <c r="E108" t="n">
-        <v>72.09999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="F108" t="n">
-        <v>8231.6952</v>
+        <v>5480.8593</v>
       </c>
       <c r="G108" t="n">
-        <v>72.60000000000009</v>
+        <v>349902.1209999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4290,28 +4598,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>72.5</v>
+        <v>73.7</v>
       </c>
       <c r="C109" t="n">
-        <v>72.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>72.5</v>
+        <v>73.7</v>
       </c>
       <c r="E109" t="n">
-        <v>72.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F109" t="n">
-        <v>14741.6588</v>
+        <v>23918.434</v>
       </c>
       <c r="G109" t="n">
-        <v>72.48000000000009</v>
+        <v>325983.6869999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4326,28 +4634,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>72.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>72.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>72.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>72.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>258.5723</v>
+        <v>500</v>
       </c>
       <c r="G110" t="n">
-        <v>72.44000000000008</v>
+        <v>325983.6869999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4362,22 +4670,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>72.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="C111" t="n">
-        <v>72.40000000000001</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>72.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="E111" t="n">
-        <v>72.40000000000001</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>4562.3</v>
+        <v>3143.1314</v>
       </c>
       <c r="G111" t="n">
-        <v>72.40000000000009</v>
+        <v>322840.5555999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4398,22 +4706,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>71.8</v>
+        <v>71.7</v>
       </c>
       <c r="C112" t="n">
-        <v>71.8</v>
+        <v>71.7</v>
       </c>
       <c r="D112" t="n">
-        <v>71.8</v>
+        <v>71.7</v>
       </c>
       <c r="E112" t="n">
-        <v>71.8</v>
+        <v>71.7</v>
       </c>
       <c r="F112" t="n">
-        <v>500</v>
+        <v>11403</v>
       </c>
       <c r="G112" t="n">
-        <v>72.26000000000009</v>
+        <v>311437.5555999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4434,22 +4742,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>72.09999999999999</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>72.2</v>
+        <v>74.3</v>
       </c>
       <c r="D113" t="n">
-        <v>72.2</v>
+        <v>74.3</v>
       </c>
       <c r="E113" t="n">
-        <v>72.09999999999999</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>11246.0797</v>
+        <v>10922.7431</v>
       </c>
       <c r="G113" t="n">
-        <v>72.28000000000009</v>
+        <v>322360.2986999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4470,22 +4778,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>72.2</v>
+        <v>71.8</v>
       </c>
       <c r="C114" t="n">
-        <v>72.2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>72.2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>72.2</v>
+        <v>71.8</v>
       </c>
       <c r="F114" t="n">
-        <v>6433.3665</v>
+        <v>2165</v>
       </c>
       <c r="G114" t="n">
-        <v>72.22000000000008</v>
+        <v>324525.2986999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4506,22 +4814,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>72.2</v>
+        <v>73.3</v>
       </c>
       <c r="C115" t="n">
-        <v>72.2</v>
+        <v>73.3</v>
       </c>
       <c r="D115" t="n">
-        <v>72.2</v>
+        <v>73.3</v>
       </c>
       <c r="E115" t="n">
-        <v>72.2</v>
+        <v>73.3</v>
       </c>
       <c r="F115" t="n">
-        <v>6816.8205</v>
+        <v>39.0892</v>
       </c>
       <c r="G115" t="n">
-        <v>72.16000000000008</v>
+        <v>324486.2094999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4542,28 +4850,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>71.59999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="C116" t="n">
-        <v>71.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="D116" t="n">
-        <v>71.59999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="E116" t="n">
-        <v>71.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="F116" t="n">
-        <v>952.936</v>
+        <v>102.4727</v>
       </c>
       <c r="G116" t="n">
-        <v>71.96000000000008</v>
+        <v>324486.2094999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4578,22 +4886,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="C117" t="n">
         <v>72</v>
       </c>
-      <c r="C117" t="n">
-        <v>72.2</v>
-      </c>
       <c r="D117" t="n">
-        <v>72.2</v>
+        <v>72.5</v>
       </c>
       <c r="E117" t="n">
         <v>72</v>
       </c>
       <c r="F117" t="n">
-        <v>60660.9701</v>
+        <v>2500</v>
       </c>
       <c r="G117" t="n">
-        <v>72.04000000000008</v>
+        <v>321986.2094999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4614,22 +4922,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>71.8</v>
+        <v>72.7</v>
       </c>
       <c r="C118" t="n">
-        <v>71.8</v>
+        <v>72.7</v>
       </c>
       <c r="D118" t="n">
-        <v>71.8</v>
+        <v>72.7</v>
       </c>
       <c r="E118" t="n">
-        <v>71.8</v>
+        <v>72.7</v>
       </c>
       <c r="F118" t="n">
-        <v>7410</v>
+        <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>71.96000000000008</v>
+        <v>321996.2094999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4650,22 +4958,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>71.40000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>71.40000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>71.40000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>71.40000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>2760.7981</v>
+        <v>141.1818</v>
       </c>
       <c r="G119" t="n">
-        <v>71.80000000000008</v>
+        <v>322137.3913</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4686,22 +4994,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>71.3</v>
+        <v>72.8</v>
       </c>
       <c r="C120" t="n">
-        <v>71.3</v>
+        <v>72.8</v>
       </c>
       <c r="D120" t="n">
-        <v>71.3</v>
+        <v>72.8</v>
       </c>
       <c r="E120" t="n">
-        <v>71.3</v>
+        <v>72.8</v>
       </c>
       <c r="F120" t="n">
-        <v>1147.8122</v>
+        <v>655.5185</v>
       </c>
       <c r="G120" t="n">
-        <v>71.62000000000009</v>
+        <v>321481.8728</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4722,22 +5030,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>71.40000000000001</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>71.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>71.5</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E121" t="n">
-        <v>71.40000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>6140</v>
+        <v>1510</v>
       </c>
       <c r="G121" t="n">
-        <v>71.64000000000007</v>
+        <v>319971.8728</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4758,22 +5066,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>71.3</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>71.3</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>71.3</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>71.3</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>618.4521999999999</v>
+        <v>742.8952</v>
       </c>
       <c r="G122" t="n">
-        <v>71.46000000000008</v>
+        <v>319971.8728</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4794,22 +5102,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>71.09999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>71.09999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>71.09999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>71.09999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>137.0938</v>
+        <v>10</v>
       </c>
       <c r="G123" t="n">
-        <v>71.32000000000008</v>
+        <v>319981.8728</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4830,22 +5138,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>71</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>71</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>71</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>71</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>6527.7183</v>
+        <v>10</v>
       </c>
       <c r="G124" t="n">
-        <v>71.24000000000008</v>
+        <v>319991.8728</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4866,22 +5174,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>71</v>
+        <v>72.8</v>
       </c>
       <c r="C125" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D125" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E125" t="n">
-        <v>71</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>35.4929</v>
+        <v>11751.3595</v>
       </c>
       <c r="G125" t="n">
-        <v>71.18000000000008</v>
+        <v>308240.5132999999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4902,22 +5210,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>70.59999999999999</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>70.59999999999999</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>70.59999999999999</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>70.59999999999999</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F126" t="n">
-        <v>1202.9999</v>
+        <v>4394.273</v>
       </c>
       <c r="G126" t="n">
-        <v>71.00000000000007</v>
+        <v>303846.2402999999</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4938,22 +5246,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>70.59999999999999</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>70.5</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>70.59999999999999</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>70.5</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F127" t="n">
-        <v>3658.8501</v>
+        <v>7789.2234</v>
       </c>
       <c r="G127" t="n">
-        <v>70.84000000000006</v>
+        <v>303846.2402999999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4974,22 +5282,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>70.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="C128" t="n">
-        <v>70.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="D128" t="n">
-        <v>70.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="E128" t="n">
-        <v>70.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="F128" t="n">
-        <v>20.2374</v>
+        <v>10</v>
       </c>
       <c r="G128" t="n">
-        <v>70.70000000000007</v>
+        <v>303856.2402999999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5010,22 +5318,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>70.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="C129" t="n">
-        <v>70.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="D129" t="n">
-        <v>70.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="E129" t="n">
-        <v>70.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="F129" t="n">
-        <v>2000.0008</v>
+        <v>14833.3264</v>
       </c>
       <c r="G129" t="n">
-        <v>70.62000000000008</v>
+        <v>289022.9138999999</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5046,22 +5354,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>70.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="C130" t="n">
-        <v>70.59999999999999</v>
+        <v>72</v>
       </c>
       <c r="D130" t="n">
-        <v>70.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="E130" t="n">
-        <v>70.59999999999999</v>
+        <v>72</v>
       </c>
       <c r="F130" t="n">
-        <v>11.3314</v>
+        <v>4477.1195</v>
       </c>
       <c r="G130" t="n">
-        <v>70.54000000000008</v>
+        <v>284545.7944</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5082,22 +5390,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>70.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="C131" t="n">
-        <v>70.3</v>
+        <v>72</v>
       </c>
       <c r="D131" t="n">
-        <v>70.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="E131" t="n">
-        <v>70.3</v>
+        <v>72</v>
       </c>
       <c r="F131" t="n">
-        <v>7974.2719</v>
+        <v>3315</v>
       </c>
       <c r="G131" t="n">
-        <v>70.48000000000009</v>
+        <v>284545.7944</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5118,22 +5426,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>70</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>70</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>70</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>70</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F132" t="n">
-        <v>16482.0291</v>
+        <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>70.38000000000008</v>
+        <v>284555.7944</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5154,22 +5462,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>70</v>
+        <v>72.5</v>
       </c>
       <c r="C133" t="n">
-        <v>70</v>
+        <v>72.5</v>
       </c>
       <c r="D133" t="n">
-        <v>70</v>
+        <v>72.5</v>
       </c>
       <c r="E133" t="n">
-        <v>70</v>
+        <v>72.5</v>
       </c>
       <c r="F133" t="n">
-        <v>14833.8262</v>
+        <v>3301.9418</v>
       </c>
       <c r="G133" t="n">
-        <v>70.3000000000001</v>
+        <v>281253.8526</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5190,35 +5498,31 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>70.2</v>
+        <v>72</v>
       </c>
       <c r="C134" t="n">
-        <v>70.2</v>
+        <v>71.3</v>
       </c>
       <c r="D134" t="n">
-        <v>70.2</v>
+        <v>72</v>
       </c>
       <c r="E134" t="n">
-        <v>70.2</v>
+        <v>71.3</v>
       </c>
       <c r="F134" t="n">
-        <v>11.1111</v>
+        <v>500</v>
       </c>
       <c r="G134" t="n">
-        <v>70.2200000000001</v>
+        <v>280753.8526</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>70</v>
-      </c>
-      <c r="K134" t="n">
-        <v>70</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
@@ -5230,40 +5534,32 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>70.2</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>70.2</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>70.2</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>70.2</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F135" t="n">
-        <v>1462.621</v>
+        <v>10</v>
       </c>
       <c r="G135" t="n">
-        <v>70.1400000000001</v>
+        <v>280763.8526</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="K135" t="n">
-        <v>70</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5274,40 +5570,32 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>69.90000000000001</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>69.90000000000001</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>69.90000000000001</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>69.90000000000001</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F136" t="n">
-        <v>41.2336</v>
+        <v>10</v>
       </c>
       <c r="G136" t="n">
-        <v>70.06000000000009</v>
+        <v>280753.8526</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="K136" t="n">
-        <v>70</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5318,35 +5606,31 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>70.59999999999999</v>
+        <v>72</v>
       </c>
       <c r="C137" t="n">
-        <v>70.59999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>70.59999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E137" t="n">
-        <v>70.59999999999999</v>
+        <v>72</v>
       </c>
       <c r="F137" t="n">
-        <v>4877.5068</v>
+        <v>1309.330910402219</v>
       </c>
       <c r="G137" t="n">
-        <v>70.18000000000009</v>
+        <v>282063.1835104022</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K137" t="n">
-        <v>69.90000000000001</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
@@ -5358,40 +5642,32 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>70.8</v>
+        <v>71.2</v>
       </c>
       <c r="C138" t="n">
-        <v>70.8</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>70.8</v>
+        <v>71.2</v>
       </c>
       <c r="E138" t="n">
-        <v>70.8</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="F138" t="n">
-        <v>7511.4865</v>
+        <v>42500</v>
       </c>
       <c r="G138" t="n">
-        <v>70.34000000000009</v>
+        <v>239563.1835104022</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="K138" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5402,40 +5678,32 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>70.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="C139" t="n">
-        <v>70.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="D139" t="n">
-        <v>70.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="E139" t="n">
-        <v>70.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="F139" t="n">
-        <v>138.7025</v>
+        <v>984.4838999999999</v>
       </c>
       <c r="G139" t="n">
-        <v>70.38000000000009</v>
+        <v>240547.6674104022</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>70.8</v>
-      </c>
-      <c r="K139" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5446,35 +5714,31 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>70.2</v>
+        <v>72.2</v>
       </c>
       <c r="C140" t="n">
-        <v>70.2</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>70.2</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E140" t="n">
-        <v>70.2</v>
+        <v>72.2</v>
       </c>
       <c r="F140" t="n">
-        <v>1109.3549</v>
+        <v>13459.452</v>
       </c>
       <c r="G140" t="n">
-        <v>70.38000000000009</v>
+        <v>254007.1194104022</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="K140" t="n">
-        <v>70.40000000000001</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
@@ -5486,40 +5750,32 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>70.3</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C141" t="n">
-        <v>70.3</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>70.3</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E141" t="n">
-        <v>70.3</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="F141" t="n">
-        <v>8130</v>
+        <v>9286.3619</v>
       </c>
       <c r="G141" t="n">
-        <v>70.46000000000011</v>
+        <v>263293.4813104022</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="K141" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5530,40 +5786,32 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>70.3</v>
+        <v>72.2</v>
       </c>
       <c r="C142" t="n">
-        <v>70.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="D142" t="n">
-        <v>70.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="E142" t="n">
-        <v>70.3</v>
+        <v>72.2</v>
       </c>
       <c r="F142" t="n">
-        <v>5717</v>
+        <v>9588.108899999999</v>
       </c>
       <c r="G142" t="n">
-        <v>70.4200000000001</v>
+        <v>253705.3724104022</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="K142" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5574,40 +5822,32 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>70.8</v>
+        <v>72.2</v>
       </c>
       <c r="C143" t="n">
-        <v>71.2</v>
+        <v>72.2</v>
       </c>
       <c r="D143" t="n">
-        <v>71.2</v>
+        <v>72.2</v>
       </c>
       <c r="E143" t="n">
-        <v>70.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="F143" t="n">
-        <v>9358.6968</v>
+        <v>18142.0136</v>
       </c>
       <c r="G143" t="n">
-        <v>70.50000000000009</v>
+        <v>253705.3724104022</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="K143" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5618,40 +5858,32 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>71.2</v>
+        <v>72.7</v>
       </c>
       <c r="C144" t="n">
-        <v>70.59999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="D144" t="n">
-        <v>71.2</v>
+        <v>72.7</v>
       </c>
       <c r="E144" t="n">
-        <v>70.59999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="F144" t="n">
-        <v>7243.893</v>
+        <v>10530.8615</v>
       </c>
       <c r="G144" t="n">
-        <v>70.54000000000011</v>
+        <v>243174.5109104022</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="K144" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5662,40 +5894,32 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>71.3</v>
+        <v>73</v>
       </c>
       <c r="C145" t="n">
-        <v>71.3</v>
+        <v>73.2</v>
       </c>
       <c r="D145" t="n">
-        <v>71.3</v>
+        <v>73.2</v>
       </c>
       <c r="E145" t="n">
-        <v>71.3</v>
+        <v>73</v>
       </c>
       <c r="F145" t="n">
-        <v>249.4788</v>
+        <v>3379.3164</v>
       </c>
       <c r="G145" t="n">
-        <v>70.7600000000001</v>
+        <v>246553.8273104022</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="K145" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5706,22 +5930,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>71.2</v>
+        <v>73.5</v>
       </c>
       <c r="C146" t="n">
-        <v>71.59999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="D146" t="n">
-        <v>71.59999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="E146" t="n">
-        <v>71.2</v>
+        <v>73.5</v>
       </c>
       <c r="F146" t="n">
-        <v>9439.3842</v>
+        <v>10</v>
       </c>
       <c r="G146" t="n">
-        <v>71.02000000000011</v>
+        <v>246563.8273104022</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5730,14 +5954,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5748,42 +5966,2592 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="D147" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1390.4493</v>
+      </c>
+      <c r="G147" t="n">
+        <v>246563.8273104022</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="C148" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="D148" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="E148" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="F148" t="n">
+        <v>10</v>
+      </c>
+      <c r="G148" t="n">
+        <v>246573.8273104022</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="C149" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="D149" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="E149" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="F149" t="n">
+        <v>4406.453</v>
+      </c>
+      <c r="G149" t="n">
+        <v>246573.8273104022</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="C150" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="D150" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="E150" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="F150" t="n">
+        <v>399.025</v>
+      </c>
+      <c r="G150" t="n">
+        <v>246972.8523104022</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="C151" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="D151" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="E151" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="F151" t="n">
+        <v>9646</v>
+      </c>
+      <c r="G151" t="n">
+        <v>237326.8523104022</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="C152" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="D152" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="E152" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="F152" t="n">
+        <v>7535</v>
+      </c>
+      <c r="G152" t="n">
+        <v>244861.8523104022</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="C153" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="D153" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="E153" t="n">
+        <v>74</v>
+      </c>
+      <c r="F153" t="n">
+        <v>5047.6702</v>
+      </c>
+      <c r="G153" t="n">
+        <v>244861.8523104022</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="C154" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="D154" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="E154" t="n">
+        <v>74</v>
+      </c>
+      <c r="F154" t="n">
+        <v>6274.4386</v>
+      </c>
+      <c r="G154" t="n">
+        <v>251136.2909104022</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="C155" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="D155" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="E155" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="F155" t="n">
+        <v>98.33329999999999</v>
+      </c>
+      <c r="G155" t="n">
+        <v>251136.2909104022</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>74</v>
+      </c>
+      <c r="C156" t="n">
+        <v>74</v>
+      </c>
+      <c r="D156" t="n">
+        <v>74</v>
+      </c>
+      <c r="E156" t="n">
+        <v>74</v>
+      </c>
+      <c r="F156" t="n">
+        <v>505</v>
+      </c>
+      <c r="G156" t="n">
+        <v>250631.2909104022</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="C157" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="D157" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="E157" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1909.5584</v>
+      </c>
+      <c r="G157" t="n">
+        <v>248721.7325104022</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="C158" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="D158" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="E158" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="F158" t="n">
+        <v>880</v>
+      </c>
+      <c r="G158" t="n">
+        <v>247841.7325104022</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="C159" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="D159" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="E159" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G159" t="n">
+        <v>247841.7325104022</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="C160" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="D160" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="E160" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="F160" t="n">
+        <v>10</v>
+      </c>
+      <c r="G160" t="n">
+        <v>247851.7325104022</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="C161" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="D161" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="E161" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2008</v>
+      </c>
+      <c r="G161" t="n">
+        <v>245843.7325104022</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="C162" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="D162" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="E162" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F162" t="n">
+        <v>10</v>
+      </c>
+      <c r="G162" t="n">
+        <v>245853.7325104022</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="C163" t="n">
+        <v>72</v>
+      </c>
+      <c r="D163" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="E163" t="n">
+        <v>72</v>
+      </c>
+      <c r="F163" t="n">
+        <v>87521.7257</v>
+      </c>
+      <c r="G163" t="n">
+        <v>158332.0068104022</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="C164" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="D164" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="E164" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="F164" t="n">
+        <v>9979.6983</v>
+      </c>
+      <c r="G164" t="n">
+        <v>168311.7051104022</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>73</v>
+      </c>
+      <c r="C165" t="n">
+        <v>73</v>
+      </c>
+      <c r="D165" t="n">
+        <v>73</v>
+      </c>
+      <c r="E165" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="F165" t="n">
+        <v>11500</v>
+      </c>
+      <c r="G165" t="n">
+        <v>179811.7051104022</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="C166" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="D166" t="n">
+        <v>73</v>
+      </c>
+      <c r="E166" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3823.8844</v>
+      </c>
+      <c r="G166" t="n">
+        <v>175987.8207104022</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="C167" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="D167" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="E167" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F167" t="n">
+        <v>12010</v>
+      </c>
+      <c r="G167" t="n">
+        <v>187997.8207104022</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="C168" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="D168" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="E168" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1361.074829931973</v>
+      </c>
+      <c r="G168" t="n">
+        <v>189358.8955403342</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="C169" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="D169" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="E169" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F169" t="n">
+        <v>517</v>
+      </c>
+      <c r="G169" t="n">
+        <v>188841.8955403342</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="C170" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="D170" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="E170" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="F170" t="n">
+        <v>7207.6947</v>
+      </c>
+      <c r="G170" t="n">
+        <v>181634.2008403342</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="C171" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="D171" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="E171" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="F171" t="n">
+        <v>16.7213</v>
+      </c>
+      <c r="G171" t="n">
+        <v>181650.9221403342</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="C172" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="D172" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="E172" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2280</v>
+      </c>
+      <c r="G172" t="n">
+        <v>181650.9221403342</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="C173" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="D173" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="E173" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="F173" t="n">
+        <v>14970</v>
+      </c>
+      <c r="G173" t="n">
+        <v>166680.9221403342</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="C174" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="D174" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="E174" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="F174" t="n">
+        <v>12787</v>
+      </c>
+      <c r="G174" t="n">
+        <v>166680.9221403342</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="C175" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="D175" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="E175" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1367.989056087551</v>
+      </c>
+      <c r="G175" t="n">
+        <v>166680.9221403342</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="C176" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="D176" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="E176" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="F176" t="n">
+        <v>3043.9064</v>
+      </c>
+      <c r="G176" t="n">
+        <v>163637.0157403342</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="C177" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="D177" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="E177" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2386.3394</v>
+      </c>
+      <c r="G177" t="n">
+        <v>161250.6763403342</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="C178" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="D178" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="E178" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="F178" t="n">
+        <v>750</v>
+      </c>
+      <c r="G178" t="n">
+        <v>160500.6763403342</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="C179" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="D179" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="E179" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="F179" t="n">
+        <v>8231.6952</v>
+      </c>
+      <c r="G179" t="n">
+        <v>152268.9811403342</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="C180" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="D180" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="E180" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="F180" t="n">
+        <v>14741.6588</v>
+      </c>
+      <c r="G180" t="n">
+        <v>167010.6399403342</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="C181" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="D181" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="E181" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="F181" t="n">
+        <v>258.5723</v>
+      </c>
+      <c r="G181" t="n">
+        <v>167010.6399403342</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="D182" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="E182" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="F182" t="n">
+        <v>4562.3</v>
+      </c>
+      <c r="G182" t="n">
+        <v>162448.3399403342</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="C183" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="D183" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="E183" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="F183" t="n">
+        <v>500</v>
+      </c>
+      <c r="G183" t="n">
+        <v>161948.3399403342</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="C184" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="D184" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="E184" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="F184" t="n">
+        <v>11246.0797</v>
+      </c>
+      <c r="G184" t="n">
+        <v>173194.4196403342</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="D185" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="E185" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="F185" t="n">
+        <v>6433.3665</v>
+      </c>
+      <c r="G185" t="n">
+        <v>173194.4196403342</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="C186" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="D186" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="E186" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="F186" t="n">
+        <v>6816.8205</v>
+      </c>
+      <c r="G186" t="n">
+        <v>173194.4196403342</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="C187" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="D187" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="E187" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="F187" t="n">
+        <v>952.936</v>
+      </c>
+      <c r="G187" t="n">
+        <v>172241.4836403342</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>72</v>
+      </c>
+      <c r="C188" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="D188" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="E188" t="n">
+        <v>72</v>
+      </c>
+      <c r="F188" t="n">
+        <v>60660.9701</v>
+      </c>
+      <c r="G188" t="n">
+        <v>232902.4537403342</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="C189" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="D189" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="E189" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="F189" t="n">
+        <v>7410</v>
+      </c>
+      <c r="G189" t="n">
+        <v>225492.4537403342</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="D190" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="E190" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2760.7981</v>
+      </c>
+      <c r="G190" t="n">
+        <v>222731.6556403342</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="C191" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="D191" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="E191" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1147.8122</v>
+      </c>
+      <c r="G191" t="n">
+        <v>221583.8434403343</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="C192" t="n">
         <v>71.5</v>
       </c>
-      <c r="C147" t="n">
+      <c r="D192" t="n">
         <v>71.5</v>
       </c>
-      <c r="D147" t="n">
+      <c r="E192" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="F192" t="n">
+        <v>6140</v>
+      </c>
+      <c r="G192" t="n">
+        <v>227723.8434403343</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="C193" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="D193" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="E193" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="F193" t="n">
+        <v>618.4521999999999</v>
+      </c>
+      <c r="G193" t="n">
+        <v>227105.3912403343</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="C194" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="D194" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="E194" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="F194" t="n">
+        <v>137.0938</v>
+      </c>
+      <c r="G194" t="n">
+        <v>226968.2974403343</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>71</v>
+      </c>
+      <c r="C195" t="n">
+        <v>71</v>
+      </c>
+      <c r="D195" t="n">
+        <v>71</v>
+      </c>
+      <c r="E195" t="n">
+        <v>71</v>
+      </c>
+      <c r="F195" t="n">
+        <v>6527.7183</v>
+      </c>
+      <c r="G195" t="n">
+        <v>220440.5791403342</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>71</v>
+      </c>
+      <c r="C196" t="n">
+        <v>71</v>
+      </c>
+      <c r="D196" t="n">
+        <v>71</v>
+      </c>
+      <c r="E196" t="n">
+        <v>71</v>
+      </c>
+      <c r="F196" t="n">
+        <v>35.4929</v>
+      </c>
+      <c r="G196" t="n">
+        <v>220440.5791403342</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="C197" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="D197" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="E197" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1202.9999</v>
+      </c>
+      <c r="G197" t="n">
+        <v>219237.5792403342</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="C198" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="D198" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="E198" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="F198" t="n">
+        <v>3658.8501</v>
+      </c>
+      <c r="G198" t="n">
+        <v>215578.7291403342</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="C199" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="D199" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="E199" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="F199" t="n">
+        <v>20.2374</v>
+      </c>
+      <c r="G199" t="n">
+        <v>215558.4917403342</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="C200" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="D200" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="E200" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2000.0008</v>
+      </c>
+      <c r="G200" t="n">
+        <v>217558.4925403342</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="C201" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="D201" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="E201" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="F201" t="n">
+        <v>11.3314</v>
+      </c>
+      <c r="G201" t="n">
+        <v>217558.4925403342</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="C202" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="D202" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="E202" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="F202" t="n">
+        <v>7974.2719</v>
+      </c>
+      <c r="G202" t="n">
+        <v>209584.2206403342</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>70</v>
+      </c>
+      <c r="C203" t="n">
+        <v>70</v>
+      </c>
+      <c r="D203" t="n">
+        <v>70</v>
+      </c>
+      <c r="E203" t="n">
+        <v>70</v>
+      </c>
+      <c r="F203" t="n">
+        <v>16482.0291</v>
+      </c>
+      <c r="G203" t="n">
+        <v>193102.1915403343</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>70</v>
+      </c>
+      <c r="C204" t="n">
+        <v>70</v>
+      </c>
+      <c r="D204" t="n">
+        <v>70</v>
+      </c>
+      <c r="E204" t="n">
+        <v>70</v>
+      </c>
+      <c r="F204" t="n">
+        <v>14833.8262</v>
+      </c>
+      <c r="G204" t="n">
+        <v>193102.1915403343</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="C205" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="D205" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="E205" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="F205" t="n">
+        <v>11.1111</v>
+      </c>
+      <c r="G205" t="n">
+        <v>193113.3026403343</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="C206" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="D206" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="E206" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1462.621</v>
+      </c>
+      <c r="G206" t="n">
+        <v>193113.3026403343</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="C207" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="D207" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="E207" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="F207" t="n">
+        <v>41.2336</v>
+      </c>
+      <c r="G207" t="n">
+        <v>193072.0690403343</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="C208" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="D208" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="E208" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="F208" t="n">
+        <v>4877.5068</v>
+      </c>
+      <c r="G208" t="n">
+        <v>197949.5758403343</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="C209" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="D209" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="E209" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="F209" t="n">
+        <v>7511.4865</v>
+      </c>
+      <c r="G209" t="n">
+        <v>205461.0623403343</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="C210" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="D210" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="E210" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="F210" t="n">
+        <v>138.7025</v>
+      </c>
+      <c r="G210" t="n">
+        <v>205322.3598403342</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="C211" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="D211" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="E211" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1109.3549</v>
+      </c>
+      <c r="G211" t="n">
+        <v>204213.0049403342</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="C212" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="D212" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="E212" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="F212" t="n">
+        <v>8130</v>
+      </c>
+      <c r="G212" t="n">
+        <v>212343.0049403342</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="C213" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="D213" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="E213" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="F213" t="n">
+        <v>5717</v>
+      </c>
+      <c r="G213" t="n">
+        <v>218060.0049403342</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="C214" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="D214" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="E214" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="F214" t="n">
+        <v>9358.6968</v>
+      </c>
+      <c r="G214" t="n">
+        <v>227418.7017403342</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="C215" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="D215" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="E215" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="F215" t="n">
+        <v>7243.893</v>
+      </c>
+      <c r="G215" t="n">
+        <v>220174.8087403342</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="C216" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="D216" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="E216" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="F216" t="n">
+        <v>249.4788</v>
+      </c>
+      <c r="G216" t="n">
+        <v>220424.2875403342</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="C217" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="D217" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="E217" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="F217" t="n">
+        <v>9439.3842</v>
+      </c>
+      <c r="G217" t="n">
+        <v>229863.6717403342</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
         <v>71.5</v>
       </c>
-      <c r="E147" t="n">
+      <c r="C218" t="n">
         <v>71.5</v>
       </c>
-      <c r="F147" t="n">
+      <c r="D218" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="E218" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="F218" t="n">
         <v>500</v>
       </c>
-      <c r="G147" t="n">
-        <v>71.24000000000009</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="G218" t="n">
+        <v>229363.6717403342</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-26 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N218"/>
+  <dimension ref="A1:M218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-17978.20659999998</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>-23962.20659999998</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>71</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,19 @@
         <v>-23962.20659999998</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>70.90000000000001</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +560,21 @@
         <v>-23962.20659999998</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>70.90000000000001</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +599,21 @@
         <v>-21962.20659999998</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>70.90000000000001</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +638,21 @@
         <v>-14694.80659999998</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,24 +677,21 @@
         <v>-26684.80659999997</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
         <v>71.2</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,24 +716,21 @@
         <v>-26684.80659999997</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
         <v>70.90000000000001</v>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,24 +755,21 @@
         <v>-21684.80659999997</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
         <v>70.90000000000001</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -828,24 +794,21 @@
         <v>-19578.06509999997</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
         <v>71</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -870,24 +833,19 @@
         <v>-18483.06509999997</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -912,24 +870,19 @@
         <v>-14417.75659999998</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -954,24 +907,21 @@
         <v>-14473.85749999997</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -996,24 +946,19 @@
         <v>-14463.85749999997</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1040,20 +985,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1080,20 +1022,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1120,20 +1059,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1160,20 +1096,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1200,20 +1133,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1240,20 +1170,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1280,20 +1207,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1320,20 +1244,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1360,20 +1281,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1400,20 +1318,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1440,20 +1355,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1480,20 +1392,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1520,20 +1429,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1558,22 +1464,17 @@
         <v>-9530.900699999976</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1598,22 +1499,15 @@
         <v>3688.542200000024</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1640,20 +1534,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1678,22 +1565,15 @@
         <v>88445.78130000002</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1720,20 +1600,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1758,22 +1631,15 @@
         <v>88445.78130000002</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1800,20 +1666,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1838,22 +1697,15 @@
         <v>64966.89240000002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1880,20 +1732,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1920,20 +1765,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1960,20 +1798,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2000,20 +1831,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2040,20 +1864,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2078,22 +1895,15 @@
         <v>102374.8427</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2120,20 +1930,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2160,20 +1963,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2200,20 +1996,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2240,20 +2029,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2280,20 +2062,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2320,20 +2095,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2360,20 +2128,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2400,20 +2161,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2440,20 +2194,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2480,20 +2227,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2520,20 +2260,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2560,20 +2293,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2600,20 +2326,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2640,20 +2359,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2680,20 +2392,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2720,20 +2425,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2760,20 +2458,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2800,20 +2491,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2840,20 +2524,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2880,20 +2557,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2920,20 +2590,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2960,20 +2623,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3000,20 +2656,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3040,20 +2689,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3080,20 +2722,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3120,20 +2755,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3160,20 +2788,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3200,20 +2821,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3240,20 +2854,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3280,20 +2887,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3320,18 +2920,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L73" t="n">
+        <v>1</v>
       </c>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3358,16 +2953,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3394,16 +2986,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3430,16 +3019,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3466,16 +3052,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3502,16 +3085,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3538,16 +3118,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3574,16 +3151,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3610,16 +3184,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3646,16 +3217,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3682,16 +3250,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3718,16 +3283,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3754,16 +3316,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3790,16 +3349,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3826,16 +3382,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3862,16 +3415,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3898,16 +3448,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3934,16 +3481,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3970,16 +3514,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4006,16 +3547,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4042,16 +3580,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4078,16 +3613,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4114,16 +3646,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4150,16 +3679,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4186,16 +3712,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4222,16 +3745,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4258,16 +3778,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4294,16 +3811,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4330,16 +3844,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4366,16 +3877,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4402,16 +3910,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4438,16 +3943,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4474,16 +3976,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4508,18 +4007,15 @@
         <v>326271.8143999999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4546,16 +4042,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4582,16 +4075,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4616,18 +4106,15 @@
         <v>325983.6869999999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4652,18 +4139,15 @@
         <v>325983.6869999999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4688,18 +4172,15 @@
         <v>322840.5555999999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4724,18 +4205,15 @@
         <v>311437.5555999999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4762,16 +4240,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4796,18 +4271,15 @@
         <v>324525.2986999999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4834,16 +4306,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4870,16 +4339,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4906,16 +4372,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4942,16 +4405,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4978,16 +4438,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5014,16 +4471,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5050,16 +4504,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5086,16 +4537,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5122,16 +4570,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5158,16 +4603,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5194,16 +4636,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5230,16 +4669,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5266,16 +4702,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5302,16 +4735,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5338,16 +4768,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5374,16 +4801,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5410,16 +4834,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5446,16 +4867,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5482,16 +4900,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5518,16 +4933,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5554,16 +4966,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5590,16 +4999,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5626,16 +5032,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5662,16 +5065,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5698,16 +5098,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5734,16 +5131,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5770,16 +5164,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5806,16 +5197,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5842,16 +5230,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5878,16 +5263,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5914,16 +5296,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5950,16 +5329,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5986,16 +5362,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6022,16 +5395,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6058,16 +5428,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6094,16 +5461,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6130,16 +5494,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6166,16 +5527,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6200,18 +5558,15 @@
         <v>244861.8523104022</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6236,18 +5591,15 @@
         <v>251136.2909104022</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6272,18 +5624,15 @@
         <v>251136.2909104022</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6308,18 +5657,15 @@
         <v>250631.2909104022</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6344,18 +5690,15 @@
         <v>248721.7325104022</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6380,18 +5723,15 @@
         <v>247841.7325104022</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6418,16 +5758,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6454,16 +5791,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6490,16 +5824,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6526,16 +5857,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6562,16 +5890,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6598,16 +5923,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6634,16 +5956,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6670,16 +5989,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6706,16 +6022,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6742,16 +6055,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6778,16 +6088,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6814,16 +6121,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6850,16 +6154,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6886,16 +6187,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6922,16 +6220,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6958,16 +6253,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6994,16 +6286,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7030,16 +6319,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7066,16 +6352,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7102,16 +6385,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7138,16 +6418,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7174,16 +6451,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7210,16 +6484,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7246,16 +6517,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7282,16 +6550,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7318,16 +6583,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7354,16 +6616,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7390,16 +6649,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7426,16 +6682,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7462,16 +6715,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7498,16 +6748,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7534,16 +6781,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7570,16 +6814,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7606,16 +6847,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7642,16 +6880,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7678,16 +6913,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7714,16 +6946,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7750,16 +6979,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7786,16 +7012,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7822,16 +7045,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7858,16 +7078,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7894,16 +7111,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7930,16 +7144,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7966,16 +7177,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8002,16 +7210,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8038,16 +7243,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8074,16 +7276,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8110,16 +7309,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8146,16 +7342,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8182,16 +7375,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8218,16 +7408,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8254,16 +7441,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8290,16 +7474,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8326,16 +7507,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8362,16 +7540,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8398,16 +7573,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8434,16 +7606,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8470,16 +7639,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8506,16 +7672,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8542,18 +7705,15 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-26 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-23962.20659999998</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>71</v>
@@ -523,9 +523,11 @@
         <v>-23962.20659999998</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>70.90000000000001</v>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
@@ -560,7 +562,7 @@
         <v>-23962.20659999998</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>70.90000000000001</v>
@@ -599,7 +601,7 @@
         <v>-21962.20659999998</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>70.90000000000001</v>
@@ -638,7 +640,7 @@
         <v>-14694.80659999998</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>71.09999999999999</v>
@@ -677,7 +679,7 @@
         <v>-26684.80659999997</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>71.2</v>
@@ -716,7 +718,7 @@
         <v>-26684.80659999997</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>70.90000000000001</v>
@@ -755,7 +757,7 @@
         <v>-21684.80659999997</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>70.90000000000001</v>
@@ -794,7 +796,7 @@
         <v>-19578.06509999997</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>71</v>
@@ -833,9 +835,11 @@
         <v>-18483.06509999997</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>71.2</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -870,9 +874,11 @@
         <v>-14417.75659999998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>71.3</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -907,7 +913,7 @@
         <v>-14473.85749999997</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>71.40000000000001</v>
@@ -946,9 +952,11 @@
         <v>-14463.85749999997</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>71.3</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -983,9 +991,11 @@
         <v>-18993.85749999998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>72.09999999999999</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1020,9 +1030,11 @@
         <v>-15793.85749999998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>72</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1057,9 +1069,11 @@
         <v>-18614.91039999998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1464,16 +1478,20 @@
         <v>-9530.900699999976</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>72.8</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
       <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1499,11 +1517,17 @@
         <v>3688.542200000024</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>72.3</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1532,11 +1556,17 @@
         <v>16931.90700000002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>72.7</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1565,11 +1595,17 @@
         <v>88445.78130000002</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>72.8</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1598,11 +1634,17 @@
         <v>88445.78130000002</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>72.90000000000001</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1631,11 +1673,15 @@
         <v>88445.78130000002</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1668,7 +1714,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1697,11 +1747,15 @@
         <v>64966.89240000002</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1734,7 +1788,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1767,7 +1825,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1800,7 +1862,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1833,7 +1899,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1866,7 +1936,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1895,11 +1969,15 @@
         <v>102374.8427</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1932,7 +2010,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1965,7 +2047,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1998,7 +2084,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2031,7 +2121,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2064,7 +2158,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2097,7 +2195,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2130,7 +2232,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2163,7 +2269,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2196,7 +2306,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2229,7 +2343,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2262,7 +2380,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2295,7 +2417,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2328,7 +2454,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2361,7 +2491,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2394,7 +2528,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2427,7 +2565,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2460,7 +2602,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2493,7 +2639,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2526,7 +2676,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2559,7 +2713,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2592,7 +2750,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2625,7 +2787,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2658,7 +2824,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2691,7 +2861,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2724,7 +2898,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2757,7 +2935,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2790,7 +2972,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2823,7 +3009,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2856,7 +3046,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2889,7 +3083,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2922,7 +3120,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2955,7 +3157,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2988,7 +3194,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3021,7 +3231,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3054,7 +3268,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3087,7 +3305,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3116,14 +3338,16 @@
         <v>475426.0432139785</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
@@ -3149,7 +3373,7 @@
         <v>502344.8236139785</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3182,7 +3406,7 @@
         <v>552072.8988</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3215,7 +3439,7 @@
         <v>552072.8988</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3248,7 +3472,7 @@
         <v>522548.0989</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3281,7 +3505,7 @@
         <v>522415.8723</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3314,7 +3538,7 @@
         <v>512645.3712</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3347,7 +3571,7 @@
         <v>492645.3712</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3380,7 +3604,7 @@
         <v>498935.3712</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3413,7 +3637,7 @@
         <v>453051.4523</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3446,7 +3670,7 @@
         <v>453051.4523</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3479,7 +3703,7 @@
         <v>363043.4578</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3512,7 +3736,7 @@
         <v>373874.8715</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3545,7 +3769,7 @@
         <v>332547.5382</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3578,7 +3802,7 @@
         <v>330191.5383</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3611,7 +3835,7 @@
         <v>327578.5383</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3644,7 +3868,7 @@
         <v>327578.5383</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3677,7 +3901,7 @@
         <v>339409.0623999999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3710,7 +3934,7 @@
         <v>339669.0643999999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3743,7 +3967,7 @@
         <v>350936.0643999999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3776,7 +4000,7 @@
         <v>342976.0643999999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3809,7 +4033,7 @@
         <v>324882.0643999999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3842,7 +4066,7 @@
         <v>345372.0643999999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3875,7 +4099,7 @@
         <v>330192.0643999999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3908,7 +4132,7 @@
         <v>305915.1924999999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3941,7 +4165,7 @@
         <v>324552.1353999999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3974,7 +4198,7 @@
         <v>326221.8143999999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4007,7 +4231,7 @@
         <v>326271.8143999999</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4040,7 +4264,7 @@
         <v>344421.2616999999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4073,7 +4297,7 @@
         <v>349902.1209999999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4106,7 +4330,7 @@
         <v>325983.6869999999</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4139,7 +4363,7 @@
         <v>325983.6869999999</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4172,7 +4396,7 @@
         <v>322840.5555999999</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4205,7 +4429,7 @@
         <v>311437.5555999999</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4271,7 +4495,7 @@
         <v>324525.2986999999</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4436,7 +4660,7 @@
         <v>322137.3913</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4469,7 +4693,7 @@
         <v>321481.8728</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4502,7 +4726,7 @@
         <v>319971.8728</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4535,7 +4759,7 @@
         <v>319971.8728</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4601,7 +4825,7 @@
         <v>319991.8728</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4733,7 +4957,7 @@
         <v>303856.2402999999</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4766,7 +4990,7 @@
         <v>289022.9138999999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4799,7 +5023,7 @@
         <v>284545.7944</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4832,7 +5056,7 @@
         <v>284545.7944</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4865,7 +5089,7 @@
         <v>284555.7944</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4898,7 +5122,7 @@
         <v>281253.8526</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5558,7 +5782,7 @@
         <v>244861.8523104022</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5591,7 +5815,7 @@
         <v>251136.2909104022</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5624,7 +5848,7 @@
         <v>251136.2909104022</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5657,7 +5881,7 @@
         <v>250631.2909104022</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5690,7 +5914,7 @@
         <v>248721.7325104022</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5723,7 +5947,7 @@
         <v>247841.7325104022</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5921,7 +6145,7 @@
         <v>168311.7051104022</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5954,7 +6178,7 @@
         <v>179811.7051104022</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6152,7 +6376,7 @@
         <v>181650.9221403342</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6185,7 +6409,7 @@
         <v>181650.9221403342</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6218,7 +6442,7 @@
         <v>166680.9221403342</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6251,7 +6475,7 @@
         <v>166680.9221403342</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6284,7 +6508,7 @@
         <v>166680.9221403342</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6317,7 +6541,7 @@
         <v>163637.0157403342</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7714,6 +7938,6 @@
       <c r="M218" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-26 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,17 +484,11 @@
         <v>-23962.20659999998</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>-23962.20659999998</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>70.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>-23962.20659999998</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>70.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>-21962.20659999998</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>70.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>-14694.80659999998</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>71.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>-26684.80659999997</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>71.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>-26684.80659999997</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>70.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>-21684.80659999997</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>70.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,17 +748,11 @@
         <v>-19578.06509999997</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -835,17 +781,11 @@
         <v>-18483.06509999997</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>71.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -874,17 +814,11 @@
         <v>-14417.75659999998</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>71.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -913,17 +847,11 @@
         <v>-14473.85749999997</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>71.40000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -952,17 +880,11 @@
         <v>-14463.85749999997</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>71.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -991,17 +913,11 @@
         <v>-18993.85749999998</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>72.09999999999999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1030,17 +946,11 @@
         <v>-15793.85749999998</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>72</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1069,17 +979,11 @@
         <v>-18614.91039999998</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>72.59999999999999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1108,15 +1012,11 @@
         <v>-17588.91039999998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1145,15 +1045,11 @@
         <v>-17588.91039999998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1182,15 +1078,11 @@
         <v>-17588.91039999998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1223,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1260,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1297,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1334,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1371,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1445,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1478,17 +1342,11 @@
         <v>-9530.900699999976</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>72.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1517,17 +1375,11 @@
         <v>3688.542200000024</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>72.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1556,17 +1408,11 @@
         <v>16931.90700000002</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>72.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1595,17 +1441,11 @@
         <v>88445.78130000002</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>72.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1634,17 +1474,11 @@
         <v>88445.78130000002</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>72.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1677,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1714,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1751,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1788,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1825,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1862,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1899,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1973,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2010,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2047,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2084,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2121,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2158,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2195,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2232,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2269,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2306,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2343,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2380,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2417,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2454,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2491,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2528,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2565,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2602,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2639,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2676,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2713,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2750,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2787,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2824,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2861,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2898,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2935,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2972,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3009,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3046,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3083,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3120,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3194,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3231,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3268,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3305,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3338,16 +2992,14 @@
         <v>475426.0432139785</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
       <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
@@ -3373,7 +3025,7 @@
         <v>502344.8236139785</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3406,7 +3058,7 @@
         <v>552072.8988</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3439,7 +3091,7 @@
         <v>552072.8988</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3472,7 +3124,7 @@
         <v>522548.0989</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3505,7 +3157,7 @@
         <v>522415.8723</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3538,7 +3190,7 @@
         <v>512645.3712</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3571,7 +3223,7 @@
         <v>492645.3712</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3604,7 +3256,7 @@
         <v>498935.3712</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3637,7 +3289,7 @@
         <v>453051.4523</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3670,7 +3322,7 @@
         <v>453051.4523</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3703,7 +3355,7 @@
         <v>363043.4578</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3736,7 +3388,7 @@
         <v>373874.8715</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3769,7 +3421,7 @@
         <v>332547.5382</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3802,7 +3454,7 @@
         <v>330191.5383</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3835,7 +3487,7 @@
         <v>327578.5383</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3868,7 +3520,7 @@
         <v>327578.5383</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3901,7 +3553,7 @@
         <v>339409.0623999999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3934,7 +3586,7 @@
         <v>339669.0643999999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3967,7 +3619,7 @@
         <v>350936.0643999999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4000,7 +3652,7 @@
         <v>342976.0643999999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4033,7 +3685,7 @@
         <v>324882.0643999999</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4066,7 +3718,7 @@
         <v>345372.0643999999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4099,7 +3751,7 @@
         <v>330192.0643999999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4132,7 +3784,7 @@
         <v>305915.1924999999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4165,7 +3817,7 @@
         <v>324552.1353999999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4198,7 +3850,7 @@
         <v>326221.8143999999</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4231,7 +3883,7 @@
         <v>326271.8143999999</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4264,7 +3916,7 @@
         <v>344421.2616999999</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4297,7 +3949,7 @@
         <v>349902.1209999999</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4330,7 +3982,7 @@
         <v>325983.6869999999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4363,7 +4015,7 @@
         <v>325983.6869999999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4660,7 +4312,7 @@
         <v>322137.3913</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4693,7 +4345,7 @@
         <v>321481.8728</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4726,7 +4378,7 @@
         <v>319971.8728</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4759,7 +4411,7 @@
         <v>319971.8728</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4825,7 +4477,7 @@
         <v>319991.8728</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4957,7 +4609,7 @@
         <v>303856.2402999999</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4990,7 +4642,7 @@
         <v>289022.9138999999</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5023,7 +4675,7 @@
         <v>284545.7944</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5056,7 +4708,7 @@
         <v>284545.7944</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5089,7 +4741,7 @@
         <v>284555.7944</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5122,7 +4774,7 @@
         <v>281253.8526</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5782,7 +5434,7 @@
         <v>244861.8523104022</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5815,7 +5467,7 @@
         <v>251136.2909104022</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5848,7 +5500,7 @@
         <v>251136.2909104022</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5914,7 +5566,7 @@
         <v>248721.7325104022</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6145,7 +5797,7 @@
         <v>168311.7051104022</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6178,7 +5830,7 @@
         <v>179811.7051104022</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6376,7 +6028,7 @@
         <v>181650.9221403342</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6409,7 +6061,7 @@
         <v>181650.9221403342</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6442,7 +6094,7 @@
         <v>166680.9221403342</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6475,7 +6127,7 @@
         <v>166680.9221403342</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6508,7 +6160,7 @@
         <v>166680.9221403342</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6541,7 +6193,7 @@
         <v>163637.0157403342</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7498,10 +7150,14 @@
         <v>193113.3026403343</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>70</v>
+      </c>
+      <c r="J205" t="n">
+        <v>70</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
@@ -7531,11 +7187,19 @@
         <v>193113.3026403343</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="J206" t="n">
+        <v>70</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7564,11 +7228,19 @@
         <v>193072.0690403343</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="J207" t="n">
+        <v>70</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7597,10 +7269,14 @@
         <v>197949.5758403343</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="J208" t="n">
+        <v>69.90000000000001</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
@@ -7630,11 +7306,19 @@
         <v>205461.0623403343</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="J209" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7663,11 +7347,19 @@
         <v>205322.3598403342</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="J210" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7696,10 +7388,14 @@
         <v>204213.0049403342</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="J211" t="n">
+        <v>70.40000000000001</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
@@ -7729,11 +7425,19 @@
         <v>212343.0049403342</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="J212" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7765,8 +7469,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7798,8 +7508,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7831,8 +7547,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7864,8 +7586,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7897,8 +7625,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7930,14 +7664,20 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
       <c r="M218" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-26 BackTest ENJ.xlsx
@@ -451,7 +451,7 @@
         <v>-17978.20659999998</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>-23962.20659999998</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>71</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>-23962.20659999998</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>70.90000000000001</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>-23962.20659999998</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>70.90000000000001</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>-21962.20659999998</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>70.90000000000001</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>-14694.80659999998</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>71.09999999999999</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>-26684.80659999997</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>71.2</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>-26684.80659999997</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>70.90000000000001</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +757,17 @@
         <v>-21684.80659999997</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>70.90000000000001</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +796,17 @@
         <v>-19578.06509999997</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>71</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +835,17 @@
         <v>-18483.06509999997</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>71.2</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +874,17 @@
         <v>-14417.75659999998</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>71.3</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +913,17 @@
         <v>-14473.85749999997</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>71.40000000000001</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +952,17 @@
         <v>-14463.85749999997</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>71.3</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +991,15 @@
         <v>-18993.85749999998</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1028,15 @@
         <v>-15793.85749999998</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1065,15 @@
         <v>-18614.91039999998</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1102,15 @@
         <v>-17588.91039999998</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1139,15 @@
         <v>-17588.91039999998</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1176,15 @@
         <v>-17588.91039999998</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1217,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1254,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1291,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1328,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1365,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1402,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1439,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1476,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1513,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1550,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1587,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1624,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1661,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1698,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1735,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1772,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1809,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1846,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1883,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1920,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1957,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1994,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2031,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2068,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2105,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2142,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2179,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2216,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2253,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2290,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2327,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2364,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2401,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2438,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2475,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2512,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2549,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2586,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2623,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2660,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2697,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2734,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2771,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2808,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2845,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2882,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2919,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2956,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2993,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +3030,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3067,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3104,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3141,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3178,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3215,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3252,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3289,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3326,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,14 +3359,16 @@
         <v>502344.8236139785</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -3058,7 +3394,7 @@
         <v>552072.8988</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3427,7 @@
         <v>552072.8988</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3460,7 @@
         <v>522548.0989</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3493,7 @@
         <v>522415.8723</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3526,7 @@
         <v>512645.3712</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -7150,14 +7486,10 @@
         <v>193113.3026403343</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>70</v>
-      </c>
-      <c r="J205" t="n">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
@@ -7187,19 +7519,11 @@
         <v>193113.3026403343</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="J206" t="n">
-        <v>70</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7228,19 +7552,11 @@
         <v>193072.0690403343</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="J207" t="n">
-        <v>70</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7269,14 +7585,10 @@
         <v>197949.5758403343</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="J208" t="n">
-        <v>69.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
@@ -7306,19 +7618,11 @@
         <v>205461.0623403343</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="J209" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7347,19 +7651,11 @@
         <v>205322.3598403342</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>70.8</v>
-      </c>
-      <c r="J210" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7388,14 +7684,10 @@
         <v>204213.0049403342</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="J211" t="n">
-        <v>70.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
@@ -7425,19 +7717,11 @@
         <v>212343.0049403342</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="J212" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7469,14 +7753,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7508,14 +7786,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7547,14 +7819,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7586,14 +7852,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7625,14 +7885,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7664,14 +7918,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
